--- a/document/excel_upload_자료/TBL_EXP_CODE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_CODE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\스타에셋프로젝트\DB\excelUploadTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7C765B-B8C1-41F4-8B7A-958B3B33D021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36BC8C-B63A-4137-8228-7B013BE0BE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29895" yWindow="2550" windowWidth="19830" windowHeight="12045" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -16,28 +16,20 @@
     <sheet name="GRP_CODE" sheetId="1" r:id="rId1"/>
     <sheet name="CODE" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CODE!$A$5:$O$297</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="663">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -727,9 +719,6 @@
     <t>EVERYWEEK</t>
   </si>
   <si>
-    <t>RESULTING</t>
-  </si>
-  <si>
     <t>PRE_CONTRACT</t>
   </si>
   <si>
@@ -2040,6 +2029,22 @@
   </si>
   <si>
     <t>스텝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약체결 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2256,14 +2261,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2601,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -2614,13 +2619,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1">
-      <c r="A1" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="A1" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2643,12 +2648,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -2660,7 +2665,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2668,7 +2673,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>10</v>
@@ -2688,7 +2693,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -2708,7 +2713,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
@@ -2726,7 +2731,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
@@ -2744,7 +2749,7 @@
         <v>151</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
@@ -2762,7 +2767,7 @@
         <v>163</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
@@ -2780,7 +2785,7 @@
         <v>146</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -2795,13 +2800,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>304</v>
-      </c>
       <c r="C11" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -2818,10 +2823,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>339</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>340</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -2838,10 +2843,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>301</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>302</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -2858,10 +2863,10 @@
         <v>103</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>334</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
@@ -2878,7 +2883,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -2896,10 +2901,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
@@ -2916,10 +2921,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>308</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>19</v>
@@ -2936,10 +2941,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>314</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>19</v>
@@ -2956,10 +2961,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>323</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>324</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
@@ -2976,10 +2981,10 @@
         <v>38</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>19</v>
@@ -2996,10 +3001,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>19</v>
@@ -3016,7 +3021,7 @@
         <v>201</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -3034,7 +3039,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -3052,7 +3057,7 @@
         <v>205</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
@@ -3070,7 +3075,7 @@
         <v>211</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
@@ -3088,7 +3093,7 @@
         <v>217</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
@@ -3106,10 +3111,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>19</v>
@@ -3126,10 +3131,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>19</v>
@@ -3146,10 +3151,10 @@
         <v>117</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>320</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>19</v>
@@ -3166,10 +3171,10 @@
         <v>114</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>19</v>
@@ -3186,10 +3191,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>19</v>
@@ -3206,10 +3211,10 @@
         <v>71</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>19</v>
@@ -3226,10 +3231,10 @@
         <v>58</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>332</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>333</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>19</v>
@@ -3246,7 +3251,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
@@ -3264,10 +3269,10 @@
         <v>149</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>19</v>
@@ -3284,10 +3289,10 @@
         <v>193</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>19</v>
@@ -3301,13 +3306,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>19</v>
@@ -3321,13 +3326,13 @@
     </row>
     <row r="38" spans="1:6" ht="33">
       <c r="A38" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>19</v>
@@ -3341,13 +3346,13 @@
     </row>
     <row r="39" spans="1:6" ht="33">
       <c r="A39" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>19</v>
@@ -3361,13 +3366,13 @@
     </row>
     <row r="40" spans="1:6" ht="33">
       <c r="A40" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>19</v>
@@ -3381,13 +3386,13 @@
     </row>
     <row r="41" spans="1:6" ht="33">
       <c r="A41" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>19</v>
@@ -3401,13 +3406,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>19</v>
@@ -3421,13 +3426,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>369</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>370</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>19</v>
@@ -3441,13 +3446,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>19</v>
@@ -3461,13 +3466,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>375</v>
-      </c>
       <c r="C45" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>19</v>
@@ -3481,13 +3486,13 @@
     </row>
     <row r="46" spans="1:6" ht="33">
       <c r="A46" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>377</v>
-      </c>
       <c r="C46" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>19</v>
@@ -3501,13 +3506,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>379</v>
-      </c>
       <c r="C47" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>19</v>
@@ -3521,13 +3526,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>381</v>
-      </c>
       <c r="C48" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>19</v>
@@ -3541,13 +3546,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>653</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>19</v>
@@ -3570,29 +3575,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706EC46-4FD3-47B1-964A-6FD042DA6B08}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="I298" sqref="I298"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="30.25" customWidth="1"/>
+    <col min="4" max="4" width="30.75" customWidth="1"/>
     <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="A1" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3618,15 +3626,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>349</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -3635,7 +3643,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -3696,7 +3704,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" hidden="1">
       <c r="A6" s="12" t="s">
         <v>201</v>
       </c>
@@ -3719,7 +3727,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" hidden="1">
       <c r="A7" s="12" t="s">
         <v>201</v>
       </c>
@@ -3742,7 +3750,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" hidden="1">
       <c r="A8" s="12" t="s">
         <v>205</v>
       </c>
@@ -3765,7 +3773,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" hidden="1">
       <c r="A9" s="12" t="s">
         <v>205</v>
       </c>
@@ -3788,7 +3796,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" hidden="1">
       <c r="A10" s="12" t="s">
         <v>205</v>
       </c>
@@ -3811,7 +3819,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" hidden="1">
       <c r="A11" s="12" t="s">
         <v>211</v>
       </c>
@@ -3834,7 +3842,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" hidden="1">
       <c r="A12" s="12" t="s">
         <v>146</v>
       </c>
@@ -3857,7 +3865,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" hidden="1">
       <c r="A13" s="12" t="s">
         <v>211</v>
       </c>
@@ -3880,7 +3888,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" hidden="1">
       <c r="A14" s="12" t="s">
         <v>217</v>
       </c>
@@ -3903,7 +3911,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" hidden="1">
       <c r="A15" s="12" t="s">
         <v>217</v>
       </c>
@@ -3926,7 +3934,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" hidden="1">
       <c r="A16" s="12" t="s">
         <v>201</v>
       </c>
@@ -3949,7 +3957,7 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
@@ -3977,10 +3985,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>222</v>
@@ -3992,12 +4000,12 @@
         <v>20</v>
       </c>
       <c r="G18" s="12">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1">
       <c r="A19" s="12" t="s">
         <v>114</v>
       </c>
@@ -4022,7 +4030,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
@@ -4049,16 +4057,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>37</v>
+        <v>659</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>226</v>
+        <v>661</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>219</v>
+        <v>662</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>219</v>
+        <v>660</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>19</v>
@@ -4067,12 +4075,12 @@
         <v>20</v>
       </c>
       <c r="G21" s="12">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1">
       <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
@@ -4102,13 +4110,13 @@
         <v>37</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>353</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>19</v>
@@ -4122,12 +4130,12 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1">
       <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>75</v>
@@ -4147,12 +4155,12 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>219</v>
@@ -4170,15 +4178,15 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1">
       <c r="A26" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>230</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>231</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="s">
@@ -4193,7 +4201,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
@@ -4216,12 +4224,12 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>66</v>
@@ -4241,7 +4249,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -4266,18 +4274,18 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>233</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>234</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>20</v>
@@ -4291,7 +4299,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" s="12" t="s">
         <v>110</v>
       </c>
@@ -4299,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>19</v>
@@ -4316,18 +4324,18 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>383</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>384</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>19</v>
@@ -4341,18 +4349,18 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>19</v>
@@ -4366,7 +4374,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" s="12" t="s">
         <v>149</v>
       </c>
@@ -4377,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>19</v>
@@ -4391,18 +4399,18 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="D35" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>19</v>
@@ -4416,18 +4424,18 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>19</v>
@@ -4441,18 +4449,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="D37" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>19</v>
@@ -4466,18 +4474,18 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>250</v>
-      </c>
       <c r="D38" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
@@ -4491,18 +4499,18 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="D39" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>19</v>
@@ -4516,18 +4524,18 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="D40" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>19</v>
@@ -4541,18 +4549,18 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>257</v>
-      </c>
       <c r="D41" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>19</v>
@@ -4566,18 +4574,18 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="C42" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="D42" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>19</v>
@@ -4591,18 +4599,18 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>262</v>
-      </c>
       <c r="D43" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
@@ -4616,18 +4624,18 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B44" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>264</v>
-      </c>
       <c r="D44" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>19</v>
@@ -4641,18 +4649,18 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="D45" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>19</v>
@@ -4666,18 +4674,18 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>268</v>
-      </c>
       <c r="D46" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>19</v>
@@ -4691,18 +4699,18 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>270</v>
-      </c>
       <c r="D47" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>19</v>
@@ -4716,18 +4724,18 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" ht="33">
+    <row r="48" spans="1:9" ht="20.25" hidden="1" customHeight="1">
       <c r="A48" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>273</v>
-      </c>
       <c r="D48" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>19</v>
@@ -4741,18 +4749,18 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" ht="33">
+    <row r="49" spans="1:9" ht="20.25" hidden="1" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>275</v>
-      </c>
       <c r="D49" s="12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>19</v>
@@ -4766,18 +4774,18 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" ht="33">
+    <row r="50" spans="1:9" ht="20.25" hidden="1" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>277</v>
-      </c>
       <c r="D50" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>19</v>
@@ -4791,18 +4799,18 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="C51" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C51" s="12" t="s">
-        <v>280</v>
-      </c>
       <c r="D51" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>19</v>
@@ -4816,18 +4824,18 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="C52" s="12" t="s">
-        <v>282</v>
-      </c>
       <c r="D52" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>19</v>
@@ -4841,18 +4849,18 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C53" s="12" t="s">
-        <v>284</v>
-      </c>
       <c r="D53" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>19</v>
@@ -4866,7 +4874,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" s="12" t="s">
         <v>114</v>
       </c>
@@ -4874,10 +4882,10 @@
         <v>122</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>19</v>
@@ -4891,18 +4899,18 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>288</v>
-      </c>
       <c r="D55" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>19</v>
@@ -4916,12 +4924,12 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>108</v>
@@ -4941,9 +4949,9 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>105</v>
@@ -4966,18 +4974,18 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>293</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>19</v>
@@ -4991,18 +4999,18 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>295</v>
-      </c>
       <c r="D59" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>19</v>
@@ -5016,18 +5024,18 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B60" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>297</v>
-      </c>
       <c r="D60" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>19</v>
@@ -5041,18 +5049,18 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>387</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>19</v>
@@ -5066,18 +5074,18 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>389</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>390</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>19</v>
@@ -5091,18 +5099,18 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>19</v>
@@ -5116,18 +5124,18 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>395</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>396</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
@@ -5141,18 +5149,18 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>19</v>
@@ -5166,18 +5174,18 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>401</v>
-      </c>
       <c r="D66" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>19</v>
@@ -5191,18 +5199,18 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>19</v>
@@ -5216,18 +5224,18 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>19</v>
@@ -5241,18 +5249,18 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>409</v>
-      </c>
       <c r="D69" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>19</v>
@@ -5266,18 +5274,18 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>411</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>19</v>
@@ -5291,18 +5299,18 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C71" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>288</v>
-      </c>
       <c r="D71" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>19</v>
@@ -5316,18 +5324,18 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>19</v>
@@ -5341,18 +5349,18 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>414</v>
-      </c>
       <c r="D73" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>19</v>
@@ -5366,18 +5374,18 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="D74" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>19</v>
@@ -5391,18 +5399,18 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>418</v>
-      </c>
       <c r="D75" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>19</v>
@@ -5416,18 +5424,18 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>420</v>
-      </c>
       <c r="D76" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>19</v>
@@ -5441,18 +5449,18 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B77" s="12">
         <v>1</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>19</v>
@@ -5466,18 +5474,18 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B78" s="12">
         <v>3</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>19</v>
@@ -5491,18 +5499,18 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" s="12">
         <v>5</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>19</v>
@@ -5516,18 +5524,18 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B80" s="12">
         <v>7</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>19</v>
@@ -5541,18 +5549,18 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B81" s="12">
         <v>9</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>19</v>
@@ -5566,18 +5574,18 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B82" s="12">
         <v>11</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>19</v>
@@ -5591,18 +5599,18 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>429</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>19</v>
@@ -5616,18 +5624,18 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="D84" s="12" t="s">
         <v>431</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>432</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>19</v>
@@ -5641,18 +5649,18 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B85" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>435</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>19</v>
@@ -5666,18 +5674,18 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="D86" s="12" t="s">
         <v>437</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>438</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>19</v>
@@ -5691,18 +5699,18 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B87" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="D87" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>19</v>
@@ -5716,18 +5724,18 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="D88" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>444</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>19</v>
@@ -5741,18 +5749,18 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B89" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="D89" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>447</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>19</v>
@@ -5766,18 +5774,18 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B90" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="D90" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>450</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>19</v>
@@ -5791,18 +5799,18 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="D91" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>19</v>
@@ -5816,18 +5824,18 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B92" s="12">
         <v>2</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>19</v>
@@ -5841,18 +5849,18 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B93" s="12">
         <v>4</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>19</v>
@@ -5866,18 +5874,18 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B94" s="12">
         <v>6</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>19</v>
@@ -5891,18 +5899,18 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B95" s="12">
         <v>8</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>19</v>
@@ -5916,18 +5924,18 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>19</v>
@@ -5941,18 +5949,18 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B97" s="12">
         <v>12</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>19</v>
@@ -5966,18 +5974,18 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="D98" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>19</v>
@@ -5991,18 +5999,18 @@
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B99" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>358</v>
-      </c>
       <c r="D99" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>19</v>
@@ -6016,18 +6024,18 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B100" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>360</v>
-      </c>
       <c r="D100" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>19</v>
@@ -6041,18 +6049,18 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>362</v>
-      </c>
       <c r="D101" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>19</v>
@@ -6066,18 +6074,18 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B102" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="D102" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>19</v>
@@ -6091,18 +6099,18 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B103" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>366</v>
-      </c>
       <c r="D103" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>19</v>
@@ -6116,18 +6124,18 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B104" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>368</v>
-      </c>
       <c r="D104" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>19</v>
@@ -6141,18 +6149,18 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B105" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>461</v>
-      </c>
       <c r="D105" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>19</v>
@@ -6166,18 +6174,18 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>463</v>
-      </c>
       <c r="D106" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>19</v>
@@ -6191,18 +6199,18 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B107" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>465</v>
-      </c>
       <c r="D107" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>19</v>
@@ -6216,18 +6224,18 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B108" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>467</v>
-      </c>
       <c r="D108" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>19</v>
@@ -6241,18 +6249,18 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>469</v>
-      </c>
       <c r="D109" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
@@ -6266,18 +6274,18 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>471</v>
-      </c>
       <c r="D110" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>19</v>
@@ -6291,18 +6299,18 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>473</v>
-      </c>
       <c r="D111" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>19</v>
@@ -6316,18 +6324,18 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>475</v>
-      </c>
       <c r="D112" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>19</v>
@@ -6341,18 +6349,18 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>477</v>
-      </c>
       <c r="D113" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>19</v>
@@ -6366,18 +6374,18 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>479</v>
-      </c>
       <c r="D114" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>19</v>
@@ -6391,18 +6399,18 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>481</v>
-      </c>
       <c r="D115" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>19</v>
@@ -6416,18 +6424,18 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>483</v>
-      </c>
       <c r="D116" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>19</v>
@@ -6441,18 +6449,18 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>485</v>
-      </c>
       <c r="D117" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>19</v>
@@ -6466,18 +6474,18 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>487</v>
-      </c>
       <c r="D118" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>19</v>
@@ -6491,18 +6499,18 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B119" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>489</v>
-      </c>
       <c r="D119" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>19</v>
@@ -6516,18 +6524,18 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B120" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>491</v>
-      </c>
       <c r="D120" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>19</v>
@@ -6541,18 +6549,18 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B121" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>493</v>
-      </c>
       <c r="D121" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>19</v>
@@ -6566,18 +6574,18 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>495</v>
-      </c>
       <c r="D122" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>19</v>
@@ -6591,18 +6599,18 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>497</v>
-      </c>
       <c r="D123" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>19</v>
@@ -6616,18 +6624,18 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B124" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>499</v>
-      </c>
       <c r="D124" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>19</v>
@@ -6641,18 +6649,18 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B125" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>501</v>
-      </c>
       <c r="D125" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>19</v>
@@ -6666,18 +6674,18 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>503</v>
-      </c>
       <c r="D126" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>19</v>
@@ -6691,18 +6699,18 @@
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>505</v>
-      </c>
       <c r="D127" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>19</v>
@@ -6716,18 +6724,18 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>507</v>
-      </c>
       <c r="D128" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>19</v>
@@ -6741,18 +6749,18 @@
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>509</v>
-      </c>
       <c r="D129" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>19</v>
@@ -6766,18 +6774,18 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
     </row>
-    <row r="130" spans="1:9" ht="33">
+    <row r="130" spans="1:9" ht="22.5" hidden="1" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>511</v>
-      </c>
       <c r="D130" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
@@ -6791,18 +6799,18 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B131" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>513</v>
-      </c>
       <c r="D131" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>19</v>
@@ -6816,18 +6824,18 @@
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C132" s="12" t="s">
-        <v>515</v>
-      </c>
       <c r="D132" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>19</v>
@@ -6841,18 +6849,18 @@
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B133" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>517</v>
-      </c>
       <c r="D133" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>19</v>
@@ -6866,18 +6874,18 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>519</v>
-      </c>
       <c r="D134" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>19</v>
@@ -6891,18 +6899,18 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>521</v>
-      </c>
       <c r="D135" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>19</v>
@@ -6916,18 +6924,18 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B136" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>523</v>
-      </c>
       <c r="D136" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>19</v>
@@ -6941,18 +6949,18 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B137" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>525</v>
-      </c>
       <c r="D137" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>19</v>
@@ -6966,18 +6974,18 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B138" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>527</v>
-      </c>
       <c r="D138" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
@@ -6991,18 +6999,18 @@
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B139" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>529</v>
-      </c>
       <c r="D139" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>19</v>
@@ -7016,18 +7024,18 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>531</v>
-      </c>
       <c r="D140" s="12" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>19</v>
@@ -7041,18 +7049,18 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="C141" s="12" t="s">
-        <v>533</v>
-      </c>
       <c r="D141" s="12" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>19</v>
@@ -7066,18 +7074,18 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="C142" s="12" t="s">
-        <v>535</v>
-      </c>
       <c r="D142" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>19</v>
@@ -7091,18 +7099,18 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B143" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="C143" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="D143" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>19</v>
@@ -7116,18 +7124,18 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="C144" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="D144" s="12" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>19</v>
@@ -7141,18 +7149,18 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B145" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C145" s="12" t="s">
-        <v>541</v>
-      </c>
       <c r="D145" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>19</v>
@@ -7166,18 +7174,18 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C146" s="12" t="s">
-        <v>543</v>
-      </c>
       <c r="D146" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>19</v>
@@ -7191,18 +7199,18 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B147" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="C147" s="12" t="s">
-        <v>545</v>
-      </c>
       <c r="D147" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>19</v>
@@ -7216,18 +7224,18 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B148" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>547</v>
-      </c>
       <c r="D148" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>19</v>
@@ -7241,18 +7249,18 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B149" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>549</v>
-      </c>
       <c r="D149" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>19</v>
@@ -7266,18 +7274,18 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="D150" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>19</v>
@@ -7291,18 +7299,18 @@
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B151" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>553</v>
-      </c>
       <c r="D151" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>19</v>
@@ -7316,18 +7324,18 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B152" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>555</v>
-      </c>
       <c r="D152" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>19</v>
@@ -7341,18 +7349,18 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B153" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C153" s="12" t="s">
-        <v>557</v>
-      </c>
       <c r="D153" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>19</v>
@@ -7366,18 +7374,18 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B154" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="C154" s="12" t="s">
-        <v>559</v>
-      </c>
       <c r="D154" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>19</v>
@@ -7391,18 +7399,18 @@
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B155" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="C155" s="12" t="s">
-        <v>561</v>
-      </c>
       <c r="D155" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>19</v>
@@ -7416,18 +7424,18 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B156" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C156" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="C156" s="12" t="s">
-        <v>563</v>
-      </c>
       <c r="D156" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>19</v>
@@ -7441,18 +7449,18 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B157" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="C157" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>565</v>
-      </c>
       <c r="D157" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>19</v>
@@ -7466,18 +7474,18 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B158" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C158" s="12" t="s">
-        <v>567</v>
-      </c>
       <c r="D158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>19</v>
@@ -7491,18 +7499,18 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B159" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C159" s="12" t="s">
-        <v>569</v>
-      </c>
       <c r="D159" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>19</v>
@@ -7516,18 +7524,18 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B160" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="C160" s="12" t="s">
-        <v>571</v>
-      </c>
       <c r="D160" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>19</v>
@@ -7541,18 +7549,18 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B161" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>573</v>
-      </c>
       <c r="D161" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>19</v>
@@ -7566,18 +7574,18 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B162" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="C162" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="C162" s="12" t="s">
-        <v>575</v>
-      </c>
       <c r="D162" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>19</v>
@@ -7591,18 +7599,18 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B163" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="C163" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="C163" s="12" t="s">
-        <v>577</v>
-      </c>
       <c r="D163" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>19</v>
@@ -7616,18 +7624,18 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="C164" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="C164" s="12" t="s">
-        <v>579</v>
-      </c>
       <c r="D164" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>19</v>
@@ -7641,18 +7649,18 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B165" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="C165" s="12" t="s">
-        <v>581</v>
-      </c>
       <c r="D165" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>19</v>
@@ -7666,18 +7674,18 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B166" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="C166" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>583</v>
-      </c>
       <c r="D166" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>19</v>
@@ -7691,18 +7699,18 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B167" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C167" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>585</v>
-      </c>
       <c r="D167" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>19</v>
@@ -7716,18 +7724,18 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B168" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="C168" s="12" t="s">
-        <v>587</v>
-      </c>
       <c r="D168" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>19</v>
@@ -7741,18 +7749,18 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B169" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="C169" s="12" t="s">
-        <v>589</v>
-      </c>
       <c r="D169" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>19</v>
@@ -7766,18 +7774,18 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B170" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>591</v>
-      </c>
       <c r="D170" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>19</v>
@@ -7791,18 +7799,18 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B171" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C171" s="12" t="s">
-        <v>593</v>
-      </c>
       <c r="D171" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>19</v>
@@ -7816,18 +7824,18 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B172" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="C172" s="12" t="s">
-        <v>595</v>
-      </c>
       <c r="D172" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>19</v>
@@ -7841,18 +7849,18 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B173" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>597</v>
-      </c>
       <c r="D173" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>19</v>
@@ -7866,18 +7874,18 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B174" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>599</v>
-      </c>
       <c r="D174" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>19</v>
@@ -7891,18 +7899,18 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B175" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>601</v>
-      </c>
       <c r="D175" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>19</v>
@@ -7916,18 +7924,18 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B176" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>602</v>
       </c>
-      <c r="C176" s="12" t="s">
-        <v>603</v>
-      </c>
       <c r="D176" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>19</v>
@@ -7941,18 +7949,18 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B177" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="C177" s="12" t="s">
-        <v>605</v>
-      </c>
       <c r="D177" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>19</v>
@@ -7966,18 +7974,18 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B178" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="C178" s="12" t="s">
-        <v>607</v>
-      </c>
       <c r="D178" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>19</v>
@@ -7991,18 +7999,18 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B179" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>609</v>
-      </c>
       <c r="D179" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>19</v>
@@ -8016,18 +8024,18 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>611</v>
-      </c>
       <c r="D180" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>19</v>
@@ -8041,18 +8049,18 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B181" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="C181" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>613</v>
-      </c>
       <c r="D181" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>19</v>
@@ -8066,18 +8074,18 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B182" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>615</v>
-      </c>
       <c r="D182" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>19</v>
@@ -8091,18 +8099,18 @@
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B183" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>617</v>
-      </c>
       <c r="D183" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>19</v>
@@ -8116,18 +8124,18 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B184" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>618</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>619</v>
-      </c>
       <c r="D184" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>19</v>
@@ -8141,18 +8149,18 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B185" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>621</v>
-      </c>
       <c r="D185" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>19</v>
@@ -8166,18 +8174,18 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B186" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C186" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>623</v>
-      </c>
       <c r="D186" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>19</v>
@@ -8191,18 +8199,18 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B187" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="C187" s="12" t="s">
-        <v>625</v>
-      </c>
       <c r="D187" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>19</v>
@@ -8216,18 +8224,18 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B188" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="C188" s="12" t="s">
-        <v>627</v>
-      </c>
       <c r="D188" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>19</v>
@@ -8241,18 +8249,18 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B189" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="C189" s="12" t="s">
-        <v>629</v>
-      </c>
       <c r="D189" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -8266,18 +8274,18 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B190" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="C190" s="12" t="s">
-        <v>631</v>
-      </c>
       <c r="D190" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
@@ -8291,18 +8299,18 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B191" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>633</v>
-      </c>
       <c r="D191" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>19</v>
@@ -8316,18 +8324,18 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B192" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="C192" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>635</v>
-      </c>
       <c r="D192" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>19</v>
@@ -8341,18 +8349,18 @@
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B193" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="C193" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>637</v>
-      </c>
       <c r="D193" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>19</v>
@@ -8366,18 +8374,18 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B194" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>639</v>
-      </c>
       <c r="D194" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>19</v>
@@ -8391,18 +8399,18 @@
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B195" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C195" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="C195" s="12" t="s">
-        <v>641</v>
-      </c>
       <c r="D195" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>19</v>
@@ -8416,18 +8424,18 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="C196" s="12" t="s">
-        <v>643</v>
-      </c>
       <c r="D196" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>19</v>
@@ -8441,18 +8449,18 @@
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B197" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="C197" s="12" t="s">
-        <v>645</v>
-      </c>
       <c r="D197" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>19</v>
@@ -8466,18 +8474,18 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B198" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="C198" s="12" t="s">
-        <v>647</v>
-      </c>
       <c r="D198" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>19</v>
@@ -8491,18 +8499,18 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="C199" s="12" t="s">
-        <v>649</v>
-      </c>
       <c r="D199" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>19</v>
@@ -8516,18 +8524,18 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B200" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="C200" s="12" t="s">
-        <v>651</v>
-      </c>
       <c r="D200" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>19</v>
@@ -8541,7 +8549,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" s="12" t="s">
         <v>16</v>
       </c>
@@ -8564,7 +8572,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" s="12" t="s">
         <v>21</v>
       </c>
@@ -8589,7 +8597,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" s="12" t="s">
         <v>24</v>
       </c>
@@ -8614,7 +8622,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" s="12" t="s">
         <v>27</v>
       </c>
@@ -8639,7 +8647,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" s="12" t="s">
         <v>30</v>
       </c>
@@ -8662,7 +8670,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" s="12" t="s">
         <v>33</v>
       </c>
@@ -8687,7 +8695,7 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" s="12" t="s">
         <v>38</v>
       </c>
@@ -8710,7 +8718,7 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" s="12" t="s">
         <v>40</v>
       </c>
@@ -8733,7 +8741,7 @@
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1">
       <c r="A209" s="12" t="s">
         <v>38</v>
       </c>
@@ -8756,7 +8764,7 @@
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" s="12" t="s">
         <v>38</v>
       </c>
@@ -8779,7 +8787,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" s="12" t="s">
         <v>40</v>
       </c>
@@ -8802,7 +8810,7 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" s="12" t="s">
         <v>40</v>
       </c>
@@ -8825,7 +8833,7 @@
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" s="12" t="s">
         <v>40</v>
       </c>
@@ -8848,7 +8856,7 @@
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" s="12" t="s">
         <v>51</v>
       </c>
@@ -8871,7 +8879,7 @@
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" s="12" t="s">
         <v>51</v>
       </c>
@@ -8894,7 +8902,7 @@
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216" s="12" t="s">
         <v>51</v>
       </c>
@@ -8917,7 +8925,7 @@
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" s="12" t="s">
         <v>58</v>
       </c>
@@ -8942,7 +8950,7 @@
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218" s="12" t="s">
         <v>60</v>
       </c>
@@ -8971,7 +8979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1">
       <c r="A219" s="12" t="s">
         <v>60</v>
       </c>
@@ -9000,7 +9008,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1">
       <c r="A220" s="12" t="s">
         <v>68</v>
       </c>
@@ -9023,7 +9031,7 @@
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1">
       <c r="A221" s="12" t="s">
         <v>71</v>
       </c>
@@ -9050,7 +9058,7 @@
       </c>
       <c r="I221" s="12"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" hidden="1">
       <c r="A222" s="12" t="s">
         <v>60</v>
       </c>
@@ -9079,7 +9087,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1">
       <c r="A223" s="12" t="s">
         <v>71</v>
       </c>
@@ -9106,7 +9114,7 @@
       </c>
       <c r="I223" s="12"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1">
       <c r="A224" s="12" t="s">
         <v>71</v>
       </c>
@@ -9133,7 +9141,7 @@
       </c>
       <c r="I224" s="12"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="12" t="s">
         <v>60</v>
       </c>
@@ -9162,7 +9170,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" s="12" t="s">
         <v>60</v>
       </c>
@@ -9191,7 +9199,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="12" t="s">
         <v>60</v>
       </c>
@@ -9220,7 +9228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" s="12" t="s">
         <v>71</v>
       </c>
@@ -9247,7 +9255,7 @@
       </c>
       <c r="I228" s="12"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" s="12" t="s">
         <v>71</v>
       </c>
@@ -9274,7 +9282,7 @@
       </c>
       <c r="I229" s="12"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" s="12" t="s">
         <v>71</v>
       </c>
@@ -9301,7 +9309,7 @@
       </c>
       <c r="I230" s="12"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" s="12" t="s">
         <v>58</v>
       </c>
@@ -9326,7 +9334,7 @@
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" s="12" t="s">
         <v>68</v>
       </c>
@@ -9349,7 +9357,7 @@
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" s="12" t="s">
         <v>68</v>
       </c>
@@ -9372,7 +9380,7 @@
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="12" t="s">
         <v>21</v>
       </c>
@@ -9397,7 +9405,7 @@
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="12" t="s">
         <v>30</v>
       </c>
@@ -9420,7 +9428,7 @@
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" s="12" t="s">
         <v>21</v>
       </c>
@@ -9445,7 +9453,7 @@
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="12" t="s">
         <v>103</v>
       </c>
@@ -9468,7 +9476,7 @@
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" s="12" t="s">
         <v>16</v>
       </c>
@@ -9491,7 +9499,7 @@
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="12" t="s">
         <v>33</v>
       </c>
@@ -9516,7 +9524,7 @@
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="12" t="s">
         <v>110</v>
       </c>
@@ -9541,7 +9549,7 @@
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" s="12" t="s">
         <v>24</v>
       </c>
@@ -9566,7 +9574,7 @@
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" s="12" t="s">
         <v>114</v>
       </c>
@@ -9591,7 +9599,7 @@
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="12" t="s">
         <v>117</v>
       </c>
@@ -9616,7 +9624,7 @@
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" s="12" t="s">
         <v>117</v>
       </c>
@@ -9641,7 +9649,7 @@
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="12" t="s">
         <v>117</v>
       </c>
@@ -9666,7 +9674,7 @@
       <c r="H245" s="12"/>
       <c r="I245" s="12"/>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" s="12" t="s">
         <v>124</v>
       </c>
@@ -9691,7 +9699,7 @@
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" s="12" t="s">
         <v>124</v>
       </c>
@@ -9714,7 +9722,7 @@
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="12" t="s">
         <v>124</v>
       </c>
@@ -9737,7 +9745,7 @@
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="12" t="s">
         <v>124</v>
       </c>
@@ -9760,7 +9768,7 @@
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" s="12" t="s">
         <v>114</v>
       </c>
@@ -9785,7 +9793,7 @@
       <c r="H250" s="12"/>
       <c r="I250" s="12"/>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1">
       <c r="A251" s="12" t="s">
         <v>21</v>
       </c>
@@ -9810,7 +9818,7 @@
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1">
       <c r="A252" s="12" t="s">
         <v>27</v>
       </c>
@@ -9843,7 +9851,7 @@
         <v>137</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>138</v>
@@ -9860,7 +9868,7 @@
       <c r="H253" s="12"/>
       <c r="I253" s="12"/>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1">
       <c r="A254" s="12" t="s">
         <v>27</v>
       </c>
@@ -9885,7 +9893,7 @@
       <c r="H254" s="12"/>
       <c r="I254" s="12"/>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" hidden="1">
       <c r="A255" s="12" t="s">
         <v>141</v>
       </c>
@@ -9908,7 +9916,7 @@
       <c r="H255" s="12"/>
       <c r="I255" s="12"/>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1">
       <c r="A256" s="12" t="s">
         <v>141</v>
       </c>
@@ -9931,7 +9939,7 @@
       <c r="H256" s="12"/>
       <c r="I256" s="12"/>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1">
       <c r="A257" s="12" t="s">
         <v>146</v>
       </c>
@@ -9954,7 +9962,7 @@
       <c r="H257" s="12"/>
       <c r="I257" s="12"/>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1">
       <c r="A258" s="12" t="s">
         <v>149</v>
       </c>
@@ -9979,7 +9987,7 @@
       <c r="H258" s="12"/>
       <c r="I258" s="12"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1">
       <c r="A259" s="12" t="s">
         <v>151</v>
       </c>
@@ -10002,7 +10010,7 @@
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1">
       <c r="A260" s="12" t="s">
         <v>151</v>
       </c>
@@ -10025,7 +10033,7 @@
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1">
       <c r="A261" s="12" t="s">
         <v>156</v>
       </c>
@@ -10048,7 +10056,7 @@
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1">
       <c r="A262" s="12" t="s">
         <v>156</v>
       </c>
@@ -10071,7 +10079,7 @@
       <c r="H262" s="12"/>
       <c r="I262" s="12"/>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1">
       <c r="A263" s="12" t="s">
         <v>156</v>
       </c>
@@ -10094,7 +10102,7 @@
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1">
       <c r="A264" s="12" t="s">
         <v>163</v>
       </c>
@@ -10117,7 +10125,7 @@
       <c r="H264" s="12"/>
       <c r="I264" s="12"/>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1">
       <c r="A265" s="12" t="s">
         <v>163</v>
       </c>
@@ -10140,7 +10148,7 @@
       <c r="H265" s="12"/>
       <c r="I265" s="12"/>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1">
       <c r="A266" s="12" t="s">
         <v>163</v>
       </c>
@@ -10163,7 +10171,7 @@
       <c r="H266" s="12"/>
       <c r="I266" s="12"/>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1">
       <c r="A267" s="12" t="s">
         <v>146</v>
       </c>
@@ -10186,7 +10194,7 @@
       <c r="H267" s="12"/>
       <c r="I267" s="12"/>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1">
       <c r="A268" s="12" t="s">
         <v>149</v>
       </c>
@@ -10211,7 +10219,7 @@
       <c r="H268" s="12"/>
       <c r="I268" s="12"/>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1">
       <c r="A269" s="12" t="s">
         <v>149</v>
       </c>
@@ -10236,7 +10244,7 @@
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" s="12" t="s">
         <v>149</v>
       </c>
@@ -10261,7 +10269,7 @@
       <c r="H270" s="12"/>
       <c r="I270" s="12"/>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1">
       <c r="A271" s="12" t="s">
         <v>149</v>
       </c>
@@ -10286,7 +10294,7 @@
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1">
       <c r="A272" s="12" t="s">
         <v>149</v>
       </c>
@@ -10311,7 +10319,7 @@
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1">
       <c r="A273" s="12" t="s">
         <v>149</v>
       </c>
@@ -10336,7 +10344,7 @@
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" s="12" t="s">
         <v>149</v>
       </c>
@@ -10361,7 +10369,7 @@
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275" s="12" t="s">
         <v>149</v>
       </c>
@@ -10386,7 +10394,7 @@
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276" s="12" t="s">
         <v>149</v>
       </c>
@@ -10411,7 +10419,7 @@
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" s="12" t="s">
         <v>149</v>
       </c>
@@ -10436,7 +10444,7 @@
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" s="12" t="s">
         <v>149</v>
       </c>
@@ -10461,7 +10469,7 @@
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" s="12" t="s">
         <v>149</v>
       </c>
@@ -10486,7 +10494,7 @@
       <c r="H279" s="12"/>
       <c r="I279" s="12"/>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280" s="12" t="s">
         <v>149</v>
       </c>
@@ -10511,7 +10519,7 @@
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" s="12" t="s">
         <v>149</v>
       </c>
@@ -10536,7 +10544,7 @@
       <c r="H281" s="12"/>
       <c r="I281" s="12"/>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282" s="12" t="s">
         <v>149</v>
       </c>
@@ -10561,7 +10569,7 @@
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" s="12" t="s">
         <v>149</v>
       </c>
@@ -10586,7 +10594,7 @@
       <c r="H283" s="12"/>
       <c r="I283" s="12"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284" s="12" t="s">
         <v>149</v>
       </c>
@@ -10611,7 +10619,7 @@
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" s="12" t="s">
         <v>149</v>
       </c>
@@ -10636,7 +10644,7 @@
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" s="12" t="s">
         <v>149</v>
       </c>
@@ -10661,7 +10669,7 @@
       <c r="H286" s="12"/>
       <c r="I286" s="12"/>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287" s="12" t="s">
         <v>149</v>
       </c>
@@ -10686,7 +10694,7 @@
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1">
       <c r="A288" s="12" t="s">
         <v>149</v>
       </c>
@@ -10711,7 +10719,7 @@
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1">
       <c r="A289" s="12" t="s">
         <v>149</v>
       </c>
@@ -10736,7 +10744,7 @@
       <c r="H289" s="12"/>
       <c r="I289" s="12"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1">
       <c r="A290" s="12" t="s">
         <v>193</v>
       </c>
@@ -10761,7 +10769,7 @@
       <c r="H290" s="12"/>
       <c r="I290" s="12"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" s="12" t="s">
         <v>193</v>
       </c>
@@ -10786,7 +10794,7 @@
       <c r="H291" s="12"/>
       <c r="I291" s="12"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292" s="12" t="s">
         <v>110</v>
       </c>
@@ -10811,7 +10819,7 @@
       <c r="H292" s="12"/>
       <c r="I292" s="12"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293" s="12" t="s">
         <v>163</v>
       </c>
@@ -10834,7 +10842,7 @@
       <c r="H293" s="12"/>
       <c r="I293" s="12"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294" s="12" t="s">
         <v>103</v>
       </c>
@@ -10857,18 +10865,18 @@
       <c r="H294" s="12"/>
       <c r="I294" s="12"/>
     </row>
-    <row r="295" spans="1:9">
-      <c r="A295" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="B295" s="19" t="s">
+    <row r="295" spans="1:9" hidden="1">
+      <c r="A295" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B295" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C295" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="C295" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="D295" s="19" t="s">
-        <v>655</v>
+      <c r="D295" s="17" t="s">
+        <v>654</v>
       </c>
       <c r="E295" s="12" t="s">
         <v>19</v>
@@ -10876,24 +10884,24 @@
       <c r="F295" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G295" s="19">
+      <c r="G295" s="17">
         <v>10</v>
       </c>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
     </row>
-    <row r="296" spans="1:9">
-      <c r="A296" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="B296" s="19" t="s">
+    <row r="296" spans="1:9" hidden="1">
+      <c r="A296" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B296" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="C296" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="C296" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="D296" s="19" t="s">
-        <v>657</v>
+      <c r="D296" s="17" t="s">
+        <v>656</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>19</v>
@@ -10901,24 +10909,24 @@
       <c r="F296" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G296" s="19">
+      <c r="G296" s="17">
         <v>20</v>
       </c>
       <c r="H296" s="12"/>
       <c r="I296" s="12"/>
     </row>
-    <row r="297" spans="1:9">
-      <c r="A297" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="B297" s="19" t="s">
+    <row r="297" spans="1:9" hidden="1">
+      <c r="A297" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B297" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C297" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="C297" s="12" t="s">
-        <v>659</v>
-      </c>
       <c r="D297" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E297" s="12" t="s">
         <v>19</v>
@@ -10933,10 +10941,18 @@
       <c r="I297" s="12"/>
     </row>
   </sheetData>
+  <autoFilter ref="A5:O297" xr:uid="{AD31B149-8E7D-42B4-91D8-EA5630FDD1EF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PROCESS_STATE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document/excel_upload_자료/TBL_EXP_CODE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_CODE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D36BC8C-B63A-4137-8228-7B013BE0BE47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B8E38-A6EF-4AD4-A298-99EF92347251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29895" yWindow="2550" windowWidth="19830" windowHeight="12045" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -1097,9 +1097,6 @@
     <t>체결 완료</t>
   </si>
   <si>
-    <t>실행 완료</t>
-  </si>
-  <si>
     <t>제안 진행</t>
   </si>
   <si>
@@ -2045,6 +2042,10 @@
   </si>
   <si>
     <t>체결 대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3426,13 +3427,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B43" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>369</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>19</v>
@@ -3446,13 +3447,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>19</v>
@@ -3466,13 +3467,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>374</v>
-      </c>
       <c r="C45" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>19</v>
@@ -3486,13 +3487,13 @@
     </row>
     <row r="46" spans="1:6" ht="33">
       <c r="A46" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B46" s="12" t="s">
-        <v>376</v>
-      </c>
       <c r="C46" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>19</v>
@@ -3506,13 +3507,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>378</v>
-      </c>
       <c r="C47" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>19</v>
@@ -3526,13 +3527,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>380</v>
-      </c>
       <c r="C48" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>19</v>
@@ -3546,13 +3547,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>19</v>
@@ -3579,7 +3580,7 @@
   <dimension ref="A1:O297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C299" sqref="C299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3988,7 +3989,7 @@
         <v>278</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>350</v>
+        <v>662</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>222</v>
@@ -4057,16 +4058,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>659</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>661</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>660</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>19</v>
@@ -4113,10 +4114,10 @@
         <v>226</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>351</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>352</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>19</v>
@@ -4326,16 +4327,16 @@
     </row>
     <row r="32" spans="1:9" hidden="1">
       <c r="A32" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>382</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>19</v>
@@ -5051,16 +5052,16 @@
     </row>
     <row r="61" spans="1:9" hidden="1">
       <c r="A61" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B61" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>385</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>386</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>19</v>
@@ -5076,16 +5077,16 @@
     </row>
     <row r="62" spans="1:9" hidden="1">
       <c r="A62" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B62" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>19</v>
@@ -5101,16 +5102,16 @@
     </row>
     <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B63" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>19</v>
@@ -5126,16 +5127,16 @@
     </row>
     <row r="64" spans="1:9" hidden="1">
       <c r="A64" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
@@ -5151,16 +5152,16 @@
     </row>
     <row r="65" spans="1:9" hidden="1">
       <c r="A65" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B65" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>397</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>398</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>19</v>
@@ -5176,16 +5177,16 @@
     </row>
     <row r="66" spans="1:9" hidden="1">
       <c r="A66" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>400</v>
-      </c>
       <c r="D66" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>19</v>
@@ -5201,16 +5202,16 @@
     </row>
     <row r="67" spans="1:9" hidden="1">
       <c r="A67" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B67" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C67" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>19</v>
@@ -5226,16 +5227,16 @@
     </row>
     <row r="68" spans="1:9" hidden="1">
       <c r="A68" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C68" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D68" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>406</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>19</v>
@@ -5251,16 +5252,16 @@
     </row>
     <row r="69" spans="1:9" hidden="1">
       <c r="A69" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C69" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="D69" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>19</v>
@@ -5276,16 +5277,16 @@
     </row>
     <row r="70" spans="1:9" hidden="1">
       <c r="A70" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C70" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>410</v>
-      </c>
       <c r="D70" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>19</v>
@@ -5301,7 +5302,7 @@
     </row>
     <row r="71" spans="1:9" hidden="1">
       <c r="A71" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>286</v>
@@ -5326,16 +5327,16 @@
     </row>
     <row r="72" spans="1:9" hidden="1">
       <c r="A72" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>19</v>
@@ -5351,16 +5352,16 @@
     </row>
     <row r="73" spans="1:9" hidden="1">
       <c r="A73" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B73" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C73" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>413</v>
-      </c>
       <c r="D73" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>19</v>
@@ -5376,16 +5377,16 @@
     </row>
     <row r="74" spans="1:9" hidden="1">
       <c r="A74" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>415</v>
-      </c>
       <c r="D74" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>19</v>
@@ -5401,16 +5402,16 @@
     </row>
     <row r="75" spans="1:9" hidden="1">
       <c r="A75" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B75" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C75" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="D75" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>19</v>
@@ -5426,16 +5427,16 @@
     </row>
     <row r="76" spans="1:9" hidden="1">
       <c r="A76" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B76" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C76" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>419</v>
-      </c>
       <c r="D76" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>19</v>
@@ -5451,16 +5452,16 @@
     </row>
     <row r="77" spans="1:9" hidden="1">
       <c r="A77" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B77" s="12">
         <v>1</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>19</v>
@@ -5476,16 +5477,16 @@
     </row>
     <row r="78" spans="1:9" hidden="1">
       <c r="A78" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B78" s="12">
         <v>3</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>19</v>
@@ -5501,16 +5502,16 @@
     </row>
     <row r="79" spans="1:9" hidden="1">
       <c r="A79" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B79" s="12">
         <v>5</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>19</v>
@@ -5526,16 +5527,16 @@
     </row>
     <row r="80" spans="1:9" hidden="1">
       <c r="A80" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B80" s="12">
         <v>7</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>19</v>
@@ -5551,16 +5552,16 @@
     </row>
     <row r="81" spans="1:9" hidden="1">
       <c r="A81" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B81" s="12">
         <v>9</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>19</v>
@@ -5576,16 +5577,16 @@
     </row>
     <row r="82" spans="1:9" hidden="1">
       <c r="A82" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B82" s="12">
         <v>11</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>19</v>
@@ -5601,16 +5602,16 @@
     </row>
     <row r="83" spans="1:9" hidden="1">
       <c r="A83" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B83" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>19</v>
@@ -5626,16 +5627,16 @@
     </row>
     <row r="84" spans="1:9" hidden="1">
       <c r="A84" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B84" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C84" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="D84" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>19</v>
@@ -5651,16 +5652,16 @@
     </row>
     <row r="85" spans="1:9" hidden="1">
       <c r="A85" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B85" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>19</v>
@@ -5676,16 +5677,16 @@
     </row>
     <row r="86" spans="1:9" hidden="1">
       <c r="A86" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B86" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="D86" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>437</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>19</v>
@@ -5701,16 +5702,16 @@
     </row>
     <row r="87" spans="1:9" hidden="1">
       <c r="A87" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B87" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="D87" s="12" t="s">
         <v>439</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>19</v>
@@ -5726,16 +5727,16 @@
     </row>
     <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="D88" s="12" t="s">
         <v>442</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>443</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>19</v>
@@ -5751,16 +5752,16 @@
     </row>
     <row r="89" spans="1:9" hidden="1">
       <c r="A89" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B89" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="D89" s="12" t="s">
         <v>445</v>
-      </c>
-      <c r="D89" s="12" t="s">
-        <v>446</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>19</v>
@@ -5776,16 +5777,16 @@
     </row>
     <row r="90" spans="1:9" hidden="1">
       <c r="A90" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B90" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="D90" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>19</v>
@@ -5801,16 +5802,16 @@
     </row>
     <row r="91" spans="1:9" hidden="1">
       <c r="A91" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="D91" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>452</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>19</v>
@@ -5826,16 +5827,16 @@
     </row>
     <row r="92" spans="1:9" hidden="1">
       <c r="A92" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B92" s="12">
         <v>2</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>19</v>
@@ -5851,16 +5852,16 @@
     </row>
     <row r="93" spans="1:9" hidden="1">
       <c r="A93" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B93" s="12">
         <v>4</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>19</v>
@@ -5876,16 +5877,16 @@
     </row>
     <row r="94" spans="1:9" hidden="1">
       <c r="A94" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B94" s="12">
         <v>6</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>19</v>
@@ -5901,16 +5902,16 @@
     </row>
     <row r="95" spans="1:9" hidden="1">
       <c r="A95" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B95" s="12">
         <v>8</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>19</v>
@@ -5926,16 +5927,16 @@
     </row>
     <row r="96" spans="1:9" hidden="1">
       <c r="A96" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>19</v>
@@ -5951,16 +5952,16 @@
     </row>
     <row r="97" spans="1:9" hidden="1">
       <c r="A97" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B97" s="12">
         <v>12</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>19</v>
@@ -5976,16 +5977,16 @@
     </row>
     <row r="98" spans="1:9" hidden="1">
       <c r="A98" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="D98" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>19</v>
@@ -6001,16 +6002,16 @@
     </row>
     <row r="99" spans="1:9" hidden="1">
       <c r="A99" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B99" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="D99" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>19</v>
@@ -6026,16 +6027,16 @@
     </row>
     <row r="100" spans="1:9" hidden="1">
       <c r="A100" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B100" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C100" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>359</v>
-      </c>
       <c r="D100" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>19</v>
@@ -6051,16 +6052,16 @@
     </row>
     <row r="101" spans="1:9" hidden="1">
       <c r="A101" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B101" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>361</v>
-      </c>
       <c r="D101" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>19</v>
@@ -6076,16 +6077,16 @@
     </row>
     <row r="102" spans="1:9" hidden="1">
       <c r="A102" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B102" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="D102" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>19</v>
@@ -6101,16 +6102,16 @@
     </row>
     <row r="103" spans="1:9" hidden="1">
       <c r="A103" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B103" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>365</v>
-      </c>
       <c r="D103" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>19</v>
@@ -6126,16 +6127,16 @@
     </row>
     <row r="104" spans="1:9" hidden="1">
       <c r="A104" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B104" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C104" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="D104" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>19</v>
@@ -6151,16 +6152,16 @@
     </row>
     <row r="105" spans="1:9" hidden="1">
       <c r="A105" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B105" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C105" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C105" s="12" t="s">
-        <v>460</v>
-      </c>
       <c r="D105" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>19</v>
@@ -6176,16 +6177,16 @@
     </row>
     <row r="106" spans="1:9" hidden="1">
       <c r="A106" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B106" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C106" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>462</v>
-      </c>
       <c r="D106" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>19</v>
@@ -6201,16 +6202,16 @@
     </row>
     <row r="107" spans="1:9" hidden="1">
       <c r="A107" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B107" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="C107" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C107" s="12" t="s">
-        <v>464</v>
-      </c>
       <c r="D107" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>19</v>
@@ -6226,16 +6227,16 @@
     </row>
     <row r="108" spans="1:9" hidden="1">
       <c r="A108" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B108" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C108" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C108" s="12" t="s">
-        <v>466</v>
-      </c>
       <c r="D108" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>19</v>
@@ -6251,16 +6252,16 @@
     </row>
     <row r="109" spans="1:9" hidden="1">
       <c r="A109" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B109" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="C109" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C109" s="12" t="s">
-        <v>468</v>
-      </c>
       <c r="D109" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
@@ -6276,16 +6277,16 @@
     </row>
     <row r="110" spans="1:9" hidden="1">
       <c r="A110" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B110" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C110" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C110" s="12" t="s">
-        <v>470</v>
-      </c>
       <c r="D110" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>19</v>
@@ -6301,16 +6302,16 @@
     </row>
     <row r="111" spans="1:9" hidden="1">
       <c r="A111" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B111" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C111" s="12" t="s">
-        <v>472</v>
-      </c>
       <c r="D111" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>19</v>
@@ -6326,16 +6327,16 @@
     </row>
     <row r="112" spans="1:9" hidden="1">
       <c r="A112" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B112" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C112" s="12" t="s">
-        <v>474</v>
-      </c>
       <c r="D112" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>19</v>
@@ -6351,16 +6352,16 @@
     </row>
     <row r="113" spans="1:9" hidden="1">
       <c r="A113" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="C113" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="C113" s="12" t="s">
-        <v>476</v>
-      </c>
       <c r="D113" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>19</v>
@@ -6376,16 +6377,16 @@
     </row>
     <row r="114" spans="1:9" hidden="1">
       <c r="A114" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B114" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C114" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C114" s="12" t="s">
-        <v>478</v>
-      </c>
       <c r="D114" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>19</v>
@@ -6401,16 +6402,16 @@
     </row>
     <row r="115" spans="1:9" hidden="1">
       <c r="A115" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B115" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C115" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="C115" s="12" t="s">
-        <v>480</v>
-      </c>
       <c r="D115" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>19</v>
@@ -6426,16 +6427,16 @@
     </row>
     <row r="116" spans="1:9" hidden="1">
       <c r="A116" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B116" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="C116" s="12" t="s">
-        <v>482</v>
-      </c>
       <c r="D116" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>19</v>
@@ -6451,16 +6452,16 @@
     </row>
     <row r="117" spans="1:9" hidden="1">
       <c r="A117" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B117" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C117" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="C117" s="12" t="s">
-        <v>484</v>
-      </c>
       <c r="D117" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>19</v>
@@ -6476,16 +6477,16 @@
     </row>
     <row r="118" spans="1:9" hidden="1">
       <c r="A118" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="C118" s="12" t="s">
-        <v>486</v>
-      </c>
       <c r="D118" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>19</v>
@@ -6501,16 +6502,16 @@
     </row>
     <row r="119" spans="1:9" hidden="1">
       <c r="A119" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B119" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C119" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C119" s="12" t="s">
-        <v>488</v>
-      </c>
       <c r="D119" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>19</v>
@@ -6526,16 +6527,16 @@
     </row>
     <row r="120" spans="1:9" hidden="1">
       <c r="A120" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B120" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C120" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="C120" s="12" t="s">
-        <v>490</v>
-      </c>
       <c r="D120" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>19</v>
@@ -6551,16 +6552,16 @@
     </row>
     <row r="121" spans="1:9" hidden="1">
       <c r="A121" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B121" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>492</v>
-      </c>
       <c r="D121" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>19</v>
@@ -6576,16 +6577,16 @@
     </row>
     <row r="122" spans="1:9" hidden="1">
       <c r="A122" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B122" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C122" s="12" t="s">
-        <v>494</v>
-      </c>
       <c r="D122" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>19</v>
@@ -6601,16 +6602,16 @@
     </row>
     <row r="123" spans="1:9" hidden="1">
       <c r="A123" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B123" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C123" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="C123" s="12" t="s">
-        <v>496</v>
-      </c>
       <c r="D123" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>19</v>
@@ -6626,16 +6627,16 @@
     </row>
     <row r="124" spans="1:9" hidden="1">
       <c r="A124" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B124" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="C124" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>498</v>
-      </c>
       <c r="D124" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>19</v>
@@ -6651,16 +6652,16 @@
     </row>
     <row r="125" spans="1:9" hidden="1">
       <c r="A125" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B125" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C125" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="C125" s="12" t="s">
-        <v>500</v>
-      </c>
       <c r="D125" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>19</v>
@@ -6676,16 +6677,16 @@
     </row>
     <row r="126" spans="1:9" hidden="1">
       <c r="A126" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B126" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="C126" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>502</v>
-      </c>
       <c r="D126" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>19</v>
@@ -6701,16 +6702,16 @@
     </row>
     <row r="127" spans="1:9" hidden="1">
       <c r="A127" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B127" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C127" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="C127" s="12" t="s">
-        <v>504</v>
-      </c>
       <c r="D127" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>19</v>
@@ -6726,16 +6727,16 @@
     </row>
     <row r="128" spans="1:9" hidden="1">
       <c r="A128" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B128" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C128" s="12" t="s">
-        <v>506</v>
-      </c>
       <c r="D128" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>19</v>
@@ -6751,16 +6752,16 @@
     </row>
     <row r="129" spans="1:9" hidden="1">
       <c r="A129" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B129" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C129" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>508</v>
-      </c>
       <c r="D129" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>19</v>
@@ -6776,16 +6777,16 @@
     </row>
     <row r="130" spans="1:9" ht="22.5" hidden="1" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B130" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C130" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>510</v>
-      </c>
       <c r="D130" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
@@ -6801,16 +6802,16 @@
     </row>
     <row r="131" spans="1:9" hidden="1">
       <c r="A131" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B131" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C131" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C131" s="12" t="s">
-        <v>512</v>
-      </c>
       <c r="D131" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>19</v>
@@ -6826,16 +6827,16 @@
     </row>
     <row r="132" spans="1:9" hidden="1">
       <c r="A132" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B132" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C132" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C132" s="12" t="s">
-        <v>514</v>
-      </c>
       <c r="D132" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>19</v>
@@ -6851,16 +6852,16 @@
     </row>
     <row r="133" spans="1:9" hidden="1">
       <c r="A133" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B133" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C133" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="C133" s="12" t="s">
-        <v>516</v>
-      </c>
       <c r="D133" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>19</v>
@@ -6876,16 +6877,16 @@
     </row>
     <row r="134" spans="1:9" hidden="1">
       <c r="A134" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B134" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C134" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>518</v>
-      </c>
       <c r="D134" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>19</v>
@@ -6901,16 +6902,16 @@
     </row>
     <row r="135" spans="1:9" hidden="1">
       <c r="A135" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B135" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="C135" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="D135" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>19</v>
@@ -6926,16 +6927,16 @@
     </row>
     <row r="136" spans="1:9" hidden="1">
       <c r="A136" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B136" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="12" t="s">
-        <v>522</v>
-      </c>
       <c r="D136" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>19</v>
@@ -6951,16 +6952,16 @@
     </row>
     <row r="137" spans="1:9" hidden="1">
       <c r="A137" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B137" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="C137" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="C137" s="12" t="s">
-        <v>524</v>
-      </c>
       <c r="D137" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>19</v>
@@ -6976,16 +6977,16 @@
     </row>
     <row r="138" spans="1:9" hidden="1">
       <c r="A138" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B138" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C138" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>526</v>
-      </c>
       <c r="D138" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
@@ -7001,16 +7002,16 @@
     </row>
     <row r="139" spans="1:9" hidden="1">
       <c r="A139" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B139" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>528</v>
-      </c>
       <c r="D139" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>19</v>
@@ -7026,16 +7027,16 @@
     </row>
     <row r="140" spans="1:9" hidden="1">
       <c r="A140" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B140" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C140" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C140" s="12" t="s">
-        <v>530</v>
-      </c>
       <c r="D140" s="12" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>19</v>
@@ -7051,16 +7052,16 @@
     </row>
     <row r="141" spans="1:9" hidden="1">
       <c r="A141" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="C141" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="C141" s="12" t="s">
-        <v>532</v>
-      </c>
       <c r="D141" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>19</v>
@@ -7076,16 +7077,16 @@
     </row>
     <row r="142" spans="1:9" hidden="1">
       <c r="A142" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B142" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="C142" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="C142" s="12" t="s">
-        <v>534</v>
-      </c>
       <c r="D142" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>19</v>
@@ -7101,16 +7102,16 @@
     </row>
     <row r="143" spans="1:9" hidden="1">
       <c r="A143" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B143" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C143" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="D143" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>19</v>
@@ -7126,16 +7127,16 @@
     </row>
     <row r="144" spans="1:9" hidden="1">
       <c r="A144" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B144" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="C144" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="C144" s="12" t="s">
-        <v>538</v>
-      </c>
       <c r="D144" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>19</v>
@@ -7151,16 +7152,16 @@
     </row>
     <row r="145" spans="1:9" hidden="1">
       <c r="A145" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B145" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="C145" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="C145" s="12" t="s">
-        <v>540</v>
-      </c>
       <c r="D145" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>19</v>
@@ -7176,16 +7177,16 @@
     </row>
     <row r="146" spans="1:9" hidden="1">
       <c r="A146" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="C146" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="C146" s="12" t="s">
-        <v>542</v>
-      </c>
       <c r="D146" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>19</v>
@@ -7201,16 +7202,16 @@
     </row>
     <row r="147" spans="1:9" hidden="1">
       <c r="A147" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B147" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="C147" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C147" s="12" t="s">
-        <v>544</v>
-      </c>
       <c r="D147" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>19</v>
@@ -7226,16 +7227,16 @@
     </row>
     <row r="148" spans="1:9" hidden="1">
       <c r="A148" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B148" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="C148" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>546</v>
-      </c>
       <c r="D148" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>19</v>
@@ -7251,16 +7252,16 @@
     </row>
     <row r="149" spans="1:9" hidden="1">
       <c r="A149" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B149" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C149" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="C149" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="D149" s="12" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>19</v>
@@ -7276,16 +7277,16 @@
     </row>
     <row r="150" spans="1:9" hidden="1">
       <c r="A150" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B150" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C150" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>550</v>
-      </c>
       <c r="D150" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>19</v>
@@ -7301,16 +7302,16 @@
     </row>
     <row r="151" spans="1:9" hidden="1">
       <c r="A151" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B151" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>552</v>
-      </c>
       <c r="D151" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>19</v>
@@ -7326,16 +7327,16 @@
     </row>
     <row r="152" spans="1:9" hidden="1">
       <c r="A152" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B152" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="C152" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="C152" s="12" t="s">
-        <v>554</v>
-      </c>
       <c r="D152" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>19</v>
@@ -7351,16 +7352,16 @@
     </row>
     <row r="153" spans="1:9" hidden="1">
       <c r="A153" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B153" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="C153" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C153" s="12" t="s">
-        <v>556</v>
-      </c>
       <c r="D153" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>19</v>
@@ -7376,16 +7377,16 @@
     </row>
     <row r="154" spans="1:9" hidden="1">
       <c r="A154" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B154" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="C154" s="12" t="s">
-        <v>558</v>
-      </c>
       <c r="D154" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>19</v>
@@ -7401,16 +7402,16 @@
     </row>
     <row r="155" spans="1:9" hidden="1">
       <c r="A155" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B155" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C155" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="C155" s="12" t="s">
-        <v>560</v>
-      </c>
       <c r="D155" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>19</v>
@@ -7426,16 +7427,16 @@
     </row>
     <row r="156" spans="1:9" hidden="1">
       <c r="A156" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B156" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="C156" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="C156" s="12" t="s">
-        <v>562</v>
-      </c>
       <c r="D156" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>19</v>
@@ -7451,16 +7452,16 @@
     </row>
     <row r="157" spans="1:9" hidden="1">
       <c r="A157" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B157" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C157" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C157" s="12" t="s">
-        <v>564</v>
-      </c>
       <c r="D157" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>19</v>
@@ -7476,16 +7477,16 @@
     </row>
     <row r="158" spans="1:9" hidden="1">
       <c r="A158" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B158" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="C158" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C158" s="12" t="s">
-        <v>566</v>
-      </c>
       <c r="D158" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>19</v>
@@ -7501,16 +7502,16 @@
     </row>
     <row r="159" spans="1:9" hidden="1">
       <c r="A159" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B159" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="C159" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="C159" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="D159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>19</v>
@@ -7526,16 +7527,16 @@
     </row>
     <row r="160" spans="1:9" hidden="1">
       <c r="A160" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B160" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="C160" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="C160" s="12" t="s">
-        <v>570</v>
-      </c>
       <c r="D160" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>19</v>
@@ -7551,16 +7552,16 @@
     </row>
     <row r="161" spans="1:9" hidden="1">
       <c r="A161" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B161" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="C161" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="C161" s="12" t="s">
-        <v>572</v>
-      </c>
       <c r="D161" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>19</v>
@@ -7576,16 +7577,16 @@
     </row>
     <row r="162" spans="1:9" hidden="1">
       <c r="A162" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B162" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="C162" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C162" s="12" t="s">
-        <v>574</v>
-      </c>
       <c r="D162" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>19</v>
@@ -7601,16 +7602,16 @@
     </row>
     <row r="163" spans="1:9" hidden="1">
       <c r="A163" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B163" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C163" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C163" s="12" t="s">
-        <v>576</v>
-      </c>
       <c r="D163" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>19</v>
@@ -7626,16 +7627,16 @@
     </row>
     <row r="164" spans="1:9" hidden="1">
       <c r="A164" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B164" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C164" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="C164" s="12" t="s">
-        <v>578</v>
-      </c>
       <c r="D164" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>19</v>
@@ -7651,16 +7652,16 @@
     </row>
     <row r="165" spans="1:9" hidden="1">
       <c r="A165" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B165" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C165" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C165" s="12" t="s">
-        <v>580</v>
-      </c>
       <c r="D165" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>19</v>
@@ -7676,16 +7677,16 @@
     </row>
     <row r="166" spans="1:9" hidden="1">
       <c r="A166" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B166" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C166" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C166" s="12" t="s">
-        <v>582</v>
-      </c>
       <c r="D166" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>19</v>
@@ -7701,16 +7702,16 @@
     </row>
     <row r="167" spans="1:9" hidden="1">
       <c r="A167" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B167" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C167" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="C167" s="12" t="s">
-        <v>584</v>
-      </c>
       <c r="D167" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>19</v>
@@ -7726,16 +7727,16 @@
     </row>
     <row r="168" spans="1:9" hidden="1">
       <c r="A168" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B168" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C168" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="C168" s="12" t="s">
-        <v>586</v>
-      </c>
       <c r="D168" s="12" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>19</v>
@@ -7751,16 +7752,16 @@
     </row>
     <row r="169" spans="1:9" hidden="1">
       <c r="A169" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B169" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C169" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="C169" s="12" t="s">
-        <v>588</v>
-      </c>
       <c r="D169" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>19</v>
@@ -7776,16 +7777,16 @@
     </row>
     <row r="170" spans="1:9" hidden="1">
       <c r="A170" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B170" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C170" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="C170" s="12" t="s">
-        <v>590</v>
-      </c>
       <c r="D170" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>19</v>
@@ -7801,16 +7802,16 @@
     </row>
     <row r="171" spans="1:9" hidden="1">
       <c r="A171" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B171" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="C171" s="12" t="s">
-        <v>592</v>
-      </c>
       <c r="D171" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>19</v>
@@ -7826,16 +7827,16 @@
     </row>
     <row r="172" spans="1:9" hidden="1">
       <c r="A172" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B172" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C172" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C172" s="12" t="s">
-        <v>594</v>
-      </c>
       <c r="D172" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>19</v>
@@ -7851,16 +7852,16 @@
     </row>
     <row r="173" spans="1:9" hidden="1">
       <c r="A173" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B173" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C173" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="C173" s="12" t="s">
-        <v>596</v>
-      </c>
       <c r="D173" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>19</v>
@@ -7876,16 +7877,16 @@
     </row>
     <row r="174" spans="1:9" hidden="1">
       <c r="A174" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B174" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C174" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="C174" s="12" t="s">
-        <v>598</v>
-      </c>
       <c r="D174" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>19</v>
@@ -7901,16 +7902,16 @@
     </row>
     <row r="175" spans="1:9" hidden="1">
       <c r="A175" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B175" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C175" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="C175" s="12" t="s">
-        <v>600</v>
-      </c>
       <c r="D175" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>19</v>
@@ -7926,16 +7927,16 @@
     </row>
     <row r="176" spans="1:9" hidden="1">
       <c r="A176" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B176" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C176" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="C176" s="12" t="s">
-        <v>602</v>
-      </c>
       <c r="D176" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>19</v>
@@ -7951,16 +7952,16 @@
     </row>
     <row r="177" spans="1:9" hidden="1">
       <c r="A177" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B177" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C177" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C177" s="12" t="s">
-        <v>604</v>
-      </c>
       <c r="D177" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>19</v>
@@ -7976,16 +7977,16 @@
     </row>
     <row r="178" spans="1:9" hidden="1">
       <c r="A178" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B178" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C178" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="C178" s="12" t="s">
-        <v>606</v>
-      </c>
       <c r="D178" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>19</v>
@@ -8001,16 +8002,16 @@
     </row>
     <row r="179" spans="1:9" hidden="1">
       <c r="A179" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B179" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C179" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="C179" s="12" t="s">
-        <v>608</v>
-      </c>
       <c r="D179" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>19</v>
@@ -8026,16 +8027,16 @@
     </row>
     <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B180" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="C180" s="12" t="s">
-        <v>610</v>
-      </c>
       <c r="D180" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>19</v>
@@ -8051,16 +8052,16 @@
     </row>
     <row r="181" spans="1:9" hidden="1">
       <c r="A181" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B181" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="C181" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="C181" s="12" t="s">
-        <v>612</v>
-      </c>
       <c r="D181" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>19</v>
@@ -8076,16 +8077,16 @@
     </row>
     <row r="182" spans="1:9" hidden="1">
       <c r="A182" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B182" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C182" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="C182" s="12" t="s">
-        <v>614</v>
-      </c>
       <c r="D182" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>19</v>
@@ -8101,16 +8102,16 @@
     </row>
     <row r="183" spans="1:9" hidden="1">
       <c r="A183" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B183" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C183" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="C183" s="12" t="s">
-        <v>616</v>
-      </c>
       <c r="D183" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>19</v>
@@ -8126,16 +8127,16 @@
     </row>
     <row r="184" spans="1:9" hidden="1">
       <c r="A184" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B184" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>618</v>
-      </c>
       <c r="D184" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>19</v>
@@ -8151,16 +8152,16 @@
     </row>
     <row r="185" spans="1:9" hidden="1">
       <c r="A185" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B185" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C185" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="C185" s="12" t="s">
-        <v>620</v>
-      </c>
       <c r="D185" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>19</v>
@@ -8176,16 +8177,16 @@
     </row>
     <row r="186" spans="1:9" hidden="1">
       <c r="A186" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B186" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C186" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>622</v>
-      </c>
       <c r="D186" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>19</v>
@@ -8201,16 +8202,16 @@
     </row>
     <row r="187" spans="1:9" hidden="1">
       <c r="A187" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B187" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C187" s="12" t="s">
-        <v>624</v>
-      </c>
       <c r="D187" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>19</v>
@@ -8226,16 +8227,16 @@
     </row>
     <row r="188" spans="1:9" hidden="1">
       <c r="A188" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B188" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="C188" s="12" t="s">
-        <v>626</v>
-      </c>
       <c r="D188" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>19</v>
@@ -8251,16 +8252,16 @@
     </row>
     <row r="189" spans="1:9" hidden="1">
       <c r="A189" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B189" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="C189" s="12" t="s">
-        <v>628</v>
-      </c>
       <c r="D189" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -8276,16 +8277,16 @@
     </row>
     <row r="190" spans="1:9" hidden="1">
       <c r="A190" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B190" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C190" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="C190" s="12" t="s">
-        <v>630</v>
-      </c>
       <c r="D190" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
@@ -8301,16 +8302,16 @@
     </row>
     <row r="191" spans="1:9" hidden="1">
       <c r="A191" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B191" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C191" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="C191" s="12" t="s">
-        <v>632</v>
-      </c>
       <c r="D191" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>19</v>
@@ -8326,16 +8327,16 @@
     </row>
     <row r="192" spans="1:9" hidden="1">
       <c r="A192" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B192" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="C192" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="C192" s="12" t="s">
-        <v>634</v>
-      </c>
       <c r="D192" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>19</v>
@@ -8351,16 +8352,16 @@
     </row>
     <row r="193" spans="1:9" hidden="1">
       <c r="A193" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B193" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C193" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="C193" s="12" t="s">
-        <v>636</v>
-      </c>
       <c r="D193" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>19</v>
@@ -8376,16 +8377,16 @@
     </row>
     <row r="194" spans="1:9" hidden="1">
       <c r="A194" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B194" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="C194" s="12" t="s">
-        <v>638</v>
-      </c>
       <c r="D194" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>19</v>
@@ -8401,16 +8402,16 @@
     </row>
     <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B195" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C195" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="C195" s="12" t="s">
-        <v>640</v>
-      </c>
       <c r="D195" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>19</v>
@@ -8426,16 +8427,16 @@
     </row>
     <row r="196" spans="1:9" hidden="1">
       <c r="A196" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="C196" s="12" t="s">
-        <v>642</v>
-      </c>
       <c r="D196" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>19</v>
@@ -8451,16 +8452,16 @@
     </row>
     <row r="197" spans="1:9" hidden="1">
       <c r="A197" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B197" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="C197" s="12" t="s">
-        <v>644</v>
-      </c>
       <c r="D197" s="12" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>19</v>
@@ -8476,16 +8477,16 @@
     </row>
     <row r="198" spans="1:9" hidden="1">
       <c r="A198" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B198" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="C198" s="12" t="s">
-        <v>646</v>
-      </c>
       <c r="D198" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>19</v>
@@ -8501,16 +8502,16 @@
     </row>
     <row r="199" spans="1:9" hidden="1">
       <c r="A199" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="C199" s="12" t="s">
-        <v>648</v>
-      </c>
       <c r="D199" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>19</v>
@@ -8526,16 +8527,16 @@
     </row>
     <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B200" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="C200" s="12" t="s">
-        <v>650</v>
-      </c>
       <c r="D200" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>19</v>
@@ -10867,16 +10868,16 @@
     </row>
     <row r="295" spans="1:9" hidden="1">
       <c r="A295" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B295" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="C295" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="C295" s="17" t="s">
-        <v>654</v>
-      </c>
       <c r="D295" s="17" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E295" s="12" t="s">
         <v>19</v>
@@ -10892,16 +10893,16 @@
     </row>
     <row r="296" spans="1:9" hidden="1">
       <c r="A296" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B296" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C296" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="C296" s="17" t="s">
-        <v>656</v>
-      </c>
       <c r="D296" s="17" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>19</v>
@@ -10917,16 +10918,16 @@
     </row>
     <row r="297" spans="1:9" hidden="1">
       <c r="A297" s="17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B297" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C297" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="C297" s="12" t="s">
-        <v>658</v>
-      </c>
       <c r="D297" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E297" s="12" t="s">
         <v>19</v>

--- a/document/excel_upload_자료/TBL_EXP_CODE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_CODE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B8E38-A6EF-4AD4-A298-99EF92347251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D9C44-E54D-4B25-81E5-DD4E0720ADF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29895" yWindow="2550" windowWidth="19830" windowHeight="12045" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="673">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,12 +452,6 @@
     <t>삭제/ 미 삭제 모두</t>
   </si>
   <si>
-    <t>CONTRACTED</t>
-  </si>
-  <si>
-    <t>계약</t>
-  </si>
-  <si>
     <t>NOT DELETED</t>
   </si>
   <si>
@@ -717,9 +711,6 @@
   </si>
   <si>
     <t>EVERYWEEK</t>
-  </si>
-  <si>
-    <t>PRE_CONTRACT</t>
   </si>
   <si>
     <t>INTRA_WORK</t>
@@ -1094,9 +1085,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체결 완료</t>
-  </si>
-  <si>
     <t>제안 진행</t>
   </si>
   <si>
@@ -2046,6 +2034,62 @@
   </si>
   <si>
     <t>실행 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 지정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 자료 구비 및 담당자 지정 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자 지정 결재 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRE_CONTRACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTRACTED_RST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 완료 실적 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_COMPLETED_APPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASIGN_CONSULTANT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON_CONTRACTING_APPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 완료( 실적 미진행 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 완료( 실적 진행 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 완료 결재 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2210,7 +2254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2270,6 +2314,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2607,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2621,7 +2668,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1">
       <c r="A1" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -2649,12 +2696,12 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -2666,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
@@ -2674,7 +2721,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>10</v>
@@ -2694,7 +2741,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
@@ -2711,10 +2758,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
@@ -2729,10 +2776,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12" t="s">
@@ -2747,10 +2794,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12" t="s">
@@ -2765,10 +2812,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12" t="s">
@@ -2783,10 +2830,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12" t="s">
@@ -2801,13 +2848,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>19</v>
@@ -2824,10 +2871,10 @@
         <v>27</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>19</v>
@@ -2844,10 +2891,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>19</v>
@@ -2864,10 +2911,10 @@
         <v>103</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>19</v>
@@ -2884,7 +2931,7 @@
         <v>124</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12" t="s">
@@ -2902,10 +2949,10 @@
         <v>33</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>19</v>
@@ -2922,10 +2969,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>19</v>
@@ -2942,10 +2989,10 @@
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>19</v>
@@ -2962,10 +3009,10 @@
         <v>37</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>19</v>
@@ -2982,10 +3029,10 @@
         <v>38</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>19</v>
@@ -3002,10 +3049,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>19</v>
@@ -3019,10 +3066,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12" t="s">
@@ -3040,7 +3087,7 @@
         <v>51</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12" t="s">
@@ -3055,10 +3102,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
@@ -3073,10 +3120,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12" t="s">
@@ -3091,10 +3138,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
@@ -3112,10 +3159,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>19</v>
@@ -3132,10 +3179,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>19</v>
@@ -3152,10 +3199,10 @@
         <v>117</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>19</v>
@@ -3172,10 +3219,10 @@
         <v>114</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>19</v>
@@ -3192,10 +3239,10 @@
         <v>60</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>19</v>
@@ -3212,10 +3259,10 @@
         <v>71</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>19</v>
@@ -3232,10 +3279,10 @@
         <v>58</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>19</v>
@@ -3252,7 +3299,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
@@ -3267,13 +3314,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>19</v>
@@ -3287,13 +3334,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>19</v>
@@ -3307,13 +3354,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>19</v>
@@ -3327,13 +3374,13 @@
     </row>
     <row r="38" spans="1:6" ht="33">
       <c r="A38" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>19</v>
@@ -3347,13 +3394,13 @@
     </row>
     <row r="39" spans="1:6" ht="33">
       <c r="A39" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>19</v>
@@ -3367,13 +3414,13 @@
     </row>
     <row r="40" spans="1:6" ht="33">
       <c r="A40" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>19</v>
@@ -3387,13 +3434,13 @@
     </row>
     <row r="41" spans="1:6" ht="33">
       <c r="A41" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>19</v>
@@ -3407,13 +3454,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>19</v>
@@ -3427,13 +3474,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>19</v>
@@ -3447,13 +3494,13 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>19</v>
@@ -3467,13 +3514,13 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>19</v>
@@ -3487,13 +3534,13 @@
     </row>
     <row r="46" spans="1:6" ht="33">
       <c r="A46" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>19</v>
@@ -3507,13 +3554,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>19</v>
@@ -3527,13 +3574,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>19</v>
@@ -3547,13 +3594,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>19</v>
@@ -3576,11 +3623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706EC46-4FD3-47B1-964A-6FD042DA6B08}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O297"/>
+  <dimension ref="A1:O302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C299" sqref="C299"/>
+      <selection activeCell="G306" sqref="G306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3596,7 +3642,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="6" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3627,15 +3673,15 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -3644,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
@@ -3705,15 +3751,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15">
       <c r="A6" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12" t="s">
@@ -3728,15 +3774,15 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
@@ -3751,15 +3797,15 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15">
       <c r="A8" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12" t="s">
@@ -3774,15 +3820,15 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="C9" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12" t="s">
@@ -3797,15 +3843,15 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12" t="s">
@@ -3820,15 +3866,15 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15">
       <c r="A11" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="s">
@@ -3843,15 +3889,15 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15">
       <c r="A12" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12" t="s">
@@ -3866,15 +3912,15 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15">
       <c r="A13" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
@@ -3889,9 +3935,9 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15">
       <c r="A14" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>105</v>
@@ -3912,15 +3958,15 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15">
       <c r="A15" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
@@ -3935,15 +3981,15 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:15" hidden="1">
+    <row r="16" spans="1:15">
       <c r="A16" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
@@ -3958,15 +4004,15 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
@@ -3986,13 +4032,13 @@
         <v>37</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>19</v>
@@ -4001,23 +4047,23 @@
         <v>20</v>
       </c>
       <c r="G18" s="12">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>19</v>
@@ -4031,12 +4077,12 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>79</v>
@@ -4058,16 +4104,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>19</v>
@@ -4076,12 +4122,12 @@
         <v>20</v>
       </c>
       <c r="G21" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
@@ -4111,13 +4157,13 @@
         <v>37</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>226</v>
+        <v>662</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>19</v>
@@ -4131,12 +4177,12 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>75</v>
@@ -4156,15 +4202,15 @@
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
@@ -4179,15 +4225,15 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="s">
@@ -4202,15 +4248,15 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
@@ -4225,12 +4271,12 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>66</v>
@@ -4250,7 +4296,7 @@
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
         <v>24</v>
       </c>
@@ -4275,18 +4321,18 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>20</v>
@@ -4300,7 +4346,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
         <v>110</v>
       </c>
@@ -4308,10 +4354,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>19</v>
@@ -4325,18 +4371,18 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>19</v>
@@ -4350,18 +4396,18 @@
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>19</v>
@@ -4375,9 +4421,9 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B34" s="12">
         <v>0</v>
@@ -4386,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>19</v>
@@ -4400,18 +4446,18 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>19</v>
@@ -4425,18 +4471,18 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" s="12" t="s">
         <v>114</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>19</v>
@@ -4450,18 +4496,18 @@
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>19</v>
@@ -4475,18 +4521,18 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
@@ -4500,18 +4546,18 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>19</v>
@@ -4525,18 +4571,18 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>19</v>
@@ -4550,18 +4596,18 @@
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>19</v>
@@ -4575,18 +4621,18 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>19</v>
@@ -4600,18 +4646,18 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>260</v>
-      </c>
       <c r="C43" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
@@ -4625,18 +4671,18 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>19</v>
@@ -4650,18 +4696,18 @@
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>19</v>
@@ -4675,18 +4721,18 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>19</v>
@@ -4700,18 +4746,18 @@
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>19</v>
@@ -4725,18 +4771,18 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" ht="20.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:9" ht="20.25" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>19</v>
@@ -4750,18 +4796,18 @@
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" ht="20.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:9" ht="20.25" customHeight="1">
       <c r="A49" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>273</v>
-      </c>
       <c r="C49" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>19</v>
@@ -4775,18 +4821,18 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" ht="20.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:9" ht="20.25" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>19</v>
@@ -4800,18 +4846,18 @@
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" s="12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>19</v>
@@ -4825,18 +4871,18 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>280</v>
-      </c>
       <c r="C52" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>19</v>
@@ -4850,18 +4896,18 @@
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>19</v>
@@ -4875,7 +4921,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" s="12" t="s">
         <v>114</v>
       </c>
@@ -4883,10 +4929,10 @@
         <v>122</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>19</v>
@@ -4900,18 +4946,18 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>19</v>
@@ -4925,12 +4971,12 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>108</v>
@@ -4950,9 +4996,9 @@
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" s="12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>105</v>
@@ -4975,18 +5021,18 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>289</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>292</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>19</v>
@@ -5000,18 +5046,18 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>19</v>
@@ -5025,18 +5071,18 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>19</v>
@@ -5050,18 +5096,18 @@
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>19</v>
@@ -5075,18 +5121,18 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>19</v>
@@ -5100,18 +5146,18 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>19</v>
@@ -5125,18 +5171,18 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
@@ -5150,18 +5196,18 @@
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>19</v>
@@ -5175,18 +5221,18 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>19</v>
@@ -5200,18 +5246,18 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>19</v>
@@ -5225,18 +5271,18 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>19</v>
@@ -5250,18 +5296,18 @@
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>19</v>
@@ -5275,18 +5321,18 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" s="12" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>19</v>
@@ -5300,18 +5346,18 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>19</v>
@@ -5325,18 +5371,18 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>19</v>
@@ -5350,18 +5396,18 @@
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" hidden="1">
+    <row r="73" spans="1:9">
       <c r="A73" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>19</v>
@@ -5375,18 +5421,18 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" hidden="1">
+    <row r="74" spans="1:9">
       <c r="A74" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>19</v>
@@ -5400,18 +5446,18 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" hidden="1">
+    <row r="75" spans="1:9">
       <c r="A75" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>19</v>
@@ -5425,18 +5471,18 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" s="12" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>19</v>
@@ -5450,18 +5496,18 @@
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" hidden="1">
+    <row r="77" spans="1:9">
       <c r="A77" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B77" s="12">
         <v>1</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>19</v>
@@ -5475,18 +5521,18 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9">
       <c r="A78" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B78" s="12">
         <v>3</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>19</v>
@@ -5500,18 +5546,18 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B79" s="12">
         <v>5</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>19</v>
@@ -5525,18 +5571,18 @@
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B80" s="12">
         <v>7</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>19</v>
@@ -5550,18 +5596,18 @@
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B81" s="12">
         <v>9</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>19</v>
@@ -5575,18 +5621,18 @@
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B82" s="12">
         <v>11</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>19</v>
@@ -5600,18 +5646,18 @@
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>19</v>
@@ -5625,18 +5671,18 @@
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>19</v>
@@ -5650,18 +5696,18 @@
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:9">
       <c r="A85" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>19</v>
@@ -5675,18 +5721,18 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>19</v>
@@ -5700,18 +5746,18 @@
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>19</v>
@@ -5725,18 +5771,18 @@
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>19</v>
@@ -5750,18 +5796,18 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" hidden="1">
+    <row r="89" spans="1:9">
       <c r="A89" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>19</v>
@@ -5775,18 +5821,18 @@
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" hidden="1">
+    <row r="90" spans="1:9">
       <c r="A90" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>19</v>
@@ -5800,18 +5846,18 @@
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" hidden="1">
+    <row r="91" spans="1:9">
       <c r="A91" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>19</v>
@@ -5825,18 +5871,18 @@
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9">
       <c r="A92" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B92" s="12">
         <v>2</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>19</v>
@@ -5850,18 +5896,18 @@
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9">
       <c r="A93" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B93" s="12">
         <v>4</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>19</v>
@@ -5875,18 +5921,18 @@
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" hidden="1">
+    <row r="94" spans="1:9">
       <c r="A94" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B94" s="12">
         <v>6</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>19</v>
@@ -5900,18 +5946,18 @@
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9">
       <c r="A95" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B95" s="12">
         <v>8</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>19</v>
@@ -5925,18 +5971,18 @@
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B96" s="12">
         <v>10</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>19</v>
@@ -5950,18 +5996,18 @@
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B97" s="12">
         <v>12</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>19</v>
@@ -5975,18 +6021,18 @@
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>19</v>
@@ -6000,18 +6046,18 @@
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C99" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="D99" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>19</v>
@@ -6025,18 +6071,18 @@
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9">
       <c r="A100" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>19</v>
@@ -6050,18 +6096,18 @@
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>19</v>
@@ -6075,18 +6121,18 @@
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>19</v>
@@ -6100,18 +6146,18 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" hidden="1">
+    <row r="103" spans="1:9">
       <c r="A103" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>19</v>
@@ -6125,18 +6171,18 @@
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9">
       <c r="A104" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>19</v>
@@ -6150,18 +6196,18 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>19</v>
@@ -6175,18 +6221,18 @@
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9">
       <c r="A106" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>19</v>
@@ -6200,18 +6246,18 @@
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>19</v>
@@ -6225,18 +6271,18 @@
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>19</v>
@@ -6250,18 +6296,18 @@
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
@@ -6275,18 +6321,18 @@
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>19</v>
@@ -6300,18 +6346,18 @@
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9" hidden="1">
+    <row r="111" spans="1:9">
       <c r="A111" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>19</v>
@@ -6325,18 +6371,18 @@
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:9" hidden="1">
+    <row r="112" spans="1:9">
       <c r="A112" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>19</v>
@@ -6350,18 +6396,18 @@
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" hidden="1">
+    <row r="113" spans="1:9">
       <c r="A113" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>19</v>
@@ -6375,18 +6421,18 @@
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" hidden="1">
+    <row r="114" spans="1:9">
       <c r="A114" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>19</v>
@@ -6400,18 +6446,18 @@
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" hidden="1">
+    <row r="115" spans="1:9">
       <c r="A115" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>19</v>
@@ -6425,18 +6471,18 @@
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>19</v>
@@ -6450,18 +6496,18 @@
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" hidden="1">
+    <row r="117" spans="1:9">
       <c r="A117" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>19</v>
@@ -6475,18 +6521,18 @@
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>19</v>
@@ -6500,18 +6546,18 @@
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>19</v>
@@ -6525,18 +6571,18 @@
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9">
       <c r="A120" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>19</v>
@@ -6550,18 +6596,18 @@
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9">
       <c r="A121" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>19</v>
@@ -6575,18 +6621,18 @@
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9">
       <c r="A122" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>19</v>
@@ -6600,18 +6646,18 @@
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
     </row>
-    <row r="123" spans="1:9" hidden="1">
+    <row r="123" spans="1:9">
       <c r="A123" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>19</v>
@@ -6625,18 +6671,18 @@
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
     </row>
-    <row r="124" spans="1:9" hidden="1">
+    <row r="124" spans="1:9">
       <c r="A124" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>19</v>
@@ -6650,18 +6696,18 @@
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
     </row>
-    <row r="125" spans="1:9" hidden="1">
+    <row r="125" spans="1:9">
       <c r="A125" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>19</v>
@@ -6675,18 +6721,18 @@
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
     </row>
-    <row r="126" spans="1:9" hidden="1">
+    <row r="126" spans="1:9">
       <c r="A126" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>19</v>
@@ -6700,18 +6746,18 @@
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9">
       <c r="A127" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>19</v>
@@ -6725,18 +6771,18 @@
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
     </row>
-    <row r="128" spans="1:9" hidden="1">
+    <row r="128" spans="1:9">
       <c r="A128" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>19</v>
@@ -6750,18 +6796,18 @@
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>19</v>
@@ -6775,18 +6821,18 @@
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
     </row>
-    <row r="130" spans="1:9" ht="22.5" hidden="1" customHeight="1">
+    <row r="130" spans="1:9" ht="22.5" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
@@ -6800,18 +6846,18 @@
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>19</v>
@@ -6825,18 +6871,18 @@
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>19</v>
@@ -6850,18 +6896,18 @@
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>19</v>
@@ -6875,18 +6921,18 @@
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9">
       <c r="A134" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>19</v>
@@ -6900,18 +6946,18 @@
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
     </row>
-    <row r="135" spans="1:9" hidden="1">
+    <row r="135" spans="1:9">
       <c r="A135" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>19</v>
@@ -6925,18 +6971,18 @@
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>19</v>
@@ -6950,18 +6996,18 @@
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
     </row>
-    <row r="137" spans="1:9" hidden="1">
+    <row r="137" spans="1:9">
       <c r="A137" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>19</v>
@@ -6975,18 +7021,18 @@
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
     </row>
-    <row r="138" spans="1:9" hidden="1">
+    <row r="138" spans="1:9">
       <c r="A138" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
@@ -7000,18 +7046,18 @@
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
     </row>
-    <row r="139" spans="1:9" hidden="1">
+    <row r="139" spans="1:9">
       <c r="A139" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>19</v>
@@ -7025,18 +7071,18 @@
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="A140" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>19</v>
@@ -7050,18 +7096,18 @@
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>19</v>
@@ -7075,18 +7121,18 @@
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>19</v>
@@ -7100,18 +7146,18 @@
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
     </row>
-    <row r="143" spans="1:9" hidden="1">
+    <row r="143" spans="1:9">
       <c r="A143" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>19</v>
@@ -7125,18 +7171,18 @@
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9">
       <c r="A144" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>19</v>
@@ -7150,18 +7196,18 @@
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>19</v>
@@ -7175,18 +7221,18 @@
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>19</v>
@@ -7200,18 +7246,18 @@
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>19</v>
@@ -7225,18 +7271,18 @@
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>19</v>
@@ -7250,18 +7296,18 @@
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>19</v>
@@ -7275,18 +7321,18 @@
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>19</v>
@@ -7300,18 +7346,18 @@
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>19</v>
@@ -7325,18 +7371,18 @@
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>19</v>
@@ -7350,18 +7396,18 @@
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>19</v>
@@ -7375,18 +7421,18 @@
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>19</v>
@@ -7400,18 +7446,18 @@
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E155" s="12" t="s">
         <v>19</v>
@@ -7425,18 +7471,18 @@
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E156" s="12" t="s">
         <v>19</v>
@@ -7450,18 +7496,18 @@
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="E157" s="12" t="s">
         <v>19</v>
@@ -7475,18 +7521,18 @@
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E158" s="12" t="s">
         <v>19</v>
@@ -7500,18 +7546,18 @@
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>19</v>
@@ -7525,18 +7571,18 @@
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>19</v>
@@ -7550,18 +7596,18 @@
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>19</v>
@@ -7575,18 +7621,18 @@
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E162" s="12" t="s">
         <v>19</v>
@@ -7600,18 +7646,18 @@
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="E163" s="12" t="s">
         <v>19</v>
@@ -7625,18 +7671,18 @@
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>19</v>
@@ -7650,18 +7696,18 @@
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="E165" s="12" t="s">
         <v>19</v>
@@ -7675,18 +7721,18 @@
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E166" s="12" t="s">
         <v>19</v>
@@ -7700,18 +7746,18 @@
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>19</v>
@@ -7725,18 +7771,18 @@
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>19</v>
@@ -7750,18 +7796,18 @@
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>19</v>
@@ -7775,18 +7821,18 @@
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E170" s="12" t="s">
         <v>19</v>
@@ -7800,18 +7846,18 @@
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="E171" s="12" t="s">
         <v>19</v>
@@ -7825,18 +7871,18 @@
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E172" s="12" t="s">
         <v>19</v>
@@ -7850,18 +7896,18 @@
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>19</v>
@@ -7875,18 +7921,18 @@
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>19</v>
@@ -7900,18 +7946,18 @@
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>19</v>
@@ -7925,18 +7971,18 @@
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>19</v>
@@ -7950,18 +7996,18 @@
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>19</v>
@@ -7975,18 +8021,18 @@
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>19</v>
@@ -8000,18 +8046,18 @@
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>19</v>
@@ -8025,18 +8071,18 @@
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>19</v>
@@ -8050,18 +8096,18 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>19</v>
@@ -8075,18 +8121,18 @@
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E182" s="12" t="s">
         <v>19</v>
@@ -8100,18 +8146,18 @@
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E183" s="12" t="s">
         <v>19</v>
@@ -8125,18 +8171,18 @@
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E184" s="12" t="s">
         <v>19</v>
@@ -8150,18 +8196,18 @@
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>19</v>
@@ -8175,18 +8221,18 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>19</v>
@@ -8200,18 +8246,18 @@
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>19</v>
@@ -8225,18 +8271,18 @@
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>19</v>
@@ -8250,18 +8296,18 @@
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -8275,18 +8321,18 @@
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
@@ -8300,18 +8346,18 @@
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>19</v>
@@ -8325,18 +8371,18 @@
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>19</v>
@@ -8350,18 +8396,18 @@
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9">
       <c r="A193" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E193" s="12" t="s">
         <v>19</v>
@@ -8375,18 +8421,18 @@
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9">
       <c r="A194" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E194" s="12" t="s">
         <v>19</v>
@@ -8400,18 +8446,18 @@
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9">
       <c r="A195" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E195" s="12" t="s">
         <v>19</v>
@@ -8425,18 +8471,18 @@
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9">
       <c r="A196" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E196" s="12" t="s">
         <v>19</v>
@@ -8450,18 +8496,18 @@
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:9">
       <c r="A197" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E197" s="12" t="s">
         <v>19</v>
@@ -8475,18 +8521,18 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:9">
       <c r="A198" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E198" s="12" t="s">
         <v>19</v>
@@ -8500,18 +8546,18 @@
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9">
       <c r="A199" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="E199" s="12" t="s">
         <v>19</v>
@@ -8525,18 +8571,18 @@
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:9">
       <c r="A200" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>19</v>
@@ -8550,7 +8596,7 @@
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9">
       <c r="A201" s="12" t="s">
         <v>16</v>
       </c>
@@ -8573,7 +8619,7 @@
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:9">
       <c r="A202" s="12" t="s">
         <v>21</v>
       </c>
@@ -8598,7 +8644,7 @@
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:9">
       <c r="A203" s="12" t="s">
         <v>24</v>
       </c>
@@ -8623,7 +8669,7 @@
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
-    <row r="204" spans="1:9" hidden="1">
+    <row r="204" spans="1:9">
       <c r="A204" s="12" t="s">
         <v>27</v>
       </c>
@@ -8648,7 +8694,7 @@
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
     </row>
-    <row r="205" spans="1:9" hidden="1">
+    <row r="205" spans="1:9">
       <c r="A205" s="12" t="s">
         <v>30</v>
       </c>
@@ -8671,7 +8717,7 @@
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:9">
       <c r="A206" s="12" t="s">
         <v>33</v>
       </c>
@@ -8696,7 +8742,7 @@
       <c r="H206" s="12"/>
       <c r="I206" s="12"/>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:9">
       <c r="A207" s="12" t="s">
         <v>38</v>
       </c>
@@ -8719,7 +8765,7 @@
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
     </row>
-    <row r="208" spans="1:9" hidden="1">
+    <row r="208" spans="1:9">
       <c r="A208" s="12" t="s">
         <v>40</v>
       </c>
@@ -8742,7 +8788,7 @@
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
     </row>
-    <row r="209" spans="1:9" hidden="1">
+    <row r="209" spans="1:9">
       <c r="A209" s="12" t="s">
         <v>38</v>
       </c>
@@ -8765,7 +8811,7 @@
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
     </row>
-    <row r="210" spans="1:9" hidden="1">
+    <row r="210" spans="1:9">
       <c r="A210" s="12" t="s">
         <v>38</v>
       </c>
@@ -8788,7 +8834,7 @@
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
     </row>
-    <row r="211" spans="1:9" hidden="1">
+    <row r="211" spans="1:9">
       <c r="A211" s="12" t="s">
         <v>40</v>
       </c>
@@ -8811,7 +8857,7 @@
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:9">
       <c r="A212" s="12" t="s">
         <v>40</v>
       </c>
@@ -8834,7 +8880,7 @@
       <c r="H212" s="12"/>
       <c r="I212" s="12"/>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:9">
       <c r="A213" s="12" t="s">
         <v>40</v>
       </c>
@@ -8857,7 +8903,7 @@
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
     </row>
-    <row r="214" spans="1:9" hidden="1">
+    <row r="214" spans="1:9">
       <c r="A214" s="12" t="s">
         <v>51</v>
       </c>
@@ -8880,7 +8926,7 @@
       <c r="H214" s="12"/>
       <c r="I214" s="12"/>
     </row>
-    <row r="215" spans="1:9" hidden="1">
+    <row r="215" spans="1:9">
       <c r="A215" s="12" t="s">
         <v>51</v>
       </c>
@@ -8903,7 +8949,7 @@
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
     </row>
-    <row r="216" spans="1:9" hidden="1">
+    <row r="216" spans="1:9">
       <c r="A216" s="12" t="s">
         <v>51</v>
       </c>
@@ -8926,7 +8972,7 @@
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
     </row>
-    <row r="217" spans="1:9" hidden="1">
+    <row r="217" spans="1:9">
       <c r="A217" s="12" t="s">
         <v>58</v>
       </c>
@@ -8951,7 +8997,7 @@
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
     </row>
-    <row r="218" spans="1:9" hidden="1">
+    <row r="218" spans="1:9">
       <c r="A218" s="12" t="s">
         <v>60</v>
       </c>
@@ -8980,7 +9026,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1">
+    <row r="219" spans="1:9">
       <c r="A219" s="12" t="s">
         <v>60</v>
       </c>
@@ -9009,7 +9055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1">
+    <row r="220" spans="1:9">
       <c r="A220" s="12" t="s">
         <v>68</v>
       </c>
@@ -9032,7 +9078,7 @@
       <c r="H220" s="12"/>
       <c r="I220" s="12"/>
     </row>
-    <row r="221" spans="1:9" hidden="1">
+    <row r="221" spans="1:9">
       <c r="A221" s="12" t="s">
         <v>71</v>
       </c>
@@ -9059,7 +9105,7 @@
       </c>
       <c r="I221" s="12"/>
     </row>
-    <row r="222" spans="1:9" hidden="1">
+    <row r="222" spans="1:9">
       <c r="A222" s="12" t="s">
         <v>60</v>
       </c>
@@ -9088,7 +9134,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1">
+    <row r="223" spans="1:9">
       <c r="A223" s="12" t="s">
         <v>71</v>
       </c>
@@ -9115,7 +9161,7 @@
       </c>
       <c r="I223" s="12"/>
     </row>
-    <row r="224" spans="1:9" hidden="1">
+    <row r="224" spans="1:9">
       <c r="A224" s="12" t="s">
         <v>71</v>
       </c>
@@ -9142,7 +9188,7 @@
       </c>
       <c r="I224" s="12"/>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" s="12" t="s">
         <v>60</v>
       </c>
@@ -9171,7 +9217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" s="12" t="s">
         <v>60</v>
       </c>
@@ -9200,7 +9246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" s="12" t="s">
         <v>60</v>
       </c>
@@ -9229,7 +9275,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" s="12" t="s">
         <v>71</v>
       </c>
@@ -9256,7 +9302,7 @@
       </c>
       <c r="I228" s="12"/>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" s="12" t="s">
         <v>71</v>
       </c>
@@ -9283,7 +9329,7 @@
       </c>
       <c r="I229" s="12"/>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="A230" s="12" t="s">
         <v>71</v>
       </c>
@@ -9310,7 +9356,7 @@
       </c>
       <c r="I230" s="12"/>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" s="12" t="s">
         <v>58</v>
       </c>
@@ -9335,7 +9381,7 @@
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="12" t="s">
         <v>68</v>
       </c>
@@ -9358,7 +9404,7 @@
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="12" t="s">
         <v>68</v>
       </c>
@@ -9381,7 +9427,7 @@
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" s="12" t="s">
         <v>21</v>
       </c>
@@ -9406,7 +9452,7 @@
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" s="12" t="s">
         <v>30</v>
       </c>
@@ -9429,7 +9475,7 @@
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="12" t="s">
         <v>21</v>
       </c>
@@ -9454,7 +9500,7 @@
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" s="12" t="s">
         <v>103</v>
       </c>
@@ -9477,7 +9523,7 @@
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" s="12" t="s">
         <v>16</v>
       </c>
@@ -9500,7 +9546,7 @@
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" s="12" t="s">
         <v>33</v>
       </c>
@@ -9525,7 +9571,7 @@
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="12" t="s">
         <v>110</v>
       </c>
@@ -9550,7 +9596,7 @@
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" s="12" t="s">
         <v>24</v>
       </c>
@@ -9575,7 +9621,7 @@
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" s="12" t="s">
         <v>114</v>
       </c>
@@ -9600,7 +9646,7 @@
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" s="12" t="s">
         <v>117</v>
       </c>
@@ -9625,7 +9671,7 @@
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="12" t="s">
         <v>117</v>
       </c>
@@ -9650,7 +9696,7 @@
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" s="12" t="s">
         <v>117</v>
       </c>
@@ -9675,7 +9721,7 @@
       <c r="H245" s="12"/>
       <c r="I245" s="12"/>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="12" t="s">
         <v>124</v>
       </c>
@@ -9700,7 +9746,7 @@
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="12" t="s">
         <v>124</v>
       </c>
@@ -9723,7 +9769,7 @@
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" s="12" t="s">
         <v>124</v>
       </c>
@@ -9746,7 +9792,7 @@
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
     </row>
-    <row r="249" spans="1:9" hidden="1">
+    <row r="249" spans="1:9">
       <c r="A249" s="12" t="s">
         <v>124</v>
       </c>
@@ -9769,7 +9815,7 @@
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" s="12" t="s">
         <v>114</v>
       </c>
@@ -9794,7 +9840,7 @@
       <c r="H250" s="12"/>
       <c r="I250" s="12"/>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" s="12" t="s">
         <v>21</v>
       </c>
@@ -9819,7 +9865,7 @@
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" s="12" t="s">
         <v>27</v>
       </c>
@@ -9849,13 +9895,13 @@
         <v>37</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>137</v>
+        <v>663</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>349</v>
+        <v>666</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>138</v>
+        <v>670</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>19</v>
@@ -9864,12 +9910,12 @@
         <v>20</v>
       </c>
       <c r="G253" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H253" s="12"/>
       <c r="I253" s="12"/>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" s="12" t="s">
         <v>27</v>
       </c>
@@ -9877,10 +9923,10 @@
         <v>20</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>19</v>
@@ -9894,15 +9940,15 @@
       <c r="H254" s="12"/>
       <c r="I254" s="12"/>
     </row>
-    <row r="255" spans="1:9" hidden="1">
+    <row r="255" spans="1:9">
       <c r="A255" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B255" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C255" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="D255" s="12"/>
       <c r="E255" s="12" t="s">
@@ -9917,15 +9963,15 @@
       <c r="H255" s="12"/>
       <c r="I255" s="12"/>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D256" s="12"/>
       <c r="E256" s="12" t="s">
@@ -9940,15 +9986,15 @@
       <c r="H256" s="12"/>
       <c r="I256" s="12"/>
     </row>
-    <row r="257" spans="1:9" hidden="1">
+    <row r="257" spans="1:9">
       <c r="A257" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C257" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="D257" s="12"/>
       <c r="E257" s="12" t="s">
@@ -9963,9 +10009,9 @@
       <c r="H257" s="12"/>
       <c r="I257" s="12"/>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:9">
       <c r="A258" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B258" s="12">
         <v>1</v>
@@ -9974,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>19</v>
@@ -9988,15 +10034,15 @@
       <c r="H258" s="12"/>
       <c r="I258" s="12"/>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:9">
       <c r="A259" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C259" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C259" s="12" t="s">
-        <v>153</v>
       </c>
       <c r="D259" s="12"/>
       <c r="E259" s="12" t="s">
@@ -10011,15 +10057,15 @@
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
     </row>
-    <row r="260" spans="1:9" hidden="1">
+    <row r="260" spans="1:9">
       <c r="A260" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D260" s="12"/>
       <c r="E260" s="12" t="s">
@@ -10034,15 +10080,15 @@
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>156</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="D261" s="12"/>
       <c r="E261" s="12" t="s">
@@ -10057,15 +10103,15 @@
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
     </row>
-    <row r="262" spans="1:9" hidden="1">
+    <row r="262" spans="1:9">
       <c r="A262" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D262" s="12"/>
       <c r="E262" s="12" t="s">
@@ -10080,15 +10126,15 @@
       <c r="H262" s="12"/>
       <c r="I262" s="12"/>
     </row>
-    <row r="263" spans="1:9" hidden="1">
+    <row r="263" spans="1:9">
       <c r="A263" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D263" s="12"/>
       <c r="E263" s="12" t="s">
@@ -10103,15 +10149,15 @@
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:9">
       <c r="A264" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C264" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C264" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="D264" s="12"/>
       <c r="E264" s="12" t="s">
@@ -10126,15 +10172,15 @@
       <c r="H264" s="12"/>
       <c r="I264" s="12"/>
     </row>
-    <row r="265" spans="1:9" hidden="1">
+    <row r="265" spans="1:9">
       <c r="A265" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D265" s="12"/>
       <c r="E265" s="12" t="s">
@@ -10149,15 +10195,15 @@
       <c r="H265" s="12"/>
       <c r="I265" s="12"/>
     </row>
-    <row r="266" spans="1:9" hidden="1">
+    <row r="266" spans="1:9">
       <c r="A266" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D266" s="12"/>
       <c r="E266" s="12" t="s">
@@ -10172,15 +10218,15 @@
       <c r="H266" s="12"/>
       <c r="I266" s="12"/>
     </row>
-    <row r="267" spans="1:9" hidden="1">
+    <row r="267" spans="1:9">
       <c r="A267" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12" t="s">
@@ -10195,9 +10241,9 @@
       <c r="H267" s="12"/>
       <c r="I267" s="12"/>
     </row>
-    <row r="268" spans="1:9" hidden="1">
+    <row r="268" spans="1:9">
       <c r="A268" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B268" s="12">
         <v>2</v>
@@ -10206,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>19</v>
@@ -10220,9 +10266,9 @@
       <c r="H268" s="12"/>
       <c r="I268" s="12"/>
     </row>
-    <row r="269" spans="1:9" hidden="1">
+    <row r="269" spans="1:9">
       <c r="A269" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B269" s="12">
         <v>3</v>
@@ -10231,7 +10277,7 @@
         <v>3</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E269" s="12" t="s">
         <v>19</v>
@@ -10245,9 +10291,9 @@
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
     </row>
-    <row r="270" spans="1:9" hidden="1">
+    <row r="270" spans="1:9">
       <c r="A270" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B270" s="12">
         <v>4</v>
@@ -10256,7 +10302,7 @@
         <v>4</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>19</v>
@@ -10270,9 +10316,9 @@
       <c r="H270" s="12"/>
       <c r="I270" s="12"/>
     </row>
-    <row r="271" spans="1:9" hidden="1">
+    <row r="271" spans="1:9">
       <c r="A271" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B271" s="12">
         <v>5</v>
@@ -10281,7 +10327,7 @@
         <v>5</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E271" s="12" t="s">
         <v>19</v>
@@ -10295,9 +10341,9 @@
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
     </row>
-    <row r="272" spans="1:9" hidden="1">
+    <row r="272" spans="1:9">
       <c r="A272" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B272" s="12">
         <v>6</v>
@@ -10306,7 +10352,7 @@
         <v>6</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E272" s="12" t="s">
         <v>19</v>
@@ -10320,9 +10366,9 @@
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
     </row>
-    <row r="273" spans="1:9" hidden="1">
+    <row r="273" spans="1:9">
       <c r="A273" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B273" s="12">
         <v>7</v>
@@ -10331,7 +10377,7 @@
         <v>7</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E273" s="12" t="s">
         <v>19</v>
@@ -10345,9 +10391,9 @@
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
     </row>
-    <row r="274" spans="1:9" hidden="1">
+    <row r="274" spans="1:9">
       <c r="A274" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B274" s="12">
         <v>8</v>
@@ -10356,7 +10402,7 @@
         <v>8</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>19</v>
@@ -10370,9 +10416,9 @@
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
     </row>
-    <row r="275" spans="1:9" hidden="1">
+    <row r="275" spans="1:9">
       <c r="A275" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B275" s="12">
         <v>9</v>
@@ -10381,7 +10427,7 @@
         <v>9</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>19</v>
@@ -10395,9 +10441,9 @@
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B276" s="12">
         <v>10</v>
@@ -10406,7 +10452,7 @@
         <v>10</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>19</v>
@@ -10420,9 +10466,9 @@
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B277" s="12">
         <v>11</v>
@@ -10431,7 +10477,7 @@
         <v>11</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>19</v>
@@ -10445,9 +10491,9 @@
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B278" s="12">
         <v>12</v>
@@ -10456,7 +10502,7 @@
         <v>12</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E278" s="12" t="s">
         <v>19</v>
@@ -10470,9 +10516,9 @@
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B279" s="12">
         <v>13</v>
@@ -10481,7 +10527,7 @@
         <v>13</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E279" s="12" t="s">
         <v>19</v>
@@ -10495,9 +10541,9 @@
       <c r="H279" s="12"/>
       <c r="I279" s="12"/>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B280" s="12">
         <v>14</v>
@@ -10506,7 +10552,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>19</v>
@@ -10520,9 +10566,9 @@
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B281" s="12">
         <v>15</v>
@@ -10531,7 +10577,7 @@
         <v>15</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>19</v>
@@ -10545,9 +10591,9 @@
       <c r="H281" s="12"/>
       <c r="I281" s="12"/>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B282" s="12">
         <v>16</v>
@@ -10556,7 +10602,7 @@
         <v>16</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>19</v>
@@ -10570,9 +10616,9 @@
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B283" s="12">
         <v>17</v>
@@ -10581,7 +10627,7 @@
         <v>17</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>19</v>
@@ -10595,9 +10641,9 @@
       <c r="H283" s="12"/>
       <c r="I283" s="12"/>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B284" s="12">
         <v>18</v>
@@ -10606,7 +10652,7 @@
         <v>18</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>19</v>
@@ -10620,9 +10666,9 @@
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B285" s="12">
         <v>19</v>
@@ -10631,7 +10677,7 @@
         <v>19</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>19</v>
@@ -10645,9 +10691,9 @@
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B286" s="12">
         <v>20</v>
@@ -10656,7 +10702,7 @@
         <v>20</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E286" s="12" t="s">
         <v>19</v>
@@ -10670,9 +10716,9 @@
       <c r="H286" s="12"/>
       <c r="I286" s="12"/>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B287" s="12">
         <v>21</v>
@@ -10681,7 +10727,7 @@
         <v>21</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>19</v>
@@ -10695,9 +10741,9 @@
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B288" s="12">
         <v>22</v>
@@ -10706,7 +10752,7 @@
         <v>22</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E288" s="12" t="s">
         <v>19</v>
@@ -10720,9 +10766,9 @@
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B289" s="12">
         <v>23</v>
@@ -10731,7 +10777,7 @@
         <v>23</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>19</v>
@@ -10745,9 +10791,9 @@
       <c r="H289" s="12"/>
       <c r="I289" s="12"/>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B290" s="12">
         <v>0</v>
@@ -10756,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E290" s="12" t="s">
         <v>19</v>
@@ -10770,9 +10816,9 @@
       <c r="H290" s="12"/>
       <c r="I290" s="12"/>
     </row>
-    <row r="291" spans="1:9" hidden="1">
+    <row r="291" spans="1:9">
       <c r="A291" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B291" s="12">
         <v>30</v>
@@ -10781,7 +10827,7 @@
         <v>30</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E291" s="12" t="s">
         <v>19</v>
@@ -10795,7 +10841,7 @@
       <c r="H291" s="12"/>
       <c r="I291" s="12"/>
     </row>
-    <row r="292" spans="1:9" hidden="1">
+    <row r="292" spans="1:9">
       <c r="A292" s="12" t="s">
         <v>110</v>
       </c>
@@ -10803,10 +10849,10 @@
         <v>1</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E292" s="12" t="s">
         <v>19</v>
@@ -10820,15 +10866,15 @@
       <c r="H292" s="12"/>
       <c r="I292" s="12"/>
     </row>
-    <row r="293" spans="1:9" hidden="1">
+    <row r="293" spans="1:9">
       <c r="A293" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D293" s="12"/>
       <c r="E293" s="12" t="s">
@@ -10843,15 +10889,15 @@
       <c r="H293" s="12"/>
       <c r="I293" s="12"/>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9">
       <c r="A294" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D294" s="12"/>
       <c r="E294" s="12" t="s">
@@ -10866,18 +10912,18 @@
       <c r="H294" s="12"/>
       <c r="I294" s="12"/>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9">
       <c r="A295" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C295" s="17" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="E295" s="12" t="s">
         <v>19</v>
@@ -10891,18 +10937,18 @@
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
     </row>
-    <row r="296" spans="1:9" hidden="1">
+    <row r="296" spans="1:9">
       <c r="A296" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="B296" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="B296" s="17" t="s">
-        <v>654</v>
-      </c>
       <c r="C296" s="17" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>19</v>
@@ -10916,18 +10962,18 @@
       <c r="H296" s="12"/>
       <c r="I296" s="12"/>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9">
       <c r="A297" s="17" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E297" s="12" t="s">
         <v>19</v>
@@ -10941,14 +10987,104 @@
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
     </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C298" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="D298" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G298" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="C299" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="D299" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F299" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G299" s="20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="C300" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="D300" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F300" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G300" s="20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="D301" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G301" s="20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:O297" xr:uid="{AD31B149-8E7D-42B4-91D8-EA5630FDD1EF}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="PROCESS_STATE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>

--- a/document/excel_upload_자료/TBL_EXP_CODE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_CODE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9D9C44-E54D-4B25-81E5-DD4E0720ADF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0340B3-D1B2-44DE-90A7-88FE1DDF3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="2550" windowWidth="19830" windowHeight="12045" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="GRP_CODE" sheetId="1" r:id="rId1"/>
     <sheet name="CODE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CODE!$A$5:$O$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CODE!$A$5:$K$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2254,7 +2254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2314,9 +2314,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2654,7 +2651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153AC9D0-4242-43A7-80D5-A7E4643E8D4D}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -3623,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706EC46-4FD3-47B1-964A-6FD042DA6B08}">
-  <dimension ref="A1:O302"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G306" sqref="G306"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3640,7 +3637,7 @@
     <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>294</v>
       </c>
@@ -3654,12 +3651,8 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="24">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="24">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3676,7 +3669,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>344</v>
       </c>
@@ -3693,7 +3686,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -3722,7 +3715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3751,17 +3744,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>238</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>239</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>19</v>
       </c>
@@ -3769,22 +3764,24 @@
         <v>20</v>
       </c>
       <c r="G6" s="12">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>199</v>
+        <v>117</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>119</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>19</v>
       </c>
@@ -3792,22 +3789,24 @@
         <v>20</v>
       </c>
       <c r="G7" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
@@ -3815,22 +3814,24 @@
         <v>20</v>
       </c>
       <c r="G8" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>19</v>
       </c>
@@ -3838,22 +3839,24 @@
         <v>20</v>
       </c>
       <c r="G9" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
@@ -3861,22 +3864,24 @@
         <v>20</v>
       </c>
       <c r="G10" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>19</v>
       </c>
@@ -3884,22 +3889,24 @@
         <v>20</v>
       </c>
       <c r="G11" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>222</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>222</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>19</v>
       </c>
@@ -3912,17 +3919,19 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
-        <v>209</v>
+        <v>114</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>19</v>
       </c>
@@ -3930,22 +3939,24 @@
         <v>20</v>
       </c>
       <c r="G13" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:11">
       <c r="A14" s="12" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="12"/>
+        <v>281</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="E14" s="12" t="s">
         <v>19</v>
       </c>
@@ -3953,20 +3964,20 @@
         <v>20</v>
       </c>
       <c r="G14" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:11">
       <c r="A15" s="12" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12" t="s">
@@ -3976,20 +3987,20 @@
         <v>20</v>
       </c>
       <c r="G15" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>218</v>
+        <v>47</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>219</v>
+        <v>48</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12" t="s">
@@ -3999,20 +4010,20 @@
         <v>20</v>
       </c>
       <c r="G16" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12" t="s">
@@ -4022,24 +4033,22 @@
         <v>20</v>
       </c>
       <c r="G17" s="12">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>220</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D18" s="12"/>
       <c r="E18" s="12" t="s">
         <v>19</v>
       </c>
@@ -4047,24 +4056,22 @@
         <v>20</v>
       </c>
       <c r="G18" s="12">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="12" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>222</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D19" s="12"/>
       <c r="E19" s="12" t="s">
         <v>19</v>
       </c>
@@ -4072,24 +4079,22 @@
         <v>20</v>
       </c>
       <c r="G19" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>79</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
         <v>19</v>
       </c>
@@ -4097,24 +4102,22 @@
         <v>20</v>
       </c>
       <c r="G20" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
-        <v>654</v>
+        <v>203</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>656</v>
+        <v>207</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>655</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
         <v>19</v>
       </c>
@@ -4122,23 +4125,23 @@
         <v>20</v>
       </c>
       <c r="G21" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
-        <v>24</v>
+        <v>274</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>19</v>
@@ -4147,23 +4150,23 @@
         <v>20</v>
       </c>
       <c r="G22" s="12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="12" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>662</v>
+        <v>277</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>346</v>
+        <v>278</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>19</v>
@@ -4172,24 +4175,22 @@
         <v>20</v>
       </c>
       <c r="G23" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>75</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D24" s="12"/>
       <c r="E24" s="12" t="s">
         <v>19</v>
       </c>
@@ -4197,20 +4198,20 @@
         <v>20</v>
       </c>
       <c r="G24" s="12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12" t="s">
@@ -4220,20 +4221,20 @@
         <v>20</v>
       </c>
       <c r="G25" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="D26" s="12"/>
       <c r="E26" s="12" t="s">
@@ -4243,20 +4244,20 @@
         <v>20</v>
       </c>
       <c r="G26" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12" t="s">
@@ -4266,24 +4267,22 @@
         <v>20</v>
       </c>
       <c r="G27" s="12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>228</v>
+        <v>95</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>66</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D28" s="12"/>
       <c r="E28" s="12" t="s">
         <v>19</v>
       </c>
@@ -4298,17 +4297,15 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="12" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D29" s="12"/>
       <c r="E29" s="12" t="s">
         <v>19</v>
       </c>
@@ -4316,49 +4313,45 @@
         <v>20</v>
       </c>
       <c r="G29" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="12" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>229</v>
+        <v>69</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>230</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D30" s="12"/>
       <c r="E30" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="12">
-        <v>0</v>
+        <v>103</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>232</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="12" t="s">
         <v>19</v>
       </c>
@@ -4373,17 +4366,15 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>376</v>
+        <v>197</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>378</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D32" s="12"/>
       <c r="E32" s="12" t="s">
         <v>19</v>
       </c>
@@ -4391,7 +4382,7 @@
         <v>20</v>
       </c>
       <c r="G32" s="12">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="12"/>
@@ -4401,13 +4392,13 @@
         <v>233</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>19</v>
@@ -4416,23 +4407,23 @@
         <v>20</v>
       </c>
       <c r="G33" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" s="12">
-        <v>0</v>
-      </c>
-      <c r="C34" s="12">
-        <v>0</v>
+        <v>233</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>19</v>
@@ -4441,23 +4432,23 @@
         <v>20</v>
       </c>
       <c r="G34" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="12" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>19</v>
@@ -4466,23 +4457,23 @@
         <v>20</v>
       </c>
       <c r="G35" s="12">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="12" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>19</v>
@@ -4501,13 +4492,13 @@
         <v>233</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>19</v>
@@ -4516,23 +4507,23 @@
         <v>20</v>
       </c>
       <c r="G37" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="12" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
@@ -4548,16 +4539,16 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="12" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>19</v>
@@ -4566,23 +4557,23 @@
         <v>20</v>
       </c>
       <c r="G39" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="12" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>19</v>
@@ -4591,23 +4582,23 @@
         <v>20</v>
       </c>
       <c r="G40" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="12" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>253</v>
+        <v>137</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>19</v>
@@ -4616,23 +4607,23 @@
         <v>20</v>
       </c>
       <c r="G41" s="12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="12" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>256</v>
+        <v>111</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>19</v>
@@ -4641,23 +4632,23 @@
         <v>20</v>
       </c>
       <c r="G42" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="12" t="s">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>257</v>
+        <v>19</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>19</v>
@@ -4666,23 +4657,23 @@
         <v>20</v>
       </c>
       <c r="G43" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="12" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>260</v>
+        <v>111</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>260</v>
+        <v>112</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>19</v>
@@ -4691,23 +4682,23 @@
         <v>20</v>
       </c>
       <c r="G44" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>261</v>
+        <v>110</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>19</v>
@@ -4716,23 +4707,23 @@
         <v>20</v>
       </c>
       <c r="G45" s="12">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>263</v>
+        <v>110</v>
+      </c>
+      <c r="B46" s="12">
+        <v>1</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>19</v>
@@ -4741,24 +4732,22 @@
         <v>20</v>
       </c>
       <c r="G46" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="12" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>265</v>
+        <v>105</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>266</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D47" s="12"/>
       <c r="E47" s="12" t="s">
         <v>19</v>
       </c>
@@ -4766,24 +4755,22 @@
         <v>20</v>
       </c>
       <c r="G47" s="12">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" ht="20.25" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>269</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D48" s="12"/>
       <c r="E48" s="12" t="s">
         <v>19</v>
       </c>
@@ -4798,16 +4785,16 @@
     </row>
     <row r="49" spans="1:9" ht="20.25" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>19</v>
@@ -4816,23 +4803,23 @@
         <v>20</v>
       </c>
       <c r="G49" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" ht="20.25" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>19</v>
@@ -4841,23 +4828,23 @@
         <v>20</v>
       </c>
       <c r="G50" s="12">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="12" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>19</v>
@@ -4866,23 +4853,23 @@
         <v>20</v>
       </c>
       <c r="G51" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="12" t="s">
-        <v>274</v>
+        <v>348</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>19</v>
@@ -4891,23 +4878,23 @@
         <v>20</v>
       </c>
       <c r="G52" s="12">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="12" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>279</v>
+        <v>357</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>280</v>
+        <v>358</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>19</v>
@@ -4916,23 +4903,23 @@
         <v>20</v>
       </c>
       <c r="G53" s="12">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="12" t="s">
-        <v>114</v>
+        <v>348</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>122</v>
+        <v>359</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>19</v>
@@ -4941,23 +4928,23 @@
         <v>20</v>
       </c>
       <c r="G54" s="12">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="12" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>283</v>
+        <v>361</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>19</v>
@@ -4966,23 +4953,23 @@
         <v>20</v>
       </c>
       <c r="G55" s="12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="12" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>285</v>
+        <v>454</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>19</v>
@@ -4991,23 +4978,23 @@
         <v>20</v>
       </c>
       <c r="G56" s="12">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="12" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>105</v>
+        <v>456</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>106</v>
+        <v>457</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>106</v>
+        <v>457</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>19</v>
@@ -5016,23 +5003,23 @@
         <v>20</v>
       </c>
       <c r="G57" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="12" t="s">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>288</v>
+        <v>459</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>289</v>
+        <v>459</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>19</v>
@@ -5041,23 +5028,23 @@
         <v>20</v>
       </c>
       <c r="G58" s="12">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="12" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>290</v>
+        <v>460</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>291</v>
+        <v>461</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>19</v>
@@ -5066,23 +5053,23 @@
         <v>20</v>
       </c>
       <c r="G59" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="12" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>292</v>
+        <v>462</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>293</v>
+        <v>463</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>293</v>
+        <v>463</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>19</v>
@@ -5091,23 +5078,23 @@
         <v>20</v>
       </c>
       <c r="G60" s="12">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>381</v>
+        <v>465</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>19</v>
@@ -5116,23 +5103,23 @@
         <v>20</v>
       </c>
       <c r="G61" s="12">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>382</v>
+        <v>466</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>383</v>
+        <v>467</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>19</v>
@@ -5141,23 +5128,23 @@
         <v>20</v>
       </c>
       <c r="G62" s="12">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>387</v>
+        <v>469</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>19</v>
@@ -5166,23 +5153,23 @@
         <v>20</v>
       </c>
       <c r="G63" s="12">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>389</v>
+        <v>471</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>390</v>
+        <v>471</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
@@ -5191,23 +5178,23 @@
         <v>20</v>
       </c>
       <c r="G64" s="12">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>391</v>
+        <v>472</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>392</v>
+        <v>473</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>393</v>
+        <v>473</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>19</v>
@@ -5216,23 +5203,23 @@
         <v>20</v>
       </c>
       <c r="G65" s="12">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="12" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>395</v>
+        <v>475</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>19</v>
@@ -5241,23 +5228,23 @@
         <v>20</v>
       </c>
       <c r="G66" s="12">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>19</v>
@@ -5266,23 +5253,23 @@
         <v>20</v>
       </c>
       <c r="G67" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>399</v>
+        <v>478</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>400</v>
+        <v>479</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>401</v>
+        <v>479</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>19</v>
@@ -5291,23 +5278,23 @@
         <v>20</v>
       </c>
       <c r="G68" s="12">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="12" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>402</v>
+        <v>480</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>403</v>
+        <v>481</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>19</v>
@@ -5316,23 +5303,23 @@
         <v>20</v>
       </c>
       <c r="G69" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="12" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>405</v>
+        <v>483</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>19</v>
@@ -5341,23 +5328,23 @@
         <v>20</v>
       </c>
       <c r="G70" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="12" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>283</v>
+        <v>484</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>284</v>
+        <v>485</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>19</v>
@@ -5366,23 +5353,23 @@
         <v>20</v>
       </c>
       <c r="G71" s="12">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="12" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>283</v>
+        <v>486</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>19</v>
@@ -5391,23 +5378,23 @@
         <v>20</v>
       </c>
       <c r="G72" s="12">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="12" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>407</v>
+        <v>488</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>408</v>
+        <v>489</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>19</v>
@@ -5416,23 +5403,23 @@
         <v>20</v>
       </c>
       <c r="G73" s="12">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="12" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>409</v>
+        <v>490</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>410</v>
+        <v>491</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>19</v>
@@ -5441,23 +5428,23 @@
         <v>20</v>
       </c>
       <c r="G74" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="12" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>411</v>
+        <v>492</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>412</v>
+        <v>493</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>19</v>
@@ -5466,23 +5453,23 @@
         <v>20</v>
       </c>
       <c r="G75" s="12">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="12" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>413</v>
+        <v>494</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>414</v>
+        <v>495</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>19</v>
@@ -5491,23 +5478,23 @@
         <v>20</v>
       </c>
       <c r="G76" s="12">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B77" s="12">
-        <v>1</v>
+        <v>348</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>496</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>415</v>
+        <v>497</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>19</v>
@@ -5516,23 +5503,23 @@
         <v>20</v>
       </c>
       <c r="G77" s="12">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B78" s="12">
-        <v>3</v>
+        <v>348</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>19</v>
@@ -5541,23 +5528,23 @@
         <v>20</v>
       </c>
       <c r="G78" s="12">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B79" s="12">
-        <v>5</v>
+        <v>348</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>500</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>417</v>
+        <v>501</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>19</v>
@@ -5566,23 +5553,23 @@
         <v>20</v>
       </c>
       <c r="G79" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B80" s="12">
-        <v>7</v>
+        <v>348</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>502</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>418</v>
+        <v>503</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>19</v>
@@ -5591,23 +5578,23 @@
         <v>20</v>
       </c>
       <c r="G80" s="12">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B81" s="12">
-        <v>9</v>
+        <v>348</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>504</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>19</v>
@@ -5616,23 +5603,23 @@
         <v>20</v>
       </c>
       <c r="G81" s="12">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B82" s="12">
-        <v>11</v>
+        <v>348</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>506</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>420</v>
+        <v>507</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>420</v>
+        <v>507</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>19</v>
@@ -5641,23 +5628,23 @@
         <v>20</v>
       </c>
       <c r="G82" s="12">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>421</v>
+        <v>508</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>422</v>
+        <v>509</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>19</v>
@@ -5666,23 +5653,23 @@
         <v>20</v>
       </c>
       <c r="G83" s="12">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>426</v>
+        <v>511</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>19</v>
@@ -5691,23 +5678,23 @@
         <v>20</v>
       </c>
       <c r="G84" s="12">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>429</v>
+        <v>513</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>19</v>
@@ -5716,23 +5703,23 @@
         <v>20</v>
       </c>
       <c r="G85" s="12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>430</v>
+        <v>514</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>431</v>
+        <v>515</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>19</v>
@@ -5741,23 +5728,23 @@
         <v>20</v>
       </c>
       <c r="G86" s="12">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>19</v>
@@ -5766,23 +5753,23 @@
         <v>20</v>
       </c>
       <c r="G87" s="12">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>19</v>
@@ -5791,23 +5778,23 @@
         <v>20</v>
       </c>
       <c r="G88" s="12">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>441</v>
+        <v>521</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>19</v>
@@ -5816,23 +5803,23 @@
         <v>20</v>
       </c>
       <c r="G89" s="12">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>442</v>
+        <v>522</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>443</v>
+        <v>523</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>19</v>
@@ -5841,23 +5828,23 @@
         <v>20</v>
       </c>
       <c r="G90" s="12">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="12" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>445</v>
+        <v>524</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>446</v>
+        <v>525</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>19</v>
@@ -5866,23 +5853,23 @@
         <v>20</v>
       </c>
       <c r="G91" s="12">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B92" s="12">
-        <v>2</v>
+        <v>348</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>526</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>448</v>
+        <v>527</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>19</v>
@@ -5891,23 +5878,23 @@
         <v>20</v>
       </c>
       <c r="G92" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B93" s="12">
-        <v>4</v>
+        <v>348</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>19</v>
@@ -5916,23 +5903,23 @@
         <v>20</v>
       </c>
       <c r="G93" s="12">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B94" s="12">
-        <v>6</v>
+        <v>348</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>450</v>
+        <v>531</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>19</v>
@@ -5941,23 +5928,23 @@
         <v>20</v>
       </c>
       <c r="G94" s="12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B95" s="12">
-        <v>8</v>
+        <v>348</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>532</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>451</v>
+        <v>533</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>19</v>
@@ -5966,23 +5953,23 @@
         <v>20</v>
       </c>
       <c r="G95" s="12">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B96" s="12">
-        <v>10</v>
+        <v>348</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>19</v>
@@ -5991,23 +5978,23 @@
         <v>20</v>
       </c>
       <c r="G96" s="12">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="B97" s="12">
-        <v>12</v>
+        <v>348</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>19</v>
@@ -6016,7 +6003,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="12">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -6026,13 +6013,13 @@
         <v>348</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>349</v>
+        <v>538</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>350</v>
+        <v>539</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>350</v>
+        <v>539</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>19</v>
@@ -6041,7 +6028,7 @@
         <v>20</v>
       </c>
       <c r="G98" s="12">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
@@ -6051,13 +6038,13 @@
         <v>348</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>351</v>
+        <v>540</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>352</v>
+        <v>541</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>19</v>
@@ -6066,7 +6053,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="12">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -6076,13 +6063,13 @@
         <v>348</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>353</v>
+        <v>542</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>354</v>
+        <v>543</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>354</v>
+        <v>543</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>19</v>
@@ -6091,7 +6078,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -6101,13 +6088,13 @@
         <v>348</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>355</v>
+        <v>544</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>356</v>
+        <v>545</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>356</v>
+        <v>545</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>19</v>
@@ -6116,7 +6103,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="12">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -6126,13 +6113,13 @@
         <v>348</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>357</v>
+        <v>546</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>358</v>
+        <v>547</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>358</v>
+        <v>547</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>19</v>
@@ -6141,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="12">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -6151,13 +6138,13 @@
         <v>348</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>359</v>
+        <v>548</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>360</v>
+        <v>549</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>360</v>
+        <v>549</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>19</v>
@@ -6166,7 +6153,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="12">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -6176,13 +6163,13 @@
         <v>348</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>361</v>
+        <v>550</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>362</v>
+        <v>551</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>362</v>
+        <v>551</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>19</v>
@@ -6191,7 +6178,7 @@
         <v>20</v>
       </c>
       <c r="G104" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -6201,13 +6188,13 @@
         <v>348</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>454</v>
+        <v>552</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>19</v>
@@ -6216,7 +6203,7 @@
         <v>20</v>
       </c>
       <c r="G105" s="12">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -6226,13 +6213,13 @@
         <v>348</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>456</v>
+        <v>554</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>457</v>
+        <v>555</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>457</v>
+        <v>555</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>19</v>
@@ -6241,7 +6228,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="12">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
@@ -6251,13 +6238,13 @@
         <v>348</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>458</v>
+        <v>556</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>459</v>
+        <v>557</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>459</v>
+        <v>557</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>19</v>
@@ -6266,7 +6253,7 @@
         <v>20</v>
       </c>
       <c r="G107" s="12">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -6276,13 +6263,13 @@
         <v>348</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>460</v>
+        <v>558</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>461</v>
+        <v>559</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>461</v>
+        <v>559</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>19</v>
@@ -6291,7 +6278,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
@@ -6301,13 +6288,13 @@
         <v>348</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>462</v>
+        <v>560</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>463</v>
+        <v>561</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>463</v>
+        <v>561</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
@@ -6316,7 +6303,7 @@
         <v>20</v>
       </c>
       <c r="G109" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -6326,13 +6313,13 @@
         <v>348</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>464</v>
+        <v>562</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>465</v>
+        <v>563</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>465</v>
+        <v>563</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>19</v>
@@ -6341,7 +6328,7 @@
         <v>20</v>
       </c>
       <c r="G110" s="12">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -6351,13 +6338,13 @@
         <v>348</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>466</v>
+        <v>564</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>467</v>
+        <v>565</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>467</v>
+        <v>565</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>19</v>
@@ -6366,7 +6353,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="12">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
@@ -6376,13 +6363,13 @@
         <v>348</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>468</v>
+        <v>566</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>19</v>
@@ -6391,7 +6378,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="12">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
@@ -6401,13 +6388,13 @@
         <v>348</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>470</v>
+        <v>568</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>471</v>
+        <v>569</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>471</v>
+        <v>569</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>19</v>
@@ -6416,7 +6403,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="12">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -6426,13 +6413,13 @@
         <v>348</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>472</v>
+        <v>570</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>19</v>
@@ -6441,7 +6428,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="12">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -6451,13 +6438,13 @@
         <v>348</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>475</v>
+        <v>573</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>475</v>
+        <v>573</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>19</v>
@@ -6466,7 +6453,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="12">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
@@ -6476,13 +6463,13 @@
         <v>348</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>476</v>
+        <v>574</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>477</v>
+        <v>575</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>477</v>
+        <v>575</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>19</v>
@@ -6491,7 +6478,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="12">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
@@ -6501,13 +6488,13 @@
         <v>348</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>478</v>
+        <v>576</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>479</v>
+        <v>577</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>479</v>
+        <v>577</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>19</v>
@@ -6516,7 +6503,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="12">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
@@ -6526,13 +6513,13 @@
         <v>348</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>481</v>
+        <v>579</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>481</v>
+        <v>579</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>19</v>
@@ -6541,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="12">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
@@ -6551,13 +6538,13 @@
         <v>348</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>482</v>
+        <v>580</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>483</v>
+        <v>581</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>483</v>
+        <v>581</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>19</v>
@@ -6566,7 +6553,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="12">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
@@ -6576,13 +6563,13 @@
         <v>348</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>484</v>
+        <v>582</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>485</v>
+        <v>583</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>485</v>
+        <v>583</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>19</v>
@@ -6591,7 +6578,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="12">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -6601,13 +6588,13 @@
         <v>348</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>486</v>
+        <v>584</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>487</v>
+        <v>585</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>487</v>
+        <v>585</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>19</v>
@@ -6616,7 +6603,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="12">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -6626,13 +6613,13 @@
         <v>348</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>489</v>
+        <v>587</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>489</v>
+        <v>587</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>19</v>
@@ -6641,7 +6628,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="12">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -6651,13 +6638,13 @@
         <v>348</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>490</v>
+        <v>588</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>19</v>
@@ -6666,7 +6653,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="12">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -6676,13 +6663,13 @@
         <v>348</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>19</v>
@@ -6691,7 +6678,7 @@
         <v>20</v>
       </c>
       <c r="G124" s="12">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -6701,13 +6688,13 @@
         <v>348</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>19</v>
@@ -6716,7 +6703,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="12">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -6726,13 +6713,13 @@
         <v>348</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>19</v>
@@ -6741,7 +6728,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="12">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
@@ -6751,13 +6738,13 @@
         <v>348</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>19</v>
@@ -6766,7 +6753,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="12">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -6776,13 +6763,13 @@
         <v>348</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>19</v>
@@ -6791,7 +6778,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="12">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -6801,13 +6788,13 @@
         <v>348</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>19</v>
@@ -6816,7 +6803,7 @@
         <v>20</v>
       </c>
       <c r="G129" s="12">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
@@ -6826,13 +6813,13 @@
         <v>348</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>504</v>
+        <v>602</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>505</v>
+        <v>603</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>505</v>
+        <v>603</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
@@ -6841,7 +6828,7 @@
         <v>20</v>
       </c>
       <c r="G130" s="12">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
@@ -6851,13 +6838,13 @@
         <v>348</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>506</v>
+        <v>604</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>507</v>
+        <v>605</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>507</v>
+        <v>605</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>19</v>
@@ -6866,7 +6853,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="12">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -6876,13 +6863,13 @@
         <v>348</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>509</v>
+        <v>607</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>19</v>
@@ -6891,7 +6878,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="12">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -6901,13 +6888,13 @@
         <v>348</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>510</v>
+        <v>608</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>511</v>
+        <v>609</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>19</v>
@@ -6916,7 +6903,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="12">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -6926,13 +6913,13 @@
         <v>348</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>19</v>
@@ -6941,7 +6928,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="12">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -6951,13 +6938,13 @@
         <v>348</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>19</v>
@@ -6966,7 +6953,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="12">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -6976,13 +6963,13 @@
         <v>348</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>516</v>
+        <v>614</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>517</v>
+        <v>615</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>517</v>
+        <v>615</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>19</v>
@@ -6991,7 +6978,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="12">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -7001,13 +6988,13 @@
         <v>348</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>519</v>
+        <v>617</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>519</v>
+        <v>617</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>19</v>
@@ -7016,7 +7003,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="12">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -7026,13 +7013,13 @@
         <v>348</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>521</v>
+        <v>619</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>521</v>
+        <v>619</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
@@ -7041,7 +7028,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="12">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -7051,13 +7038,13 @@
         <v>348</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>522</v>
+        <v>620</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>523</v>
+        <v>621</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>523</v>
+        <v>621</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>19</v>
@@ -7066,7 +7053,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="12">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -7076,13 +7063,13 @@
         <v>348</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>19</v>
@@ -7091,7 +7078,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="12">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -7101,13 +7088,13 @@
         <v>348</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>19</v>
@@ -7116,7 +7103,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="12">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -7126,13 +7113,13 @@
         <v>348</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>19</v>
@@ -7141,7 +7128,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="12">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -7151,13 +7138,13 @@
         <v>348</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>19</v>
@@ -7166,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="G143" s="12">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -7176,13 +7163,13 @@
         <v>348</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>532</v>
+        <v>630</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>533</v>
+        <v>631</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>533</v>
+        <v>631</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>19</v>
@@ -7191,7 +7178,7 @@
         <v>20</v>
       </c>
       <c r="G144" s="12">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -7201,13 +7188,13 @@
         <v>348</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>534</v>
+        <v>632</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>535</v>
+        <v>633</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>535</v>
+        <v>633</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>19</v>
@@ -7216,7 +7203,7 @@
         <v>20</v>
       </c>
       <c r="G145" s="12">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -7226,13 +7213,13 @@
         <v>348</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>19</v>
@@ -7241,7 +7228,7 @@
         <v>20</v>
       </c>
       <c r="G146" s="12">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -7251,13 +7238,13 @@
         <v>348</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>19</v>
@@ -7266,7 +7253,7 @@
         <v>20</v>
       </c>
       <c r="G147" s="12">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -7276,13 +7263,13 @@
         <v>348</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>540</v>
+        <v>638</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>541</v>
+        <v>639</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>541</v>
+        <v>639</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>19</v>
@@ -7291,7 +7278,7 @@
         <v>20</v>
       </c>
       <c r="G148" s="12">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -7301,13 +7288,13 @@
         <v>348</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>19</v>
@@ -7316,7 +7303,7 @@
         <v>20</v>
       </c>
       <c r="G149" s="12">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -7326,13 +7313,13 @@
         <v>348</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>544</v>
+        <v>642</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>545</v>
+        <v>643</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>19</v>
@@ -7341,7 +7328,7 @@
         <v>20</v>
       </c>
       <c r="G150" s="12">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -7351,13 +7338,13 @@
         <v>348</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>546</v>
+        <v>644</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>19</v>
@@ -7366,23 +7353,23 @@
         <v>20</v>
       </c>
       <c r="G151" s="12">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="12" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>548</v>
+        <v>394</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>549</v>
+        <v>395</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>549</v>
+        <v>395</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>19</v>
@@ -7391,23 +7378,23 @@
         <v>20</v>
       </c>
       <c r="G152" s="12">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="12" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>550</v>
+        <v>402</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>551</v>
+        <v>403</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>19</v>
@@ -7416,23 +7403,23 @@
         <v>20</v>
       </c>
       <c r="G153" s="12">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="12" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>552</v>
+        <v>404</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>553</v>
+        <v>405</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>19</v>
@@ -7441,24 +7428,22 @@
         <v>20</v>
       </c>
       <c r="G154" s="12">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="12" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>554</v>
+        <v>150</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="D155" s="12" t="s">
-        <v>555</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D155" s="12"/>
       <c r="E155" s="12" t="s">
         <v>19</v>
       </c>
@@ -7466,24 +7451,22 @@
         <v>20</v>
       </c>
       <c r="G155" s="12">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="12" t="s">
-        <v>348</v>
+        <v>149</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>556</v>
+        <v>152</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>557</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D156" s="12"/>
       <c r="E156" s="12" t="s">
         <v>19</v>
       </c>
@@ -7491,24 +7474,22 @@
         <v>20</v>
       </c>
       <c r="G156" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="12" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>558</v>
+        <v>140</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="D157" s="12" t="s">
-        <v>559</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D157" s="12"/>
       <c r="E157" s="12" t="s">
         <v>19</v>
       </c>
@@ -7516,24 +7497,22 @@
         <v>20</v>
       </c>
       <c r="G157" s="12">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="12" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>560</v>
+        <v>142</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="D158" s="12" t="s">
-        <v>561</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D158" s="12"/>
       <c r="E158" s="12" t="s">
         <v>19</v>
       </c>
@@ -7541,23 +7520,23 @@
         <v>20</v>
       </c>
       <c r="G158" s="12">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="12" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>562</v>
+        <v>283</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>563</v>
+        <v>284</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>563</v>
+        <v>284</v>
       </c>
       <c r="E159" s="12" t="s">
         <v>19</v>
@@ -7566,23 +7545,23 @@
         <v>20</v>
       </c>
       <c r="G159" s="12">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="12" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>564</v>
+        <v>285</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>565</v>
+        <v>108</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>565</v>
+        <v>108</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>19</v>
@@ -7591,23 +7570,23 @@
         <v>20</v>
       </c>
       <c r="G160" s="12">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="12" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>566</v>
+        <v>105</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>567</v>
+        <v>106</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>19</v>
@@ -7616,24 +7595,22 @@
         <v>20</v>
       </c>
       <c r="G161" s="12">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="12" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>568</v>
+        <v>162</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>569</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D162" s="12"/>
       <c r="E162" s="12" t="s">
         <v>19</v>
       </c>
@@ -7641,24 +7618,22 @@
         <v>20</v>
       </c>
       <c r="G162" s="12">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="12" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>570</v>
+        <v>164</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>571</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="D163" s="12"/>
       <c r="E163" s="12" t="s">
         <v>19</v>
       </c>
@@ -7666,24 +7641,22 @@
         <v>20</v>
       </c>
       <c r="G163" s="12">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="12" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>572</v>
+        <v>166</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="D164" s="12" t="s">
-        <v>573</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D164" s="12"/>
       <c r="E164" s="12" t="s">
         <v>19</v>
       </c>
@@ -7691,24 +7664,22 @@
         <v>20</v>
       </c>
       <c r="G164" s="12">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="12" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>574</v>
+        <v>195</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="D165" s="12" t="s">
-        <v>575</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D165" s="12"/>
       <c r="E165" s="12" t="s">
         <v>19</v>
       </c>
@@ -7716,98 +7687,98 @@
         <v>20</v>
       </c>
       <c r="G165" s="12">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="12" t="s">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>576</v>
+        <v>34</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>577</v>
+        <v>35</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>577</v>
+        <v>36</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G166" s="12">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="12" t="s">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>578</v>
+        <v>107</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>579</v>
+        <v>108</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>579</v>
+        <v>109</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F167" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G167" s="12">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="12" t="s">
-        <v>348</v>
+        <v>33</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>580</v>
+        <v>229</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>581</v>
+        <v>230</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G168" s="12">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="12" t="s">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>582</v>
+        <v>125</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>583</v>
+        <v>126</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>583</v>
+        <v>126</v>
       </c>
       <c r="E169" s="12" t="s">
         <v>19</v>
@@ -7816,24 +7787,22 @@
         <v>20</v>
       </c>
       <c r="G169" s="12">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="12" t="s">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>584</v>
+        <v>127</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="D170" s="12" t="s">
-        <v>585</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D170" s="12"/>
       <c r="E170" s="12" t="s">
         <v>19</v>
       </c>
@@ -7841,24 +7810,22 @@
         <v>20</v>
       </c>
       <c r="G170" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="12" t="s">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>586</v>
+        <v>129</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="D171" s="12" t="s">
-        <v>587</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D171" s="12"/>
       <c r="E171" s="12" t="s">
         <v>19</v>
       </c>
@@ -7866,24 +7833,22 @@
         <v>20</v>
       </c>
       <c r="G171" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="12" t="s">
-        <v>348</v>
+        <v>124</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>588</v>
+        <v>131</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>589</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
         <v>19</v>
       </c>
@@ -7891,23 +7856,23 @@
         <v>20</v>
       </c>
       <c r="G172" s="12">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="12" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>590</v>
+        <v>290</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>591</v>
+        <v>291</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>591</v>
+        <v>291</v>
       </c>
       <c r="E173" s="12" t="s">
         <v>19</v>
@@ -7916,23 +7881,23 @@
         <v>20</v>
       </c>
       <c r="G173" s="12">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="12" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>592</v>
+        <v>279</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>593</v>
+        <v>280</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>593</v>
+        <v>280</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>19</v>
@@ -7941,23 +7906,23 @@
         <v>20</v>
       </c>
       <c r="G174" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="12" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>594</v>
+        <v>292</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>595</v>
+        <v>293</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>595</v>
+        <v>293</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>19</v>
@@ -7966,23 +7931,23 @@
         <v>20</v>
       </c>
       <c r="G175" s="12">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="12" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>596</v>
+        <v>252</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>597</v>
+        <v>253</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>597</v>
+        <v>253</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>19</v>
@@ -7991,23 +7956,23 @@
         <v>20</v>
       </c>
       <c r="G176" s="12">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="12" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>598</v>
+        <v>101</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>599</v>
+        <v>102</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>599</v>
+        <v>102</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>19</v>
@@ -8016,23 +7981,23 @@
         <v>20</v>
       </c>
       <c r="G177" s="12">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="12" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>600</v>
+        <v>22</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>601</v>
+        <v>23</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>19</v>
@@ -8041,23 +8006,23 @@
         <v>20</v>
       </c>
       <c r="G178" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="12" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>602</v>
+        <v>223</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>19</v>
@@ -8066,23 +8031,23 @@
         <v>20</v>
       </c>
       <c r="G179" s="12">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="12" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>604</v>
+        <v>135</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>605</v>
+        <v>89</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>605</v>
+        <v>89</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>19</v>
@@ -8091,23 +8056,23 @@
         <v>20</v>
       </c>
       <c r="G180" s="12">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="12" t="s">
-        <v>348</v>
+        <v>21</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>606</v>
+        <v>98</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>607</v>
+        <v>93</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>607</v>
+        <v>93</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>19</v>
@@ -8116,24 +8081,22 @@
         <v>20</v>
       </c>
       <c r="G181" s="12">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="12" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>608</v>
+        <v>105</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="D182" s="12" t="s">
-        <v>609</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D182" s="12"/>
       <c r="E182" s="12" t="s">
         <v>19</v>
       </c>
@@ -8141,24 +8104,22 @@
         <v>20</v>
       </c>
       <c r="G182" s="12">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="12" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>610</v>
+        <v>201</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="D183" s="12" t="s">
-        <v>611</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D183" s="12"/>
       <c r="E183" s="12" t="s">
         <v>19</v>
       </c>
@@ -8166,24 +8127,22 @@
         <v>20</v>
       </c>
       <c r="G183" s="12">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="12" t="s">
-        <v>348</v>
+        <v>199</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>612</v>
+        <v>218</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="D184" s="12" t="s">
-        <v>613</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D184" s="12"/>
       <c r="E184" s="12" t="s">
         <v>19</v>
       </c>
@@ -8191,23 +8150,23 @@
         <v>20</v>
       </c>
       <c r="G184" s="12">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>615</v>
+        <v>346</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>615</v>
+        <v>347</v>
       </c>
       <c r="E185" s="12" t="s">
         <v>19</v>
@@ -8216,23 +8175,23 @@
         <v>20</v>
       </c>
       <c r="G185" s="12">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>616</v>
+        <v>668</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>19</v>
@@ -8241,23 +8200,23 @@
         <v>20</v>
       </c>
       <c r="G186" s="12">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>618</v>
+        <v>669</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>19</v>
@@ -8266,23 +8225,23 @@
         <v>20</v>
       </c>
       <c r="G187" s="12">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="12" t="s">
-        <v>348</v>
+        <v>654</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>19</v>
@@ -8291,23 +8250,23 @@
         <v>20</v>
       </c>
       <c r="G188" s="12">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>623</v>
+        <v>666</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>623</v>
+        <v>670</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -8316,23 +8275,23 @@
         <v>20</v>
       </c>
       <c r="G189" s="12">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>625</v>
+        <v>671</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
@@ -8341,23 +8300,23 @@
         <v>20</v>
       </c>
       <c r="G190" s="12">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>627</v>
+        <v>672</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>19</v>
@@ -8366,23 +8325,23 @@
         <v>20</v>
       </c>
       <c r="G191" s="12">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="12" t="s">
-        <v>348</v>
+        <v>37</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>628</v>
+        <v>275</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>629</v>
+        <v>220</v>
       </c>
       <c r="E192" s="12" t="s">
         <v>19</v>
@@ -8391,24 +8350,22 @@
         <v>20</v>
       </c>
       <c r="G192" s="12">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="12" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>630</v>
+        <v>225</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="D193" s="12" t="s">
-        <v>631</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="D193" s="12"/>
       <c r="E193" s="12" t="s">
         <v>19</v>
       </c>
@@ -8416,24 +8373,22 @@
         <v>20</v>
       </c>
       <c r="G193" s="12">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="12" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>632</v>
+        <v>17</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>633</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D194" s="12"/>
       <c r="E194" s="12" t="s">
         <v>19</v>
       </c>
@@ -8441,24 +8396,22 @@
         <v>20</v>
       </c>
       <c r="G194" s="12">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="H194" s="12"/>
       <c r="I194" s="12"/>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="12" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>634</v>
+        <v>105</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="D195" s="12" t="s">
-        <v>635</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D195" s="12"/>
       <c r="E195" s="12" t="s">
         <v>19</v>
       </c>
@@ -8466,24 +8419,22 @@
         <v>20</v>
       </c>
       <c r="G195" s="12">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="12" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>636</v>
+        <v>195</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="D196" s="12" t="s">
-        <v>637</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D196" s="12"/>
       <c r="E196" s="12" t="s">
         <v>19</v>
       </c>
@@ -8491,24 +8442,22 @@
         <v>20</v>
       </c>
       <c r="G196" s="12">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="12" t="s">
-        <v>348</v>
+        <v>16</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>638</v>
+        <v>201</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>639</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D197" s="12"/>
       <c r="E197" s="12" t="s">
         <v>19</v>
       </c>
@@ -8516,24 +8465,22 @@
         <v>20</v>
       </c>
       <c r="G197" s="12">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="12" t="s">
-        <v>348</v>
+        <v>209</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>640</v>
+        <v>210</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="D198" s="12" t="s">
-        <v>641</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="D198" s="12"/>
       <c r="E198" s="12" t="s">
         <v>19</v>
       </c>
@@ -8541,24 +8488,22 @@
         <v>20</v>
       </c>
       <c r="G198" s="12">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="12" t="s">
-        <v>348</v>
+        <v>209</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>642</v>
+        <v>213</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="D199" s="12" t="s">
-        <v>643</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D199" s="12"/>
       <c r="E199" s="12" t="s">
         <v>19</v>
       </c>
@@ -8566,23 +8511,23 @@
         <v>20</v>
       </c>
       <c r="G199" s="12">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="12" t="s">
-        <v>348</v>
+        <v>71</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>644</v>
+        <v>72</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>645</v>
+        <v>73</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>645</v>
+        <v>73</v>
       </c>
       <c r="E200" s="12" t="s">
         <v>19</v>
@@ -8591,22 +8536,24 @@
         <v>20</v>
       </c>
       <c r="G200" s="12">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="12" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D201" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="E201" s="12" t="s">
         <v>19</v>
       </c>
@@ -8621,16 +8568,16 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="12" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="E202" s="12" t="s">
         <v>19</v>
@@ -8639,23 +8586,23 @@
         <v>20</v>
       </c>
       <c r="G202" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="12" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E203" s="12" t="s">
         <v>19</v>
@@ -8664,23 +8611,23 @@
         <v>20</v>
       </c>
       <c r="G203" s="12">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H203" s="12"/>
       <c r="I203" s="12"/>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="12" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="E204" s="12" t="s">
         <v>19</v>
@@ -8689,22 +8636,24 @@
         <v>20</v>
       </c>
       <c r="G204" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="12" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D205" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E205" s="12" t="s">
         <v>19</v>
       </c>
@@ -8712,26 +8661,26 @@
         <v>20</v>
       </c>
       <c r="G205" s="12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H205" s="12"/>
       <c r="I205" s="12"/>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="12" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>20</v>
@@ -8744,15 +8693,17 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B207" s="12">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D207" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="E207" s="12" t="s">
         <v>19</v>
       </c>
@@ -8760,22 +8711,24 @@
         <v>20</v>
       </c>
       <c r="G207" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D208" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="E208" s="12" t="s">
         <v>19</v>
       </c>
@@ -8783,22 +8736,24 @@
         <v>20</v>
       </c>
       <c r="G208" s="12">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="H208" s="12"/>
       <c r="I208" s="12"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B209" s="12">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D209" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="D209" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="E209" s="12" t="s">
         <v>19</v>
       </c>
@@ -8806,22 +8761,24 @@
         <v>20</v>
       </c>
       <c r="G209" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H209" s="12"/>
       <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B210" s="12">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D210" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="E210" s="12" t="s">
         <v>19</v>
       </c>
@@ -8829,45 +8786,49 @@
         <v>20</v>
       </c>
       <c r="G210" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H210" s="12"/>
       <c r="I210" s="12"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E211" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G211" s="12">
         <v>40</v>
-      </c>
-      <c r="B211" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D211" s="12"/>
-      <c r="E211" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F211" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G211" s="12">
-        <v>70</v>
       </c>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D212" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="E212" s="12" t="s">
         <v>19</v>
       </c>
@@ -8882,15 +8843,17 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="12" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D213" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="D213" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E213" s="12" t="s">
         <v>19</v>
       </c>
@@ -8898,20 +8861,20 @@
         <v>20</v>
       </c>
       <c r="G213" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H213" s="12"/>
       <c r="I213" s="12"/>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B214" s="12" t="s">
-        <v>52</v>
+        <v>38</v>
+      </c>
+      <c r="B214" s="12">
+        <v>10</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="12" t="s">
@@ -8928,13 +8891,13 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="B215" s="12">
+        <v>30</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="12" t="s">
@@ -8944,20 +8907,20 @@
         <v>20</v>
       </c>
       <c r="G215" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H215" s="12"/>
       <c r="I215" s="12"/>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B216" s="12" t="s">
-        <v>56</v>
+        <v>38</v>
+      </c>
+      <c r="B216" s="12">
+        <v>50</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="12" t="s">
@@ -8967,24 +8930,22 @@
         <v>20</v>
       </c>
       <c r="G216" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H216" s="12"/>
       <c r="I216" s="12"/>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="12" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D217" s="12" t="s">
-        <v>59</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D217" s="12"/>
       <c r="E217" s="12" t="s">
         <v>19</v>
       </c>
@@ -8992,24 +8953,22 @@
         <v>20</v>
       </c>
       <c r="G217" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H217" s="12"/>
       <c r="I217" s="12"/>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="12" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D218" s="12" t="s">
-        <v>62</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D218" s="12"/>
       <c r="E218" s="12" t="s">
         <v>19</v>
       </c>
@@ -9017,7 +8976,7 @@
         <v>20</v>
       </c>
       <c r="G218" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>63</v>
@@ -9028,16 +8987,16 @@
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="12" t="s">
-        <v>60</v>
+        <v>370</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="E219" s="12" t="s">
         <v>19</v>
@@ -9046,7 +9005,7 @@
         <v>20</v>
       </c>
       <c r="G219" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>67</v>
@@ -9057,15 +9016,17 @@
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B220" s="12" t="s">
-        <v>69</v>
+        <v>374</v>
+      </c>
+      <c r="B220" s="12">
+        <v>1</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D220" s="12"/>
+        <v>415</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>415</v>
+      </c>
       <c r="E220" s="12" t="s">
         <v>19</v>
       </c>
@@ -9080,16 +9041,16 @@
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B221" s="12" t="s">
-        <v>72</v>
+        <v>374</v>
+      </c>
+      <c r="B221" s="12">
+        <v>2</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="E221" s="12" t="s">
         <v>19</v>
@@ -9098,7 +9059,7 @@
         <v>20</v>
       </c>
       <c r="G221" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H221" s="12">
         <v>1</v>
@@ -9107,16 +9068,16 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B222" s="12" t="s">
-        <v>74</v>
+        <v>374</v>
+      </c>
+      <c r="B222" s="12">
+        <v>3</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>75</v>
+        <v>416</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>75</v>
+        <v>416</v>
       </c>
       <c r="E222" s="12" t="s">
         <v>19</v>
@@ -9136,16 +9097,16 @@
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B223" s="12" t="s">
-        <v>77</v>
+        <v>374</v>
+      </c>
+      <c r="B223" s="12">
+        <v>4</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>23</v>
+        <v>449</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>23</v>
+        <v>449</v>
       </c>
       <c r="E223" s="12" t="s">
         <v>19</v>
@@ -9154,7 +9115,7 @@
         <v>20</v>
       </c>
       <c r="G223" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H223" s="12">
         <v>30</v>
@@ -9163,16 +9124,16 @@
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B224" s="12" t="s">
-        <v>78</v>
+        <v>374</v>
+      </c>
+      <c r="B224" s="12">
+        <v>5</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="E224" s="12" t="s">
         <v>19</v>
@@ -9181,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="G224" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H224" s="12">
         <v>4</v>
@@ -9190,25 +9151,25 @@
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B225" s="12">
+        <v>6</v>
+      </c>
+      <c r="C225" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D225" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G225" s="12">
         <v>60</v>
-      </c>
-      <c r="B225" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D225" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E225" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F225" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G225" s="12">
-        <v>40</v>
       </c>
       <c r="H225" s="12" t="s">
         <v>82</v>
@@ -9219,16 +9180,16 @@
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B226" s="12" t="s">
-        <v>83</v>
+        <v>374</v>
+      </c>
+      <c r="B226" s="12">
+        <v>7</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>84</v>
+        <v>418</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>19</v>
@@ -9237,7 +9198,7 @@
         <v>20</v>
       </c>
       <c r="G226" s="12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>85</v>
@@ -9248,16 +9209,16 @@
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>86</v>
+        <v>374</v>
+      </c>
+      <c r="B227" s="12">
+        <v>8</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>26</v>
+        <v>451</v>
       </c>
       <c r="E227" s="12" t="s">
         <v>19</v>
@@ -9266,7 +9227,7 @@
         <v>20</v>
       </c>
       <c r="G227" s="12">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>87</v>
@@ -9277,16 +9238,16 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>88</v>
+        <v>374</v>
+      </c>
+      <c r="B228" s="12">
+        <v>9</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>89</v>
+        <v>419</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>89</v>
+        <v>419</v>
       </c>
       <c r="E228" s="12" t="s">
         <v>19</v>
@@ -9295,7 +9256,7 @@
         <v>20</v>
       </c>
       <c r="G228" s="12">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H228" s="12">
         <v>12</v>
@@ -9304,16 +9265,16 @@
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>90</v>
+        <v>374</v>
+      </c>
+      <c r="B229" s="12">
+        <v>10</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>91</v>
+        <v>452</v>
       </c>
       <c r="E229" s="12" t="s">
         <v>19</v>
@@ -9322,7 +9283,7 @@
         <v>20</v>
       </c>
       <c r="G229" s="12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H229" s="12">
         <v>4</v>
@@ -9331,16 +9292,16 @@
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>92</v>
+        <v>374</v>
+      </c>
+      <c r="B230" s="12">
+        <v>11</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>93</v>
+        <v>420</v>
       </c>
       <c r="E230" s="12" t="s">
         <v>19</v>
@@ -9349,7 +9310,7 @@
         <v>20</v>
       </c>
       <c r="G230" s="12">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H230" s="12">
         <v>4</v>
@@ -9358,16 +9319,16 @@
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B231" s="12" t="s">
-        <v>19</v>
+        <v>374</v>
+      </c>
+      <c r="B231" s="12">
+        <v>12</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>94</v>
+        <v>453</v>
       </c>
       <c r="E231" s="12" t="s">
         <v>19</v>
@@ -9376,22 +9337,24 @@
         <v>20</v>
       </c>
       <c r="G231" s="12">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H231" s="12"/>
       <c r="I231" s="12"/>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="12" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>95</v>
+        <v>421</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D232" s="12"/>
+        <v>422</v>
+      </c>
+      <c r="D232" s="12" t="s">
+        <v>423</v>
+      </c>
       <c r="E232" s="12" t="s">
         <v>19</v>
       </c>
@@ -9399,22 +9362,24 @@
         <v>20</v>
       </c>
       <c r="G232" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H232" s="12"/>
       <c r="I232" s="12"/>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="12" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D233" s="12"/>
+        <v>397</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="E233" s="12" t="s">
         <v>19</v>
       </c>
@@ -9422,23 +9387,23 @@
         <v>20</v>
       </c>
       <c r="G233" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H233" s="12"/>
       <c r="I233" s="12"/>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="12" t="s">
-        <v>21</v>
+        <v>365</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>98</v>
+        <v>424</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>93</v>
+        <v>425</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>93</v>
+        <v>426</v>
       </c>
       <c r="E234" s="12" t="s">
         <v>19</v>
@@ -9447,22 +9412,24 @@
         <v>20</v>
       </c>
       <c r="G234" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H234" s="12"/>
       <c r="I234" s="12"/>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="12" t="s">
-        <v>30</v>
+        <v>365</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D235" s="12"/>
+        <v>400</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>401</v>
+      </c>
       <c r="E235" s="12" t="s">
         <v>19</v>
       </c>
@@ -9470,23 +9437,23 @@
         <v>20</v>
       </c>
       <c r="G235" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H235" s="12"/>
       <c r="I235" s="12"/>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="12" t="s">
-        <v>21</v>
+        <v>365</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>101</v>
+        <v>427</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>102</v>
+        <v>428</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>102</v>
+        <v>429</v>
       </c>
       <c r="E236" s="12" t="s">
         <v>19</v>
@@ -9495,22 +9462,24 @@
         <v>20</v>
       </c>
       <c r="G236" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H236" s="12"/>
       <c r="I236" s="12"/>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="12" t="s">
-        <v>103</v>
+        <v>365</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>69</v>
+        <v>376</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D237" s="12"/>
+        <v>377</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>378</v>
+      </c>
       <c r="E237" s="12" t="s">
         <v>19</v>
       </c>
@@ -9518,22 +9487,24 @@
         <v>20</v>
       </c>
       <c r="G237" s="12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="H237" s="12"/>
       <c r="I237" s="12"/>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="12" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>105</v>
+        <v>430</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D238" s="12"/>
+        <v>431</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>432</v>
+      </c>
       <c r="E238" s="12" t="s">
         <v>19</v>
       </c>
@@ -9541,48 +9512,48 @@
         <v>20</v>
       </c>
       <c r="G238" s="12">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H238" s="12"/>
       <c r="I238" s="12"/>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="12" t="s">
-        <v>33</v>
+        <v>365</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>107</v>
+        <v>379</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>108</v>
+        <v>380</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>109</v>
+        <v>381</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F239" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G239" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="H239" s="12"/>
       <c r="I239" s="12"/>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="12" t="s">
-        <v>110</v>
+        <v>365</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>111</v>
+        <v>433</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>111</v>
+        <v>434</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="E240" s="12" t="s">
         <v>19</v>
@@ -9591,23 +9562,23 @@
         <v>20</v>
       </c>
       <c r="G240" s="12">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="H240" s="12"/>
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="12" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>84</v>
+        <v>383</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="E241" s="12" t="s">
         <v>19</v>
@@ -9616,23 +9587,23 @@
         <v>20</v>
       </c>
       <c r="G241" s="12">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H241" s="12"/>
       <c r="I241" s="12"/>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="12" t="s">
-        <v>114</v>
+        <v>365</v>
       </c>
       <c r="B242" s="12" t="s">
-        <v>115</v>
+        <v>436</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>116</v>
+        <v>437</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>116</v>
+        <v>438</v>
       </c>
       <c r="E242" s="12" t="s">
         <v>19</v>
@@ -9641,23 +9612,23 @@
         <v>20</v>
       </c>
       <c r="G242" s="12">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="H242" s="12"/>
       <c r="I242" s="12"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="12" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>118</v>
+        <v>385</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>119</v>
+        <v>387</v>
       </c>
       <c r="E243" s="12" t="s">
         <v>19</v>
@@ -9666,23 +9637,23 @@
         <v>20</v>
       </c>
       <c r="G243" s="12">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="H243" s="12"/>
       <c r="I243" s="12"/>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="12" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>120</v>
+        <v>439</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>121</v>
+        <v>440</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>121</v>
+        <v>441</v>
       </c>
       <c r="E244" s="12" t="s">
         <v>19</v>
@@ -9691,23 +9662,23 @@
         <v>20</v>
       </c>
       <c r="G244" s="12">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="H244" s="12"/>
       <c r="I244" s="12"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="12" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>122</v>
+        <v>388</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>123</v>
+        <v>390</v>
       </c>
       <c r="E245" s="12" t="s">
         <v>19</v>
@@ -9716,23 +9687,23 @@
         <v>20</v>
       </c>
       <c r="G245" s="12">
-        <v>30</v>
+        <v>140</v>
       </c>
       <c r="H245" s="12"/>
       <c r="I245" s="12"/>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="12" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>125</v>
+        <v>442</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>126</v>
+        <v>443</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>126</v>
+        <v>444</v>
       </c>
       <c r="E246" s="12" t="s">
         <v>19</v>
@@ -9741,22 +9712,24 @@
         <v>20</v>
       </c>
       <c r="G246" s="12">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="H246" s="12"/>
       <c r="I246" s="12"/>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="12" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>127</v>
+        <v>391</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D247" s="12"/>
+        <v>392</v>
+      </c>
+      <c r="D247" s="12" t="s">
+        <v>393</v>
+      </c>
       <c r="E247" s="12" t="s">
         <v>19</v>
       </c>
@@ -9764,22 +9737,24 @@
         <v>20</v>
       </c>
       <c r="G247" s="12">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="H247" s="12"/>
       <c r="I247" s="12"/>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="12" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>129</v>
+        <v>445</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D248" s="12"/>
+        <v>446</v>
+      </c>
+      <c r="D248" s="12" t="s">
+        <v>447</v>
+      </c>
       <c r="E248" s="12" t="s">
         <v>19</v>
       </c>
@@ -9787,22 +9762,24 @@
         <v>20</v>
       </c>
       <c r="G248" s="12">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="H248" s="12"/>
       <c r="I248" s="12"/>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="12" t="s">
-        <v>124</v>
+        <v>372</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D249" s="12"/>
+        <v>406</v>
+      </c>
+      <c r="D249" s="12" t="s">
+        <v>406</v>
+      </c>
       <c r="E249" s="12" t="s">
         <v>19</v>
       </c>
@@ -9810,23 +9787,23 @@
         <v>20</v>
       </c>
       <c r="G249" s="12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H249" s="12"/>
       <c r="I249" s="12"/>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="12" t="s">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>133</v>
+        <v>407</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>134</v>
+        <v>408</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>134</v>
+        <v>408</v>
       </c>
       <c r="E250" s="12" t="s">
         <v>19</v>
@@ -9842,16 +9819,16 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="12" t="s">
-        <v>21</v>
+        <v>372</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>89</v>
+        <v>410</v>
       </c>
       <c r="E251" s="12" t="s">
         <v>19</v>
@@ -9860,23 +9837,23 @@
         <v>20</v>
       </c>
       <c r="G251" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H251" s="12"/>
       <c r="I251" s="12"/>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="12" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>111</v>
+        <v>412</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>136</v>
+        <v>412</v>
       </c>
       <c r="E252" s="12" t="s">
         <v>19</v>
@@ -9885,23 +9862,23 @@
         <v>20</v>
       </c>
       <c r="G252" s="12">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H252" s="12"/>
       <c r="I252" s="12"/>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="12" t="s">
-        <v>37</v>
+        <v>372</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>663</v>
+        <v>413</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>666</v>
+        <v>414</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>670</v>
+        <v>414</v>
       </c>
       <c r="E253" s="12" t="s">
         <v>19</v>
@@ -9917,16 +9894,16 @@
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="12" t="s">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>137</v>
+        <v>288</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
       <c r="E254" s="12" t="s">
         <v>19</v>
@@ -9941,62 +9918,68 @@
       <c r="I254" s="12"/>
     </row>
     <row r="255" spans="1:9">
-      <c r="A255" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D255" s="12"/>
+      <c r="A255" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="C255" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D255" s="17" t="s">
+        <v>649</v>
+      </c>
       <c r="E255" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F255" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G255" s="12">
+      <c r="G255" s="17">
         <v>10</v>
       </c>
       <c r="H255" s="12"/>
       <c r="I255" s="12"/>
     </row>
     <row r="256" spans="1:9">
-      <c r="A256" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B256" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C256" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D256" s="12"/>
+      <c r="A256" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C256" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="D256" s="17" t="s">
+        <v>651</v>
+      </c>
       <c r="E256" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F256" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G256" s="12">
+      <c r="G256" s="17">
         <v>20</v>
       </c>
       <c r="H256" s="12"/>
       <c r="I256" s="12"/>
     </row>
     <row r="257" spans="1:9">
-      <c r="A257" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B257" s="12" t="s">
-        <v>145</v>
+      <c r="A257" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>652</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D257" s="12"/>
+        <v>653</v>
+      </c>
+      <c r="D257" s="12" t="s">
+        <v>653</v>
+      </c>
       <c r="E257" s="12" t="s">
         <v>19</v>
       </c>
@@ -10004,23 +9987,23 @@
         <v>20</v>
       </c>
       <c r="G257" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H257" s="12"/>
       <c r="I257" s="12"/>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B258" s="12">
-        <v>1</v>
-      </c>
-      <c r="C258" s="12">
-        <v>1</v>
+        <v>254</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="D258" s="12" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="E258" s="12" t="s">
         <v>19</v>
@@ -10029,22 +10012,24 @@
         <v>20</v>
       </c>
       <c r="G258" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H258" s="12"/>
       <c r="I258" s="12"/>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="12" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>150</v>
+        <v>257</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D259" s="12"/>
+        <v>258</v>
+      </c>
+      <c r="D259" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="E259" s="12" t="s">
         <v>19</v>
       </c>
@@ -10052,22 +10037,24 @@
         <v>20</v>
       </c>
       <c r="G259" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H259" s="12"/>
       <c r="I259" s="12"/>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="12" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>152</v>
+        <v>259</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D260" s="12"/>
+        <v>260</v>
+      </c>
+      <c r="D260" s="12" t="s">
+        <v>260</v>
+      </c>
       <c r="E260" s="12" t="s">
         <v>19</v>
       </c>
@@ -10075,22 +10062,24 @@
         <v>20</v>
       </c>
       <c r="G260" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H260" s="12"/>
       <c r="I260" s="12"/>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="12" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D261" s="12"/>
+        <v>262</v>
+      </c>
+      <c r="D261" s="12" t="s">
+        <v>262</v>
+      </c>
       <c r="E261" s="12" t="s">
         <v>19</v>
       </c>
@@ -10098,22 +10087,24 @@
         <v>20</v>
       </c>
       <c r="G261" s="12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H261" s="12"/>
       <c r="I261" s="12"/>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="12" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D262" s="12"/>
+        <v>264</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>264</v>
+      </c>
       <c r="E262" s="12" t="s">
         <v>19</v>
       </c>
@@ -10121,22 +10112,24 @@
         <v>20</v>
       </c>
       <c r="G262" s="12">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="H262" s="12"/>
       <c r="I262" s="12"/>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="12" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="B263" s="12" t="s">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D263" s="12"/>
+        <v>266</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="E263" s="12" t="s">
         <v>19</v>
       </c>
@@ -10144,22 +10137,24 @@
         <v>20</v>
       </c>
       <c r="G263" s="12">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H263" s="12"/>
       <c r="I263" s="12"/>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C264" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D264" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="B264" s="12">
+        <v>0</v>
+      </c>
+      <c r="C264" s="12">
+        <v>0</v>
+      </c>
+      <c r="D264" s="12" t="s">
+        <v>236</v>
+      </c>
       <c r="E264" s="12" t="s">
         <v>19</v>
       </c>
@@ -10174,15 +10169,17 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C265" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D265" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="B265" s="12">
+        <v>1</v>
+      </c>
+      <c r="C265" s="12">
+        <v>1</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="E265" s="12" t="s">
         <v>19</v>
       </c>
@@ -10197,15 +10194,17 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B266" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C266" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D266" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="B266" s="12">
+        <v>2</v>
+      </c>
+      <c r="C266" s="12">
+        <v>2</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>169</v>
+      </c>
       <c r="E266" s="12" t="s">
         <v>19</v>
       </c>
@@ -10220,15 +10219,17 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B267" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D267" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="B267" s="12">
+        <v>3</v>
+      </c>
+      <c r="C267" s="12">
+        <v>3</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>170</v>
+      </c>
       <c r="E267" s="12" t="s">
         <v>19</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>20</v>
       </c>
       <c r="G267" s="12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H267" s="12"/>
       <c r="I267" s="12"/>
@@ -10246,13 +10247,13 @@
         <v>147</v>
       </c>
       <c r="B268" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C268" s="12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E268" s="12" t="s">
         <v>19</v>
@@ -10261,7 +10262,7 @@
         <v>20</v>
       </c>
       <c r="G268" s="12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H268" s="12"/>
       <c r="I268" s="12"/>
@@ -10271,13 +10272,13 @@
         <v>147</v>
       </c>
       <c r="B269" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C269" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E269" s="12" t="s">
         <v>19</v>
@@ -10286,7 +10287,7 @@
         <v>20</v>
       </c>
       <c r="G269" s="12">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H269" s="12"/>
       <c r="I269" s="12"/>
@@ -10296,13 +10297,13 @@
         <v>147</v>
       </c>
       <c r="B270" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C270" s="12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E270" s="12" t="s">
         <v>19</v>
@@ -10311,7 +10312,7 @@
         <v>20</v>
       </c>
       <c r="G270" s="12">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H270" s="12"/>
       <c r="I270" s="12"/>
@@ -10321,13 +10322,13 @@
         <v>147</v>
       </c>
       <c r="B271" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C271" s="12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D271" s="12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E271" s="12" t="s">
         <v>19</v>
@@ -10336,7 +10337,7 @@
         <v>20</v>
       </c>
       <c r="G271" s="12">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H271" s="12"/>
       <c r="I271" s="12"/>
@@ -10346,13 +10347,13 @@
         <v>147</v>
       </c>
       <c r="B272" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C272" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E272" s="12" t="s">
         <v>19</v>
@@ -10361,7 +10362,7 @@
         <v>20</v>
       </c>
       <c r="G272" s="12">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H272" s="12"/>
       <c r="I272" s="12"/>
@@ -10371,13 +10372,13 @@
         <v>147</v>
       </c>
       <c r="B273" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C273" s="12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E273" s="12" t="s">
         <v>19</v>
@@ -10386,7 +10387,7 @@
         <v>20</v>
       </c>
       <c r="G273" s="12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H273" s="12"/>
       <c r="I273" s="12"/>
@@ -10396,13 +10397,13 @@
         <v>147</v>
       </c>
       <c r="B274" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C274" s="12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D274" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E274" s="12" t="s">
         <v>19</v>
@@ -10411,7 +10412,7 @@
         <v>20</v>
       </c>
       <c r="G274" s="12">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H274" s="12"/>
       <c r="I274" s="12"/>
@@ -10421,13 +10422,13 @@
         <v>147</v>
       </c>
       <c r="B275" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C275" s="12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E275" s="12" t="s">
         <v>19</v>
@@ -10436,7 +10437,7 @@
         <v>20</v>
       </c>
       <c r="G275" s="12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H275" s="12"/>
       <c r="I275" s="12"/>
@@ -10446,13 +10447,13 @@
         <v>147</v>
       </c>
       <c r="B276" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C276" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D276" s="12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E276" s="12" t="s">
         <v>19</v>
@@ -10461,7 +10462,7 @@
         <v>20</v>
       </c>
       <c r="G276" s="12">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H276" s="12"/>
       <c r="I276" s="12"/>
@@ -10471,13 +10472,13 @@
         <v>147</v>
       </c>
       <c r="B277" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C277" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E277" s="12" t="s">
         <v>19</v>
@@ -10486,7 +10487,7 @@
         <v>20</v>
       </c>
       <c r="G277" s="12">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H277" s="12"/>
       <c r="I277" s="12"/>
@@ -10496,13 +10497,13 @@
         <v>147</v>
       </c>
       <c r="B278" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C278" s="12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E278" s="12" t="s">
         <v>19</v>
@@ -10511,7 +10512,7 @@
         <v>20</v>
       </c>
       <c r="G278" s="12">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="H278" s="12"/>
       <c r="I278" s="12"/>
@@ -10521,13 +10522,13 @@
         <v>147</v>
       </c>
       <c r="B279" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C279" s="12">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E279" s="12" t="s">
         <v>19</v>
@@ -10536,7 +10537,7 @@
         <v>20</v>
       </c>
       <c r="G279" s="12">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H279" s="12"/>
       <c r="I279" s="12"/>
@@ -10546,13 +10547,13 @@
         <v>147</v>
       </c>
       <c r="B280" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C280" s="12">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E280" s="12" t="s">
         <v>19</v>
@@ -10561,7 +10562,7 @@
         <v>20</v>
       </c>
       <c r="G280" s="12">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="H280" s="12"/>
       <c r="I280" s="12"/>
@@ -10571,13 +10572,13 @@
         <v>147</v>
       </c>
       <c r="B281" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C281" s="12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E281" s="12" t="s">
         <v>19</v>
@@ -10586,7 +10587,7 @@
         <v>20</v>
       </c>
       <c r="G281" s="12">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="H281" s="12"/>
       <c r="I281" s="12"/>
@@ -10596,13 +10597,13 @@
         <v>147</v>
       </c>
       <c r="B282" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C282" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E282" s="12" t="s">
         <v>19</v>
@@ -10611,7 +10612,7 @@
         <v>20</v>
       </c>
       <c r="G282" s="12">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="H282" s="12"/>
       <c r="I282" s="12"/>
@@ -10621,13 +10622,13 @@
         <v>147</v>
       </c>
       <c r="B283" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C283" s="12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D283" s="12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E283" s="12" t="s">
         <v>19</v>
@@ -10636,7 +10637,7 @@
         <v>20</v>
       </c>
       <c r="G283" s="12">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H283" s="12"/>
       <c r="I283" s="12"/>
@@ -10646,13 +10647,13 @@
         <v>147</v>
       </c>
       <c r="B284" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C284" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E284" s="12" t="s">
         <v>19</v>
@@ -10661,7 +10662,7 @@
         <v>20</v>
       </c>
       <c r="G284" s="12">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="H284" s="12"/>
       <c r="I284" s="12"/>
@@ -10671,13 +10672,13 @@
         <v>147</v>
       </c>
       <c r="B285" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C285" s="12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E285" s="12" t="s">
         <v>19</v>
@@ -10686,7 +10687,7 @@
         <v>20</v>
       </c>
       <c r="G285" s="12">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H285" s="12"/>
       <c r="I285" s="12"/>
@@ -10696,13 +10697,13 @@
         <v>147</v>
       </c>
       <c r="B286" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C286" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D286" s="12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E286" s="12" t="s">
         <v>19</v>
@@ -10711,7 +10712,7 @@
         <v>20</v>
       </c>
       <c r="G286" s="12">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H286" s="12"/>
       <c r="I286" s="12"/>
@@ -10721,13 +10722,13 @@
         <v>147</v>
       </c>
       <c r="B287" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C287" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E287" s="12" t="s">
         <v>19</v>
@@ -10736,23 +10737,23 @@
         <v>20</v>
       </c>
       <c r="G287" s="12">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="H287" s="12"/>
       <c r="I287" s="12"/>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="12" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B288" s="12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C288" s="12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E288" s="12" t="s">
         <v>19</v>
@@ -10761,23 +10762,23 @@
         <v>20</v>
       </c>
       <c r="G288" s="12">
-        <v>230</v>
+        <v>10</v>
       </c>
       <c r="H288" s="12"/>
       <c r="I288" s="12"/>
     </row>
     <row r="289" spans="1:9">
       <c r="A289" s="12" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="B289" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C289" s="12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E289" s="12" t="s">
         <v>19</v>
@@ -10786,24 +10787,22 @@
         <v>20</v>
       </c>
       <c r="G289" s="12">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="H289" s="12"/>
       <c r="I289" s="12"/>
     </row>
     <row r="290" spans="1:9">
       <c r="A290" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B290" s="12">
-        <v>0</v>
-      </c>
-      <c r="C290" s="12">
-        <v>0</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>192</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D290" s="12"/>
       <c r="E290" s="12" t="s">
         <v>19</v>
       </c>
@@ -10818,17 +10817,15 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B291" s="12">
-        <v>30</v>
-      </c>
-      <c r="C291" s="12">
-        <v>30</v>
-      </c>
-      <c r="D291" s="12" t="s">
-        <v>193</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D291" s="12"/>
       <c r="E291" s="12" t="s">
         <v>19</v>
       </c>
@@ -10843,17 +10840,15 @@
     </row>
     <row r="292" spans="1:9">
       <c r="A292" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B292" s="12">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D292" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D292" s="12"/>
       <c r="E292" s="12" t="s">
         <v>19</v>
       </c>
@@ -10868,13 +10863,13 @@
     </row>
     <row r="293" spans="1:9">
       <c r="A293" s="12" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="D293" s="12"/>
       <c r="E293" s="12" t="s">
@@ -10884,20 +10879,20 @@
         <v>20</v>
       </c>
       <c r="G293" s="12">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H293" s="12"/>
       <c r="I293" s="12"/>
     </row>
     <row r="294" spans="1:9">
       <c r="A294" s="12" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="D294" s="12"/>
       <c r="E294" s="12" t="s">
@@ -10907,48 +10902,46 @@
         <v>20</v>
       </c>
       <c r="G294" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H294" s="12"/>
       <c r="I294" s="12"/>
     </row>
     <row r="295" spans="1:9">
-      <c r="A295" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="B295" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="C295" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="D295" s="17" t="s">
-        <v>649</v>
-      </c>
+      <c r="A295" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D295" s="12"/>
       <c r="E295" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F295" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G295" s="17">
-        <v>10</v>
+      <c r="G295" s="12">
+        <v>30</v>
       </c>
       <c r="H295" s="12"/>
       <c r="I295" s="12"/>
     </row>
     <row r="296" spans="1:9">
-      <c r="A296" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="B296" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="C296" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="D296" s="17" t="s">
-        <v>651</v>
+      <c r="A296" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="E296" s="12" t="s">
         <v>19</v>
@@ -10956,24 +10949,24 @@
       <c r="F296" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G296" s="17">
-        <v>20</v>
+      <c r="G296" s="12">
+        <v>10</v>
       </c>
       <c r="H296" s="12"/>
       <c r="I296" s="12"/>
     </row>
     <row r="297" spans="1:9">
-      <c r="A297" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="B297" s="17" t="s">
-        <v>652</v>
+      <c r="A297" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>653</v>
+        <v>66</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>653</v>
+        <v>66</v>
       </c>
       <c r="E297" s="12" t="s">
         <v>19</v>
@@ -10982,23 +10975,23 @@
         <v>20</v>
       </c>
       <c r="G297" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H297" s="12"/>
       <c r="I297" s="12"/>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="C298" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="D298" s="20" t="s">
-        <v>660</v>
+        <v>25</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E298" s="12" t="s">
         <v>19</v>
@@ -11006,22 +10999,22 @@
       <c r="F298" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G298" s="20">
-        <v>20</v>
+      <c r="G298" s="12">
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="1:9">
       <c r="A299" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="C299" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="D299" s="20" t="s">
-        <v>661</v>
+        <v>80</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D299" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="E299" s="12" t="s">
         <v>19</v>
@@ -11029,22 +11022,22 @@
       <c r="F299" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G299" s="20">
-        <v>30</v>
+      <c r="G299" s="12">
+        <v>40</v>
       </c>
     </row>
     <row r="300" spans="1:9">
       <c r="A300" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="C300" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="D300" s="20" t="s">
-        <v>672</v>
+        <v>224</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D300" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="E300" s="12" t="s">
         <v>19</v>
@@ -11052,22 +11045,22 @@
       <c r="F300" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G300" s="20">
-        <v>70</v>
+      <c r="G300" s="12">
+        <v>50</v>
       </c>
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>664</v>
+        <v>113</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>665</v>
+        <v>84</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>671</v>
+        <v>84</v>
       </c>
       <c r="E301" s="12" t="s">
         <v>19</v>
@@ -11075,14 +11068,9 @@
       <c r="F301" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G301" s="20">
+      <c r="G301" s="12">
         <v>60</v>
       </c>
-    </row>
-    <row r="302" spans="1:9">
-      <c r="A302" s="12"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/document/excel_upload_자료/TBL_EXP_CODE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_CODE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0340B3-D1B2-44DE-90A7-88FE1DDF3BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29631A7-3D82-471A-85DD-432A07F620EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -17,19 +17,30 @@
     <sheet name="CODE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CODE!$A$5:$K$301</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CODE!$A$5:$I$301</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="671">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2037,14 +2048,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>담당자 지정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요 자료 구비 및 담당자 지정 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>담당자 지정 결재 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2057,14 +2060,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONTRACTED_RST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체결 완료 실적 중</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>체결 완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2073,10 +2068,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASIGN_CONSULTANT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ON_CONTRACTING_APPR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2085,11 +2076,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체결 완료( 실적 진행 )</t>
+    <t>실행 완료 결재 중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>실행 완료 결재 중</t>
+    <t>ON_CONTRACTED_APPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체결 완료 결재 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUGGESTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3620,10 +3623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706EC46-4FD3-47B1-964A-6FD042DA6B08}">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3637,7 +3640,7 @@
     <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="34.5" customHeight="1">
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1">
       <c r="A1" s="18" t="s">
         <v>294</v>
       </c>
@@ -3649,10 +3652,8 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="24">
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="24">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>344</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:9">
       <c r="A6" s="12" t="s">
         <v>117</v>
       </c>
@@ -3769,7 +3770,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
         <v>117</v>
       </c>
@@ -3794,7 +3795,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:9">
       <c r="A8" s="12" t="s">
         <v>117</v>
       </c>
@@ -3819,7 +3820,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:9">
       <c r="A9" s="12" t="s">
         <v>117</v>
       </c>
@@ -3844,7 +3845,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:9">
       <c r="A10" s="12" t="s">
         <v>114</v>
       </c>
@@ -3869,7 +3870,7 @@
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:9">
       <c r="A11" s="12" t="s">
         <v>114</v>
       </c>
@@ -3894,7 +3895,7 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:9">
       <c r="A12" s="12" t="s">
         <v>114</v>
       </c>
@@ -3919,7 +3920,7 @@
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:9">
       <c r="A13" s="12" t="s">
         <v>114</v>
       </c>
@@ -3944,7 +3945,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:9">
       <c r="A14" s="12" t="s">
         <v>114</v>
       </c>
@@ -3969,7 +3970,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:9">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -3992,7 +3993,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:9">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -4778,24 +4779,22 @@
         <v>20</v>
       </c>
       <c r="G48" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" ht="20.25" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>348</v>
+        <v>215</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>349</v>
+        <v>669</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>350</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
         <v>19</v>
       </c>
@@ -4803,7 +4802,7 @@
         <v>20</v>
       </c>
       <c r="G49" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
@@ -4813,13 +4812,13 @@
         <v>348</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>19</v>
@@ -4828,23 +4827,23 @@
         <v>20</v>
       </c>
       <c r="G50" s="12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" ht="20.25" customHeight="1">
       <c r="A51" s="12" t="s">
         <v>348</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>19</v>
@@ -4853,7 +4852,7 @@
         <v>20</v>
       </c>
       <c r="G51" s="12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
@@ -4863,13 +4862,13 @@
         <v>348</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>19</v>
@@ -4878,7 +4877,7 @@
         <v>20</v>
       </c>
       <c r="G52" s="12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
@@ -4888,13 +4887,13 @@
         <v>348</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>19</v>
@@ -4903,7 +4902,7 @@
         <v>20</v>
       </c>
       <c r="G53" s="12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
@@ -4913,13 +4912,13 @@
         <v>348</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>19</v>
@@ -4928,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="G54" s="12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
@@ -4938,13 +4937,13 @@
         <v>348</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>19</v>
@@ -4953,7 +4952,7 @@
         <v>20</v>
       </c>
       <c r="G55" s="12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
@@ -4963,13 +4962,13 @@
         <v>348</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>454</v>
+        <v>361</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>455</v>
+        <v>362</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>455</v>
+        <v>362</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>19</v>
@@ -4978,7 +4977,7 @@
         <v>20</v>
       </c>
       <c r="G56" s="12">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
@@ -4988,13 +4987,13 @@
         <v>348</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>19</v>
@@ -5003,7 +5002,7 @@
         <v>20</v>
       </c>
       <c r="G57" s="12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
@@ -5013,13 +5012,13 @@
         <v>348</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>19</v>
@@ -5028,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="G58" s="12">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
@@ -5038,13 +5037,13 @@
         <v>348</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>19</v>
@@ -5053,7 +5052,7 @@
         <v>20</v>
       </c>
       <c r="G59" s="12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
@@ -5063,13 +5062,13 @@
         <v>348</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>19</v>
@@ -5078,7 +5077,7 @@
         <v>20</v>
       </c>
       <c r="G60" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="12"/>
@@ -5088,13 +5087,13 @@
         <v>348</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>19</v>
@@ -5103,7 +5102,7 @@
         <v>20</v>
       </c>
       <c r="G61" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
@@ -5113,13 +5112,13 @@
         <v>348</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>19</v>
@@ -5128,7 +5127,7 @@
         <v>20</v>
       </c>
       <c r="G62" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
@@ -5138,13 +5137,13 @@
         <v>348</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>19</v>
@@ -5153,7 +5152,7 @@
         <v>20</v>
       </c>
       <c r="G63" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -5163,13 +5162,13 @@
         <v>348</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>19</v>
@@ -5178,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="G64" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -5188,13 +5187,13 @@
         <v>348</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>19</v>
@@ -5203,7 +5202,7 @@
         <v>20</v>
       </c>
       <c r="G65" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -5213,13 +5212,13 @@
         <v>348</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>19</v>
@@ -5228,7 +5227,7 @@
         <v>20</v>
       </c>
       <c r="G66" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -5238,13 +5237,13 @@
         <v>348</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>19</v>
@@ -5253,7 +5252,7 @@
         <v>20</v>
       </c>
       <c r="G67" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -5263,13 +5262,13 @@
         <v>348</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>19</v>
@@ -5278,7 +5277,7 @@
         <v>20</v>
       </c>
       <c r="G68" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H68" s="12"/>
       <c r="I68" s="12"/>
@@ -5288,13 +5287,13 @@
         <v>348</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E69" s="12" t="s">
         <v>19</v>
@@ -5303,7 +5302,7 @@
         <v>20</v>
       </c>
       <c r="G69" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
@@ -5313,13 +5312,13 @@
         <v>348</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>19</v>
@@ -5328,7 +5327,7 @@
         <v>20</v>
       </c>
       <c r="G70" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
@@ -5338,13 +5337,13 @@
         <v>348</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E71" s="12" t="s">
         <v>19</v>
@@ -5353,7 +5352,7 @@
         <v>20</v>
       </c>
       <c r="G71" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
@@ -5363,13 +5362,13 @@
         <v>348</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>19</v>
@@ -5378,7 +5377,7 @@
         <v>20</v>
       </c>
       <c r="G72" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="12"/>
@@ -5388,13 +5387,13 @@
         <v>348</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>19</v>
@@ -5403,7 +5402,7 @@
         <v>20</v>
       </c>
       <c r="G73" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -5413,13 +5412,13 @@
         <v>348</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>19</v>
@@ -5428,7 +5427,7 @@
         <v>20</v>
       </c>
       <c r="G74" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
@@ -5438,13 +5437,13 @@
         <v>348</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>19</v>
@@ -5453,7 +5452,7 @@
         <v>20</v>
       </c>
       <c r="G75" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
@@ -5463,13 +5462,13 @@
         <v>348</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>19</v>
@@ -5478,7 +5477,7 @@
         <v>20</v>
       </c>
       <c r="G76" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" s="12"/>
       <c r="I76" s="12"/>
@@ -5488,13 +5487,13 @@
         <v>348</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>19</v>
@@ -5503,7 +5502,7 @@
         <v>20</v>
       </c>
       <c r="G77" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
@@ -5513,13 +5512,13 @@
         <v>348</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>19</v>
@@ -5528,7 +5527,7 @@
         <v>20</v>
       </c>
       <c r="G78" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
@@ -5538,13 +5537,13 @@
         <v>348</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>19</v>
@@ -5553,7 +5552,7 @@
         <v>20</v>
       </c>
       <c r="G79" s="12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H79" s="12"/>
       <c r="I79" s="12"/>
@@ -5563,13 +5562,13 @@
         <v>348</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E80" s="12" t="s">
         <v>19</v>
@@ -5578,7 +5577,7 @@
         <v>20</v>
       </c>
       <c r="G80" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H80" s="12"/>
       <c r="I80" s="12"/>
@@ -5588,13 +5587,13 @@
         <v>348</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E81" s="12" t="s">
         <v>19</v>
@@ -5603,7 +5602,7 @@
         <v>20</v>
       </c>
       <c r="G81" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H81" s="12"/>
       <c r="I81" s="12"/>
@@ -5613,13 +5612,13 @@
         <v>348</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>19</v>
@@ -5628,7 +5627,7 @@
         <v>20</v>
       </c>
       <c r="G82" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="12"/>
@@ -5638,13 +5637,13 @@
         <v>348</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>19</v>
@@ -5653,7 +5652,7 @@
         <v>20</v>
       </c>
       <c r="G83" s="12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H83" s="12"/>
       <c r="I83" s="12"/>
@@ -5663,13 +5662,13 @@
         <v>348</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>19</v>
@@ -5678,7 +5677,7 @@
         <v>20</v>
       </c>
       <c r="G84" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H84" s="12"/>
       <c r="I84" s="12"/>
@@ -5688,13 +5687,13 @@
         <v>348</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>19</v>
@@ -5703,7 +5702,7 @@
         <v>20</v>
       </c>
       <c r="G85" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
@@ -5713,13 +5712,13 @@
         <v>348</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E86" s="12" t="s">
         <v>19</v>
@@ -5728,7 +5727,7 @@
         <v>20</v>
       </c>
       <c r="G86" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H86" s="12"/>
       <c r="I86" s="12"/>
@@ -5738,13 +5737,13 @@
         <v>348</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E87" s="12" t="s">
         <v>19</v>
@@ -5753,7 +5752,7 @@
         <v>20</v>
       </c>
       <c r="G87" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H87" s="12"/>
       <c r="I87" s="12"/>
@@ -5763,13 +5762,13 @@
         <v>348</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E88" s="12" t="s">
         <v>19</v>
@@ -5778,7 +5777,7 @@
         <v>20</v>
       </c>
       <c r="G88" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
@@ -5788,13 +5787,13 @@
         <v>348</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>19</v>
@@ -5803,7 +5802,7 @@
         <v>20</v>
       </c>
       <c r="G89" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H89" s="12"/>
       <c r="I89" s="12"/>
@@ -5813,13 +5812,13 @@
         <v>348</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>19</v>
@@ -5828,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="G90" s="12">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H90" s="12"/>
       <c r="I90" s="12"/>
@@ -5838,13 +5837,13 @@
         <v>348</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E91" s="12" t="s">
         <v>19</v>
@@ -5853,7 +5852,7 @@
         <v>20</v>
       </c>
       <c r="G91" s="12">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H91" s="12"/>
       <c r="I91" s="12"/>
@@ -5863,13 +5862,13 @@
         <v>348</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>19</v>
@@ -5878,7 +5877,7 @@
         <v>20</v>
       </c>
       <c r="G92" s="12">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="12"/>
@@ -5888,13 +5887,13 @@
         <v>348</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>19</v>
@@ -5903,7 +5902,7 @@
         <v>20</v>
       </c>
       <c r="G93" s="12">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H93" s="12"/>
       <c r="I93" s="12"/>
@@ -5913,13 +5912,13 @@
         <v>348</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>19</v>
@@ -5928,7 +5927,7 @@
         <v>20</v>
       </c>
       <c r="G94" s="12">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H94" s="12"/>
       <c r="I94" s="12"/>
@@ -5938,13 +5937,13 @@
         <v>348</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>19</v>
@@ -5953,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="G95" s="12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
@@ -5963,13 +5962,13 @@
         <v>348</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>19</v>
@@ -5978,7 +5977,7 @@
         <v>20</v>
       </c>
       <c r="G96" s="12">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H96" s="12"/>
       <c r="I96" s="12"/>
@@ -5988,13 +5987,13 @@
         <v>348</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>19</v>
@@ -6003,7 +6002,7 @@
         <v>20</v>
       </c>
       <c r="G97" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="12"/>
@@ -6013,13 +6012,13 @@
         <v>348</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>19</v>
@@ -6028,7 +6027,7 @@
         <v>20</v>
       </c>
       <c r="G98" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H98" s="12"/>
       <c r="I98" s="12"/>
@@ -6038,13 +6037,13 @@
         <v>348</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>19</v>
@@ -6053,7 +6052,7 @@
         <v>20</v>
       </c>
       <c r="G99" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H99" s="12"/>
       <c r="I99" s="12"/>
@@ -6063,13 +6062,13 @@
         <v>348</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>19</v>
@@ -6078,7 +6077,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="12"/>
@@ -6088,13 +6087,13 @@
         <v>348</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>19</v>
@@ -6103,7 +6102,7 @@
         <v>20</v>
       </c>
       <c r="G101" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H101" s="12"/>
       <c r="I101" s="12"/>
@@ -6113,13 +6112,13 @@
         <v>348</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>19</v>
@@ -6128,7 +6127,7 @@
         <v>20</v>
       </c>
       <c r="G102" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -6138,13 +6137,13 @@
         <v>348</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>19</v>
@@ -6153,7 +6152,7 @@
         <v>20</v>
       </c>
       <c r="G103" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -6163,13 +6162,13 @@
         <v>348</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>19</v>
@@ -6178,7 +6177,7 @@
         <v>20</v>
       </c>
       <c r="G104" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -6188,13 +6187,13 @@
         <v>348</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>19</v>
@@ -6203,7 +6202,7 @@
         <v>20</v>
       </c>
       <c r="G105" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H105" s="12"/>
       <c r="I105" s="12"/>
@@ -6213,13 +6212,13 @@
         <v>348</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>19</v>
@@ -6228,7 +6227,7 @@
         <v>20</v>
       </c>
       <c r="G106" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H106" s="12"/>
       <c r="I106" s="12"/>
@@ -6238,13 +6237,13 @@
         <v>348</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E107" s="12" t="s">
         <v>19</v>
@@ -6253,7 +6252,7 @@
         <v>20</v>
       </c>
       <c r="G107" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -6263,13 +6262,13 @@
         <v>348</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>19</v>
@@ -6278,7 +6277,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H108" s="12"/>
       <c r="I108" s="12"/>
@@ -6288,13 +6287,13 @@
         <v>348</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>19</v>
@@ -6303,7 +6302,7 @@
         <v>20</v>
       </c>
       <c r="G109" s="12">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H109" s="12"/>
       <c r="I109" s="12"/>
@@ -6313,13 +6312,13 @@
         <v>348</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E110" s="12" t="s">
         <v>19</v>
@@ -6328,7 +6327,7 @@
         <v>20</v>
       </c>
       <c r="G110" s="12">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H110" s="12"/>
       <c r="I110" s="12"/>
@@ -6338,13 +6337,13 @@
         <v>348</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>19</v>
@@ -6353,7 +6352,7 @@
         <v>20</v>
       </c>
       <c r="G111" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H111" s="12"/>
       <c r="I111" s="12"/>
@@ -6363,13 +6362,13 @@
         <v>348</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E112" s="12" t="s">
         <v>19</v>
@@ -6378,7 +6377,7 @@
         <v>20</v>
       </c>
       <c r="G112" s="12">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H112" s="12"/>
       <c r="I112" s="12"/>
@@ -6388,13 +6387,13 @@
         <v>348</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E113" s="12" t="s">
         <v>19</v>
@@ -6403,7 +6402,7 @@
         <v>20</v>
       </c>
       <c r="G113" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H113" s="12"/>
       <c r="I113" s="12"/>
@@ -6413,13 +6412,13 @@
         <v>348</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>19</v>
@@ -6428,7 +6427,7 @@
         <v>20</v>
       </c>
       <c r="G114" s="12">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H114" s="12"/>
       <c r="I114" s="12"/>
@@ -6438,13 +6437,13 @@
         <v>348</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E115" s="12" t="s">
         <v>19</v>
@@ -6453,7 +6452,7 @@
         <v>20</v>
       </c>
       <c r="G115" s="12">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H115" s="12"/>
       <c r="I115" s="12"/>
@@ -6463,13 +6462,13 @@
         <v>348</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>19</v>
@@ -6478,7 +6477,7 @@
         <v>20</v>
       </c>
       <c r="G116" s="12">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H116" s="12"/>
       <c r="I116" s="12"/>
@@ -6488,13 +6487,13 @@
         <v>348</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>19</v>
@@ -6503,7 +6502,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
@@ -6513,13 +6512,13 @@
         <v>348</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>19</v>
@@ -6528,7 +6527,7 @@
         <v>20</v>
       </c>
       <c r="G118" s="12">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H118" s="12"/>
       <c r="I118" s="12"/>
@@ -6538,13 +6537,13 @@
         <v>348</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>19</v>
@@ -6553,7 +6552,7 @@
         <v>20</v>
       </c>
       <c r="G119" s="12">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H119" s="12"/>
       <c r="I119" s="12"/>
@@ -6563,13 +6562,13 @@
         <v>348</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E120" s="12" t="s">
         <v>19</v>
@@ -6578,7 +6577,7 @@
         <v>20</v>
       </c>
       <c r="G120" s="12">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H120" s="12"/>
       <c r="I120" s="12"/>
@@ -6588,13 +6587,13 @@
         <v>348</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E121" s="12" t="s">
         <v>19</v>
@@ -6603,7 +6602,7 @@
         <v>20</v>
       </c>
       <c r="G121" s="12">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
@@ -6613,13 +6612,13 @@
         <v>348</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E122" s="12" t="s">
         <v>19</v>
@@ -6628,7 +6627,7 @@
         <v>20</v>
       </c>
       <c r="G122" s="12">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H122" s="12"/>
       <c r="I122" s="12"/>
@@ -6638,13 +6637,13 @@
         <v>348</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E123" s="12" t="s">
         <v>19</v>
@@ -6653,7 +6652,7 @@
         <v>20</v>
       </c>
       <c r="G123" s="12">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H123" s="12"/>
       <c r="I123" s="12"/>
@@ -6663,13 +6662,13 @@
         <v>348</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E124" s="12" t="s">
         <v>19</v>
@@ -6678,7 +6677,7 @@
         <v>20</v>
       </c>
       <c r="G124" s="12">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H124" s="12"/>
       <c r="I124" s="12"/>
@@ -6688,13 +6687,13 @@
         <v>348</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>19</v>
@@ -6703,7 +6702,7 @@
         <v>20</v>
       </c>
       <c r="G125" s="12">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H125" s="12"/>
       <c r="I125" s="12"/>
@@ -6713,13 +6712,13 @@
         <v>348</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="E126" s="12" t="s">
         <v>19</v>
@@ -6728,7 +6727,7 @@
         <v>20</v>
       </c>
       <c r="G126" s="12">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H126" s="12"/>
       <c r="I126" s="12"/>
@@ -6738,13 +6737,13 @@
         <v>348</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E127" s="12" t="s">
         <v>19</v>
@@ -6753,7 +6752,7 @@
         <v>20</v>
       </c>
       <c r="G127" s="12">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H127" s="12"/>
       <c r="I127" s="12"/>
@@ -6763,13 +6762,13 @@
         <v>348</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D128" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E128" s="12" t="s">
         <v>19</v>
@@ -6778,7 +6777,7 @@
         <v>20</v>
       </c>
       <c r="G128" s="12">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H128" s="12"/>
       <c r="I128" s="12"/>
@@ -6788,13 +6787,13 @@
         <v>348</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E129" s="12" t="s">
         <v>19</v>
@@ -6803,23 +6802,23 @@
         <v>20</v>
       </c>
       <c r="G129" s="12">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H129" s="12"/>
       <c r="I129" s="12"/>
     </row>
-    <row r="130" spans="1:9" ht="22.5" customHeight="1">
+    <row r="130" spans="1:9">
       <c r="A130" s="12" t="s">
         <v>348</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>19</v>
@@ -6828,23 +6827,23 @@
         <v>20</v>
       </c>
       <c r="G130" s="12">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H130" s="12"/>
       <c r="I130" s="12"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" ht="22.5" customHeight="1">
       <c r="A131" s="12" t="s">
         <v>348</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E131" s="12" t="s">
         <v>19</v>
@@ -6853,7 +6852,7 @@
         <v>20</v>
       </c>
       <c r="G131" s="12">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
@@ -6863,13 +6862,13 @@
         <v>348</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>19</v>
@@ -6878,7 +6877,7 @@
         <v>20</v>
       </c>
       <c r="G132" s="12">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H132" s="12"/>
       <c r="I132" s="12"/>
@@ -6888,13 +6887,13 @@
         <v>348</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E133" s="12" t="s">
         <v>19</v>
@@ -6903,7 +6902,7 @@
         <v>20</v>
       </c>
       <c r="G133" s="12">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H133" s="12"/>
       <c r="I133" s="12"/>
@@ -6913,13 +6912,13 @@
         <v>348</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E134" s="12" t="s">
         <v>19</v>
@@ -6928,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="G134" s="12">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H134" s="12"/>
       <c r="I134" s="12"/>
@@ -6938,13 +6937,13 @@
         <v>348</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E135" s="12" t="s">
         <v>19</v>
@@ -6953,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="G135" s="12">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H135" s="12"/>
       <c r="I135" s="12"/>
@@ -6963,13 +6962,13 @@
         <v>348</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E136" s="12" t="s">
         <v>19</v>
@@ -6978,7 +6977,7 @@
         <v>20</v>
       </c>
       <c r="G136" s="12">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H136" s="12"/>
       <c r="I136" s="12"/>
@@ -6988,13 +6987,13 @@
         <v>348</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E137" s="12" t="s">
         <v>19</v>
@@ -7003,7 +7002,7 @@
         <v>20</v>
       </c>
       <c r="G137" s="12">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H137" s="12"/>
       <c r="I137" s="12"/>
@@ -7013,13 +7012,13 @@
         <v>348</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E138" s="12" t="s">
         <v>19</v>
@@ -7028,7 +7027,7 @@
         <v>20</v>
       </c>
       <c r="G138" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H138" s="12"/>
       <c r="I138" s="12"/>
@@ -7038,13 +7037,13 @@
         <v>348</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>19</v>
@@ -7053,7 +7052,7 @@
         <v>20</v>
       </c>
       <c r="G139" s="12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
@@ -7063,13 +7062,13 @@
         <v>348</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>19</v>
@@ -7078,7 +7077,7 @@
         <v>20</v>
       </c>
       <c r="G140" s="12">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H140" s="12"/>
       <c r="I140" s="12"/>
@@ -7088,13 +7087,13 @@
         <v>348</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>19</v>
@@ -7103,7 +7102,7 @@
         <v>20</v>
       </c>
       <c r="G141" s="12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H141" s="12"/>
       <c r="I141" s="12"/>
@@ -7113,13 +7112,13 @@
         <v>348</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>19</v>
@@ -7128,7 +7127,7 @@
         <v>20</v>
       </c>
       <c r="G142" s="12">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H142" s="12"/>
       <c r="I142" s="12"/>
@@ -7138,13 +7137,13 @@
         <v>348</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>19</v>
@@ -7153,7 +7152,7 @@
         <v>20</v>
       </c>
       <c r="G143" s="12">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H143" s="12"/>
       <c r="I143" s="12"/>
@@ -7163,13 +7162,13 @@
         <v>348</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>19</v>
@@ -7178,7 +7177,7 @@
         <v>20</v>
       </c>
       <c r="G144" s="12">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -7188,13 +7187,13 @@
         <v>348</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>19</v>
@@ -7203,7 +7202,7 @@
         <v>20</v>
       </c>
       <c r="G145" s="12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -7213,13 +7212,13 @@
         <v>348</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>19</v>
@@ -7228,7 +7227,7 @@
         <v>20</v>
       </c>
       <c r="G146" s="12">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -7238,13 +7237,13 @@
         <v>348</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>19</v>
@@ -7253,7 +7252,7 @@
         <v>20</v>
       </c>
       <c r="G147" s="12">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -7263,13 +7262,13 @@
         <v>348</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>19</v>
@@ -7278,7 +7277,7 @@
         <v>20</v>
       </c>
       <c r="G148" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H148" s="12"/>
       <c r="I148" s="12"/>
@@ -7288,13 +7287,13 @@
         <v>348</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E149" s="12" t="s">
         <v>19</v>
@@ -7303,7 +7302,7 @@
         <v>20</v>
       </c>
       <c r="G149" s="12">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H149" s="12"/>
       <c r="I149" s="12"/>
@@ -7313,13 +7312,13 @@
         <v>348</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E150" s="12" t="s">
         <v>19</v>
@@ -7328,7 +7327,7 @@
         <v>20</v>
       </c>
       <c r="G150" s="12">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H150" s="12"/>
       <c r="I150" s="12"/>
@@ -7338,13 +7337,13 @@
         <v>348</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>19</v>
@@ -7353,23 +7352,23 @@
         <v>20</v>
       </c>
       <c r="G151" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H151" s="12"/>
       <c r="I151" s="12"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="12" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>394</v>
+        <v>644</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>395</v>
+        <v>645</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>395</v>
+        <v>645</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>19</v>
@@ -7378,7 +7377,7 @@
         <v>20</v>
       </c>
       <c r="G152" s="12">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H152" s="12"/>
       <c r="I152" s="12"/>
@@ -7388,13 +7387,13 @@
         <v>368</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>19</v>
@@ -7403,7 +7402,7 @@
         <v>20</v>
       </c>
       <c r="G153" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H153" s="12"/>
       <c r="I153" s="12"/>
@@ -7413,13 +7412,13 @@
         <v>368</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>19</v>
@@ -7428,22 +7427,24 @@
         <v>20</v>
       </c>
       <c r="G154" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H154" s="12"/>
       <c r="I154" s="12"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="12" t="s">
-        <v>149</v>
+        <v>368</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D155" s="12"/>
+        <v>405</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>405</v>
+      </c>
       <c r="E155" s="12" t="s">
         <v>19</v>
       </c>
@@ -7451,7 +7452,7 @@
         <v>20</v>
       </c>
       <c r="G155" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H155" s="12"/>
       <c r="I155" s="12"/>
@@ -7461,10 +7462,10 @@
         <v>149</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D156" s="12"/>
       <c r="E156" s="12" t="s">
@@ -7474,20 +7475,20 @@
         <v>20</v>
       </c>
       <c r="G156" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H156" s="12"/>
       <c r="I156" s="12"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12" t="s">
@@ -7497,7 +7498,7 @@
         <v>20</v>
       </c>
       <c r="G157" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H157" s="12"/>
       <c r="I157" s="12"/>
@@ -7507,10 +7508,10 @@
         <v>139</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D158" s="12"/>
       <c r="E158" s="12" t="s">
@@ -7520,24 +7521,22 @@
         <v>20</v>
       </c>
       <c r="G158" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="12" t="s">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D159" s="12" t="s">
-        <v>284</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D159" s="12"/>
       <c r="E159" s="12" t="s">
         <v>19</v>
       </c>
@@ -7545,7 +7544,7 @@
         <v>20</v>
       </c>
       <c r="G159" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H159" s="12"/>
       <c r="I159" s="12"/>
@@ -7555,13 +7554,13 @@
         <v>282</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="E160" s="12" t="s">
         <v>19</v>
@@ -7570,7 +7569,7 @@
         <v>20</v>
       </c>
       <c r="G160" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H160" s="12"/>
       <c r="I160" s="12"/>
@@ -7580,13 +7579,13 @@
         <v>282</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E161" s="12" t="s">
         <v>19</v>
@@ -7595,22 +7594,24 @@
         <v>20</v>
       </c>
       <c r="G161" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="12" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D162" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="E162" s="12" t="s">
         <v>19</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>20</v>
       </c>
       <c r="G162" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H162" s="12"/>
       <c r="I162" s="12"/>
@@ -7628,10 +7629,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12" t="s">
@@ -7641,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="G163" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
@@ -7651,10 +7652,10 @@
         <v>161</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" s="12"/>
       <c r="E164" s="12" t="s">
@@ -7664,7 +7665,7 @@
         <v>20</v>
       </c>
       <c r="G164" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
@@ -7674,10 +7675,10 @@
         <v>161</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12" t="s">
@@ -7694,25 +7695,23 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="12" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D166" s="12" t="s">
-        <v>36</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D166" s="12"/>
       <c r="E166" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F166" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G166" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H166" s="12"/>
       <c r="I166" s="12"/>
@@ -7722,13 +7721,13 @@
         <v>33</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="E167" s="12" t="s">
         <v>20</v>
@@ -7737,7 +7736,7 @@
         <v>20</v>
       </c>
       <c r="G167" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
@@ -7747,13 +7746,13 @@
         <v>33</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>229</v>
+        <v>107</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>229</v>
+        <v>108</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>230</v>
+        <v>109</v>
       </c>
       <c r="E168" s="12" t="s">
         <v>20</v>
@@ -7762,32 +7761,32 @@
         <v>20</v>
       </c>
       <c r="G168" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="12" t="s">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>126</v>
+        <v>230</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>20</v>
       </c>
       <c r="G169" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
@@ -7797,12 +7796,14 @@
         <v>124</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D170" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="E170" s="12" t="s">
         <v>19</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>20</v>
       </c>
       <c r="G170" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
@@ -7820,10 +7821,10 @@
         <v>124</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12" t="s">
@@ -7833,7 +7834,7 @@
         <v>20</v>
       </c>
       <c r="G171" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
@@ -7843,10 +7844,10 @@
         <v>124</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D172" s="12"/>
       <c r="E172" s="12" t="s">
@@ -7856,24 +7857,22 @@
         <v>20</v>
       </c>
       <c r="G172" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H172" s="12"/>
       <c r="I172" s="12"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="12" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D173" s="12" t="s">
-        <v>291</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D173" s="12"/>
       <c r="E173" s="12" t="s">
         <v>19</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>20</v>
       </c>
       <c r="G173" s="12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H173" s="12"/>
       <c r="I173" s="12"/>
@@ -7891,13 +7890,13 @@
         <v>251</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="E174" s="12" t="s">
         <v>19</v>
@@ -7906,7 +7905,7 @@
         <v>20</v>
       </c>
       <c r="G174" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H174" s="12"/>
       <c r="I174" s="12"/>
@@ -7916,13 +7915,13 @@
         <v>251</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E175" s="12" t="s">
         <v>19</v>
@@ -7931,7 +7930,7 @@
         <v>20</v>
       </c>
       <c r="G175" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H175" s="12"/>
       <c r="I175" s="12"/>
@@ -7941,13 +7940,13 @@
         <v>251</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>19</v>
@@ -7956,23 +7955,23 @@
         <v>20</v>
       </c>
       <c r="G176" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H176" s="12"/>
       <c r="I176" s="12"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="12" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="E177" s="12" t="s">
         <v>19</v>
@@ -7981,7 +7980,7 @@
         <v>20</v>
       </c>
       <c r="G177" s="12">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
@@ -7991,13 +7990,13 @@
         <v>21</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="E178" s="12" t="s">
         <v>19</v>
@@ -8006,7 +8005,7 @@
         <v>20</v>
       </c>
       <c r="G178" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
@@ -8016,13 +8015,13 @@
         <v>21</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>223</v>
+        <v>22</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>19</v>
@@ -8031,7 +8030,7 @@
         <v>20</v>
       </c>
       <c r="G179" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
@@ -8041,13 +8040,13 @@
         <v>21</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E180" s="12" t="s">
         <v>19</v>
@@ -8056,7 +8055,7 @@
         <v>20</v>
       </c>
       <c r="G180" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
@@ -8066,13 +8065,13 @@
         <v>21</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E181" s="12" t="s">
         <v>19</v>
@@ -8081,22 +8080,24 @@
         <v>20</v>
       </c>
       <c r="G181" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="12" t="s">
-        <v>199</v>
+        <v>21</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D182" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="D182" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="E182" s="12" t="s">
         <v>19</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>20</v>
       </c>
       <c r="G182" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
@@ -8114,10 +8115,10 @@
         <v>199</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D183" s="12"/>
       <c r="E183" s="12" t="s">
@@ -8127,7 +8128,7 @@
         <v>20</v>
       </c>
       <c r="G183" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
@@ -8137,10 +8138,10 @@
         <v>199</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D184" s="12"/>
       <c r="E184" s="12" t="s">
@@ -8150,24 +8151,22 @@
         <v>20</v>
       </c>
       <c r="G184" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="12" t="s">
-        <v>37</v>
+        <v>199</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>662</v>
+        <v>218</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D185" s="12" t="s">
-        <v>347</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="D185" s="12"/>
       <c r="E185" s="12" t="s">
         <v>19</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>20</v>
       </c>
       <c r="G185" s="12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
@@ -8185,13 +8184,13 @@
         <v>37</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>659</v>
+        <v>346</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E186" s="12" t="s">
         <v>19</v>
@@ -8200,7 +8199,7 @@
         <v>20</v>
       </c>
       <c r="G186" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
@@ -8210,13 +8209,13 @@
         <v>37</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>19</v>
@@ -8225,7 +8224,7 @@
         <v>20</v>
       </c>
       <c r="G187" s="12">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H187" s="12"/>
       <c r="I187" s="12"/>
@@ -8250,23 +8249,23 @@
         <v>20</v>
       </c>
       <c r="G188" s="12">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H188" s="12"/>
       <c r="I188" s="12"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="12" t="s">
-        <v>37</v>
+        <v>654</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -8275,7 +8274,7 @@
         <v>20</v>
       </c>
       <c r="G189" s="12">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H189" s="12"/>
       <c r="I189" s="12"/>
@@ -8285,14 +8284,14 @@
         <v>37</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C190" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="D190" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="D190" s="12" t="s">
-        <v>671</v>
-      </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
       </c>
@@ -8300,7 +8299,7 @@
         <v>20</v>
       </c>
       <c r="G190" s="12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H190" s="12"/>
       <c r="I190" s="12"/>
@@ -8310,13 +8309,13 @@
         <v>37</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>19</v>
@@ -8325,7 +8324,7 @@
         <v>20</v>
       </c>
       <c r="G191" s="12">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
@@ -8350,7 +8349,7 @@
         <v>20</v>
       </c>
       <c r="G192" s="12">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>

--- a/document/excel_upload_자료/TBL_EXP_CODE.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_CODE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\excel_upload_자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B29631A7-3D82-471A-85DD-432A07F620EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA57265-FA4D-470F-BB49-E74562045116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
@@ -2004,30 +2004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팀원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PROCESS_STATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2093,6 +2069,30 @@
   </si>
   <si>
     <t>추천인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SALES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXEC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COWORK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코웍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3625,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F706EC46-4FD3-47B1-964A-6FD042DA6B08}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4789,10 +4789,10 @@
         <v>215</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12" t="s">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C186" s="12" t="s">
         <v>346</v>
@@ -8209,13 +8209,13 @@
         <v>37</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E187" s="12" t="s">
         <v>19</v>
@@ -8231,16 +8231,16 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="12" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>19</v>
@@ -8256,16 +8256,16 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="12" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E189" s="12" t="s">
         <v>19</v>
@@ -8284,13 +8284,13 @@
         <v>37</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="E190" s="12" t="s">
         <v>19</v>
@@ -8309,13 +8309,13 @@
         <v>37</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E191" s="12" t="s">
         <v>19</v>
@@ -8337,7 +8337,7 @@
         <v>275</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>220</v>
@@ -9921,13 +9921,13 @@
         <v>646</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>648</v>
+        <v>665</v>
       </c>
       <c r="C255" s="17" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="E255" s="12" t="s">
         <v>19</v>
@@ -9946,13 +9946,13 @@
         <v>646</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="C256" s="17" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="E256" s="12" t="s">
         <v>19</v>
@@ -9971,13 +9971,13 @@
         <v>646</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="E257" s="12" t="s">
         <v>19</v>
